--- a/Couresebook - Tuesdays Group - Excel BUS - 2025 B.xlsx
+++ b/Couresebook - Tuesdays Group - Excel BUS - 2025 B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/PAC - Excel/2025B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C1CE70-AC6D-B44F-A061-643D4AB24AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8181656E-1E9C-7A41-ABBB-6B49F27D6547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="50320" windowHeight="31500" activeTab="3" xr2:uid="{1D10E3F4-E20D-6C4D-B69D-62A15CF0947A}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="1459">
   <si>
     <t>ניתוח מידע עסקי ממוחשב - Excel - עם שייקה: סמסטר 2025א, מפגש 1</t>
   </si>
@@ -3133,213 +3133,205 @@
     <t xml:space="preserve">כזכור, קיבוע כזה חיוני רק כאשר גוררים נוסחה ורוצים לדאוג שההפניה תשאר קבועה. </t>
   </si>
   <si>
-    <t xml:space="preserve">ד כאשר מגדירים SUM טווח התאים מוגדר עם נקודותיים בין קצות הטווח ולא עם סימן + ביניהם. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ה אמנם חיבור ידני של הערכים יוביל לתוצאה תקינה, אך הוא ארוך, מסורבל, מועד לטעויות ובקיצור - לא יעיל. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מבחינתנו, תמיד כשנרצה לסכום טווח של ערכים, נשתמש בפונקציית SUM. </t>
-  </si>
-  <si>
-    <t>שאלה 2 - פונקציית ספירה, ממוצע מותנה ומניפולציה על נתונים</t>
-  </si>
-  <si>
-    <t>לפניכם נתונים לגבי ציוני סטודנטים וסטודנטיות בקורס ניתוח מידע עסקי ממוחשב במרכז האקדמי פרס:</t>
-  </si>
-  <si>
-    <t>מס׳ סטודנט</t>
-  </si>
-  <si>
-    <t>ציון הבחינה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">א. חשבו את ממוצע הציונים. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ב. הוסיפו עמודה שתקרא ״ציון אחרי פקטור״ שתכלול את ציוני הבסיס בתוספת 5 נק׳. השתמשו בתא עזר לפי הצורך. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ג. חשבו את חציון הציונים והסבירו את משמעותו. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ד. באמצעות פונקציה מתאימה, ציינו כמה סטודנטים נכשלו בבחינה (ציון נמוך מ-60). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ה. באמצעות פונקציה מתאימה, חשבו את ממוצע הציונים של העוברים בלבד. </t>
-  </si>
-  <si>
-    <t>ציון הבחינה
-לפני פקטור</t>
-  </si>
-  <si>
-    <t>ציון אחרי פקטור</t>
-  </si>
-  <si>
-    <t>פקטור:</t>
-  </si>
-  <si>
-    <t>ציון נכשל:</t>
-  </si>
-  <si>
-    <t>&lt;60</t>
-  </si>
-  <si>
-    <t>ציון עובר:</t>
-  </si>
-  <si>
-    <t>&gt;=60</t>
-  </si>
-  <si>
-    <t>KADAIF</t>
-  </si>
-  <si>
-    <t>ממוצע ציונים</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>חציון</t>
-  </si>
-  <si>
-    <t>הערך ש-50% מהסטודנטים נמצאים מעליו</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>כשלון</t>
-  </si>
-  <si>
-    <t>countif</t>
-  </si>
-  <si>
-    <t>ה</t>
-  </si>
-  <si>
-    <t>ממוצע עוברים</t>
-  </si>
-  <si>
-    <t>מקבלת כקלט (רצה על)</t>
-  </si>
-  <si>
-    <t>התנאי</t>
-  </si>
-  <si>
-    <t>טווח ערכים - כאן: D116:D126 טווח הציונים</t>
-  </si>
-  <si>
-    <t>הספציפי</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שעליו </t>
-  </si>
-  <si>
-    <t>וסופרת כמה ערכים בטווח עונים לתנאי</t>
-  </si>
-  <si>
-    <t>בתא העזר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מבוצעת </t>
-  </si>
-  <si>
-    <t>מסויים - כאן התנאי הוא ציון נכשל שמופיע בתא H119</t>
-  </si>
-  <si>
-    <t>שמגדיר כשלון</t>
-  </si>
-  <si>
-    <t>הבדיקה</t>
-  </si>
-  <si>
-    <t>פסיק</t>
-  </si>
-  <si>
-    <t>התנאי לציון</t>
-  </si>
-  <si>
-    <t>רשימת</t>
-  </si>
-  <si>
-    <t>שם הפונקציה שמקבלת כקלט רשימת ערכים וכן תנאי</t>
-  </si>
-  <si>
-    <t xml:space="preserve">עובר - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">הערכים - </t>
-  </si>
-  <si>
-    <t>ומבצעת חישוב ממוצע רק על אותם הערכים שעומדים בתנאי</t>
-  </si>
-  <si>
-    <t>לפי תא H122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ציונים </t>
-  </si>
-  <si>
-    <t>אחרי פקטור</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שאלה 2.1 - סגנון בחינה </t>
-  </si>
-  <si>
-    <t>אמנדה עובדת בחברה לשיווק נקניק בניהול קשת.</t>
-  </si>
-  <si>
-    <t>להלן נתונים לגבי מאפייני הנקניק במבחן טעימות עיוור שבוצע מטעם ישראל היום:</t>
-  </si>
-  <si>
-    <t>סוג הנקניק</t>
-  </si>
-  <si>
-    <t>ציון טעימה</t>
-  </si>
-  <si>
-    <t>ממוצע ציונים בענף הנקניק</t>
-  </si>
-  <si>
-    <t>תה</t>
-  </si>
-  <si>
-    <t>אמנדה</t>
-  </si>
-  <si>
-    <t>שי</t>
-  </si>
-  <si>
-    <t>קבנוס</t>
-  </si>
-  <si>
-    <t>פסטרמה</t>
-  </si>
-  <si>
-    <t>נקניקיה</t>
-  </si>
-  <si>
-    <t>צ׳וריסוס</t>
-  </si>
-  <si>
+    <r>
+      <t xml:space="preserve">ג </t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="David"/>
       </rPr>
-      <t>מס׳</t>
+      <t>נכונה</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="David"/>
       </rPr>
-      <t xml:space="preserve"> נקניקים מעל הממוצע</t>
+      <t>. הפניה נכונה לפונקציה, בלי קיבוע (כי אין גרירה). טווח התאים בסוגריים נכון, עם נקודותיים ביניהם.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ד כאשר מגדירים SUM טווח התאים מוגדר עם נקודותיים בין קצות הטווח ולא עם סימן + ביניהם. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ה אמנם חיבור ידני של הערכים יוביל לתוצאה תקינה, אך הוא ארוך, מסורבל, מועד לטעויות ובקיצור - לא יעיל. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מבחינתנו, תמיד כשנרצה לסכום טווח של ערכים, נשתמש בפונקציית SUM. </t>
+  </si>
+  <si>
+    <t>שאלה 2 - פונקציית ספירה, ממוצע מותנה ומניפולציה על נתונים</t>
+  </si>
+  <si>
+    <t>לפניכם נתונים לגבי ציוני סטודנטים וסטודנטיות בקורס ניתוח מידע עסקי ממוחשב במרכז האקדמי פרס:</t>
+  </si>
+  <si>
+    <t>מס׳ סטודנט</t>
+  </si>
+  <si>
+    <t>ציון הבחינה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ב. הוסיפו עמודה שתקרא ״ציון אחרי פקטור״ שתכלול את ציוני הבסיס בתוספת 5 נק׳. השתמשו בתא עזר לפי הצורך. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ג. חשבו את חציון הציונים והסבירו את משמעותו. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ה. באמצעות פונקציה מתאימה, חשבו את ממוצע הציונים של העוברים בלבד. </t>
+  </si>
+  <si>
+    <t>ציון הבחינה
+לפני פקטור</t>
+  </si>
+  <si>
+    <t>פקטור:</t>
+  </si>
+  <si>
+    <t>ציון נכשל:</t>
+  </si>
+  <si>
+    <t>&lt;60</t>
+  </si>
+  <si>
+    <t>ציון עובר:</t>
+  </si>
+  <si>
+    <t>&gt;=60</t>
+  </si>
+  <si>
+    <t>KADAIF</t>
+  </si>
+  <si>
+    <t>ממוצע ציונים</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>חציון</t>
+  </si>
+  <si>
+    <t>הערך ש-50% מהסטודנטים נמצאים מעליו</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>כשלון</t>
+  </si>
+  <si>
+    <t>countif</t>
+  </si>
+  <si>
+    <t>ה</t>
+  </si>
+  <si>
+    <t>ממוצע עוברים</t>
+  </si>
+  <si>
+    <t>מקבלת כקלט (רצה על)</t>
+  </si>
+  <si>
+    <t>התנאי</t>
+  </si>
+  <si>
+    <t>טווח ערכים - כאן: D116:D126 טווח הציונים</t>
+  </si>
+  <si>
+    <t>הספציפי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שעליו </t>
+  </si>
+  <si>
+    <t>וסופרת כמה ערכים בטווח עונים לתנאי</t>
+  </si>
+  <si>
+    <t>בתא העזר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מבוצעת </t>
+  </si>
+  <si>
+    <t>מסויים - כאן התנאי הוא ציון נכשל שמופיע בתא H119</t>
+  </si>
+  <si>
+    <t>שמגדיר כשלון</t>
+  </si>
+  <si>
+    <t>הבדיקה</t>
+  </si>
+  <si>
+    <t>פסיק</t>
+  </si>
+  <si>
+    <t>התנאי לציון</t>
+  </si>
+  <si>
+    <t>רשימת</t>
+  </si>
+  <si>
+    <t>שם הפונקציה שמקבלת כקלט רשימת ערכים וכן תנאי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עובר - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הערכים - </t>
+  </si>
+  <si>
+    <t>ומבצעת חישוב ממוצע רק על אותם הערכים שעומדים בתנאי</t>
+  </si>
+  <si>
+    <t>לפי תא H122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ציונים </t>
+  </si>
+  <si>
+    <t>אחרי פקטור</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שאלה 2.1 - סגנון בחינה </t>
+  </si>
+  <si>
+    <t>אמנדה עובדת בחברה לשיווק נקניק בניהול קשת.</t>
+  </si>
+  <si>
+    <t>להלן נתונים לגבי מאפייני הנקניק במבחן טעימות עיוור שבוצע מטעם ישראל היום:</t>
+  </si>
+  <si>
+    <t>סוג הנקניק</t>
+  </si>
+  <si>
+    <t>ציון טעימה</t>
+  </si>
+  <si>
+    <t>ממוצע ציונים בענף הנקניק</t>
+  </si>
+  <si>
+    <t>תה</t>
+  </si>
+  <si>
+    <t>אמנדה</t>
+  </si>
+  <si>
+    <t>שי</t>
+  </si>
+  <si>
+    <t>קבנוס</t>
+  </si>
+  <si>
+    <t>פסטרמה</t>
+  </si>
+  <si>
+    <t>נקניקיה</t>
+  </si>
+  <si>
+    <t>צ׳וריסוס</t>
   </si>
   <si>
     <t xml:space="preserve">נדרש - מבין הנוסחאות הבאות, איזו מתאימה להשלמה רלוונטית של הערך בתא C160? יש לפעול בצורה יעילה </t>
@@ -5142,26 +5134,60 @@
     <t>סך הכל שכר</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ג </t>
-    </r>
+    <t xml:space="preserve">א. חשבו את ממוצע הציונים הנתונים. </t>
+  </si>
+  <si>
+    <t>ציון אחרי 
+פקטור</t>
+  </si>
+  <si>
+    <t>ד. באמצעות פונקציה מתאימה, ציינו כמה סטודנטים נכשלו בבחינה (ציון נמוך מ-60) בהתאם לעמודת ציון אחרי פקטור.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <rFont val="David"/>
       </rPr>
-      <t>נכונה</t>
+      <t xml:space="preserve">מס׳ </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <rFont val="David"/>
       </rPr>
-      <t>. הפניה נכונה לפונקציה, בלי קיבוע (כי אין גרירה). טווח התאים בסוגריים נכון, עם נקודותיים ביניהם.</t>
+      <t>סוגי נקניקים מעל הממוצע</t>
     </r>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>סיכום ערכים - מקבלים כקלט רשימת ערכים ופולטים סכום</t>
+  </si>
+  <si>
+    <t>ממוצע ערכים - מקבלים כקלט רשימת ערכים ופולטים סכום</t>
+  </si>
+  <si>
+    <t>הערך המינימלי מבין רשימת הערכים המוזנת</t>
+  </si>
+  <si>
+    <t>הערך המירבי מבין רשימת הערכים המוזנת</t>
+  </si>
+  <si>
+    <t>ספירת מספר הערכים המספריים ברשימה המוזנת</t>
+  </si>
+  <si>
+    <t>ספירת מספר הערכים (מכל סוג שהוא) ברשימה המוזנת</t>
+  </si>
+  <si>
+    <t>ספירת מספר הערכים העונים לתנאי מסויים</t>
+  </si>
+  <si>
+    <t>ממוצע הערכים העונים לתנאי מסויים</t>
   </si>
 </sst>
 </file>
@@ -5175,7 +5201,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5290,12 +5316,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="David"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="David"/>
     </font>
   </fonts>
@@ -5594,7 +5614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -5747,6 +5767,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -22407,8 +22428,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="8034354">
-          <a:off x="13550493132" y="23887348"/>
-          <a:ext cx="114795" cy="204459"/>
+          <a:off x="13539917896" y="23962213"/>
+          <a:ext cx="115389" cy="204459"/>
           <a:chOff x="13521233900" y="17791794"/>
           <a:chExt cx="114025" cy="204459"/>
         </a:xfrm>
@@ -22865,6 +22886,94 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>631151</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>113915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>96212</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>56958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Picture 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42623F0A-BA8C-45B2-6A30-F5C060493AD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13549803182" y="24274703"/>
+          <a:ext cx="292485" cy="350982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604212</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>133157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Picture 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48940129-790A-6CDC-8974-4BAF40B7AD7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13549830121" y="24905854"/>
+          <a:ext cx="292485" cy="350982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -34009,8 +34118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC24980-4454-8446-9355-DD6AC971656B}">
   <dimension ref="A1:K943"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A192" zoomScale="330" zoomScaleNormal="370" workbookViewId="0">
-      <selection activeCell="C229" sqref="C229:C230"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="298" zoomScaleNormal="370" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34058,6 +34167,9 @@
       <c r="D5" s="11" t="s">
         <v>776</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>1451</v>
+      </c>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -34068,6 +34180,9 @@
       <c r="D6" s="11" t="s">
         <v>776</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>1452</v>
+      </c>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -34078,6 +34193,9 @@
       <c r="D7" s="11" t="s">
         <v>776</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>1453</v>
+      </c>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -34088,6 +34206,9 @@
       <c r="D8" s="11" t="s">
         <v>776</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>1454</v>
+      </c>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -34098,6 +34219,9 @@
       <c r="D9" s="11" t="s">
         <v>776</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>1455</v>
+      </c>
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -34108,6 +34232,9 @@
       <c r="D10" s="11" t="s">
         <v>776</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>1456</v>
+      </c>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -34118,6 +34245,9 @@
       <c r="D11" s="11" t="s">
         <v>776</v>
       </c>
+      <c r="E11" s="3" t="s">
+        <v>1457</v>
+      </c>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -34127,6 +34257,9 @@
       </c>
       <c r="D12" s="11" t="s">
         <v>776</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1458</v>
       </c>
       <c r="H12" s="22"/>
     </row>
@@ -34407,13 +34540,16 @@
       <c r="B52" s="96" t="s">
         <v>815</v>
       </c>
-      <c r="C52" s="97"/>
+      <c r="C52" s="97">
+        <f>SUM(C47:C50)</f>
+        <v>157000</v>
+      </c>
       <c r="D52" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="F52" s="3" t="e">
+      <c r="F52" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C52)</f>
-        <v>#N/A</v>
+        <v>=SUM(C47:C50)</v>
       </c>
       <c r="H52" s="36" t="s">
         <v>816</v>
@@ -34430,13 +34566,16 @@
       <c r="B53" s="96" t="s">
         <v>818</v>
       </c>
-      <c r="C53" s="96"/>
+      <c r="C53" s="96">
+        <f>AVERAGE(C47:C50)</f>
+        <v>39250</v>
+      </c>
       <c r="D53" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="F53" s="3" t="e">
+      <c r="F53" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C53)</f>
-        <v>#N/A</v>
+        <v>=AVERAGE(C47:C50)</v>
       </c>
       <c r="H53" s="36"/>
       <c r="I53" s="36" t="s">
@@ -34451,13 +34590,16 @@
       <c r="B54" s="96" t="s">
         <v>821</v>
       </c>
-      <c r="C54" s="96"/>
+      <c r="C54" s="96">
+        <f>MAX(C47:C50)</f>
+        <v>75000</v>
+      </c>
       <c r="D54" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="F54" s="3" t="e">
+      <c r="F54" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C54)</f>
-        <v>#N/A</v>
+        <v>=MAX(C47:C50)</v>
       </c>
       <c r="H54" s="36"/>
       <c r="I54" s="36" t="s">
@@ -34472,13 +34614,16 @@
       <c r="B55" s="96" t="s">
         <v>824</v>
       </c>
-      <c r="C55" s="96"/>
+      <c r="C55" s="96">
+        <f>MIN(C47:C50)</f>
+        <v>10000</v>
+      </c>
       <c r="D55" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="F55" s="3" t="e">
+      <c r="F55" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C55)</f>
-        <v>#N/A</v>
+        <v>=MIN(C47:C50)</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -34624,99 +34769,50 @@
         <v>839</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="9" t="s">
         <v>840</v>
       </c>
-      <c r="B82" s="61"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
     </row>
     <row r="83" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="61" t="s">
+      <c r="A83" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
     </row>
     <row r="84" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="61" t="s">
+      <c r="A84" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
     </row>
     <row r="85" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
+      <c r="A85" s="9" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="86" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="61" t="s">
-        <v>843</v>
-      </c>
-      <c r="B86" s="61"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
+      <c r="A86" s="9" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="87" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="61" t="s">
-        <v>844</v>
-      </c>
-      <c r="B87" s="61"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
+      <c r="A87" s="9" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="88" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="61" t="s">
-        <v>845</v>
-      </c>
-      <c r="B88" s="61"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
+      <c r="A88" s="9" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="89" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="94" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B90" s="95"/>
       <c r="C90" s="95"/>
@@ -34728,15 +34824,15 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -34829,7 +34925,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>850</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -34844,12 +34940,12 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>853</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -34864,16 +34960,16 @@
     </row>
     <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C115" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="D115" s="99" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H115" s="3" t="s">
         <v>855</v>
-      </c>
-      <c r="D115" s="99" t="s">
-        <v>856</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -34915,7 +35011,7 @@
         <v>99</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -34930,7 +35026,7 @@
         <v>79</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -34957,7 +35053,7 @@
         <v>91</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -34972,7 +35068,7 @@
         <v>59</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -35011,7 +35107,7 @@
         <v>105</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -35034,12 +35130,15 @@
         <v>771</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="C128" s="100"/>
-      <c r="D128" s="100"/>
+        <v>861</v>
+      </c>
+      <c r="C128" s="100">
+        <f>AVERAGE(C116:C126)</f>
+        <v>76.454545454545453</v>
+      </c>
+      <c r="D128" s="101"/>
       <c r="H128" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -35047,15 +35146,18 @@
         <v>822</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="C129" s="61"/>
+        <v>863</v>
+      </c>
+      <c r="C129" s="9">
+        <f>MEDIAN(C116:C126)</f>
+        <v>79</v>
+      </c>
       <c r="D129" s="61"/>
       <c r="E129" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -35063,123 +35165,129 @@
         <v>825</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="C130" s="101"/>
-      <c r="D130" s="61"/>
-      <c r="G130" s="3" t="e">
+        <v>866</v>
+      </c>
+      <c r="C130" s="102"/>
+      <c r="D130" s="9">
+        <f>COUNTIF(D116:D126,H119)</f>
+        <v>2</v>
+      </c>
+      <c r="G130" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D130)</f>
-        <v>#N/A</v>
+        <v>=COUNTIF(D116:D126,H119)</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="C131" s="102"/>
-      <c r="D131" s="61"/>
+        <v>869</v>
+      </c>
+      <c r="C131" s="103"/>
+      <c r="D131" s="9">
+        <f>AVERAGEIF(D116:D126,H122)</f>
+        <v>86.555555555555557</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G132" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E133" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>808</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E134" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="G134" s="3" t="s">
         <v>875</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>876</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E135" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>878</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E136" s="11" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F138" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D139" s="3" t="e">
+      <c r="D139" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D131)</f>
-        <v>#N/A</v>
+        <v>=AVERAGEIF(D116:D126,H122)</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B141" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>884</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>887</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C144" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="94" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B146" s="95"/>
       <c r="C146" s="95"/>
@@ -35191,30 +35299,30 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="F151" s="3" t="s">
         <v>896</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B152" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="C152" s="3">
+        <v>897</v>
+      </c>
+      <c r="D152" s="3">
         <v>8</v>
       </c>
       <c r="F152" s="3">
@@ -35223,67 +35331,67 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B153" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="C153" s="3">
+        <v>898</v>
+      </c>
+      <c r="D153" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="C154" s="3">
+        <v>899</v>
+      </c>
+      <c r="D154" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B155" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="C155" s="3">
+        <v>900</v>
+      </c>
+      <c r="D155" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B156" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="C156" s="3">
+        <v>901</v>
+      </c>
+      <c r="D156" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="C157" s="3">
+        <v>902</v>
+      </c>
+      <c r="D157" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B158" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="C158" s="3">
+        <v>903</v>
+      </c>
+      <c r="D158" s="3">
         <v>3.4</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="160" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="C160" s="98"/>
+        <v>1449</v>
+      </c>
+      <c r="D160" s="98"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -35291,7 +35399,7 @@
         <v>832</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -35299,15 +35407,15 @@
         <v>834</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -35315,158 +35423,158 @@
         <v>108</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D178" s="3" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D181" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G193" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="94" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B196" s="95"/>
       <c r="C196" s="95"/>
@@ -35478,7 +35586,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -35486,7 +35594,7 @@
         <v>828</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>780</v>
@@ -35500,7 +35608,7 @@
         <v>8</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -35512,7 +35620,7 @@
         <v>10</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -35521,7 +35629,7 @@
         <v>45294</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="H203" s="3" t="s">
         <v>781</v>
@@ -35536,7 +35644,7 @@
         <v>14</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -35548,7 +35656,7 @@
         <v>17</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -35566,7 +35674,7 @@
         <v>45298</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -35584,7 +35692,7 @@
         <v>45300</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -35598,12 +35706,12 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -35616,10 +35724,10 @@
         <v>828</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -35630,7 +35738,7 @@
         <v>8</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -35642,7 +35750,7 @@
         <v>10</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -35651,10 +35759,10 @@
         <v>45294</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -35666,7 +35774,7 @@
         <v>14</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -35678,7 +35786,7 @@
         <v>17</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -35690,7 +35798,7 @@
         <v>3</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -35699,7 +35807,7 @@
         <v>45298</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -35711,7 +35819,7 @@
         <v>9</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -35720,10 +35828,10 @@
         <v>45300</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -35735,18 +35843,21 @@
         <v>23</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="C229" s="9"/>
+        <v>964</v>
+      </c>
+      <c r="C229" s="9">
+        <f>COUNT(C218:C227)</f>
+        <v>7</v>
+      </c>
       <c r="D229" s="9"/>
-      <c r="E229" s="9" t="e">
+      <c r="E229" s="9" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C229)</f>
-        <v>#N/A</v>
+        <v>=COUNT(C218:C227)</v>
       </c>
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
@@ -35754,13 +35865,16 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="C230" s="9"/>
+        <v>965</v>
+      </c>
+      <c r="C230" s="9">
+        <f>COUNTA(C218:C227)</f>
+        <v>10</v>
+      </c>
       <c r="D230" s="9"/>
-      <c r="E230" s="9" t="e">
+      <c r="E230" s="9" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C230)</f>
-        <v>#N/A</v>
+        <v>=COUNTA(C218:C227)</v>
       </c>
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
@@ -35768,92 +35882,98 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E236" s="52" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C239" s="3" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C240" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" s="104" t="s">
+        <v>775</v>
+      </c>
+      <c r="B242" s="104" t="s">
+        <v>777</v>
+      </c>
+      <c r="C242" s="104" t="s">
+        <v>778</v>
+      </c>
+      <c r="D242" s="104" t="s">
+        <v>779</v>
+      </c>
+      <c r="E242" s="104" t="s">
+        <v>780</v>
+      </c>
+      <c r="F242" s="104" t="s">
+        <v>781</v>
+      </c>
+      <c r="G242" s="104" t="s">
+        <v>782</v>
+      </c>
+      <c r="H242" s="104" t="s">
+        <v>783</v>
+      </c>
+      <c r="I242" s="11" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C243" s="11" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="103" t="s">
-        <v>775</v>
-      </c>
-      <c r="B242" s="103" t="s">
-        <v>777</v>
-      </c>
-      <c r="C242" s="103" t="s">
-        <v>778</v>
-      </c>
-      <c r="D242" s="103" t="s">
-        <v>779</v>
-      </c>
-      <c r="E242" s="103" t="s">
-        <v>780</v>
-      </c>
-      <c r="F242" s="103" t="s">
-        <v>781</v>
-      </c>
-      <c r="G242" s="103" t="s">
-        <v>782</v>
-      </c>
-      <c r="H242" s="103" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="11" t="s">
+      <c r="D243" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="B243" s="11" t="s">
+      <c r="E243" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="C243" s="11" t="s">
+      <c r="F243" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="D243" s="11" t="s">
+      <c r="G243" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="E243" s="11" t="s">
+      <c r="H243" s="11" t="s">
         <v>980</v>
       </c>
-      <c r="F243" s="11" t="s">
+      <c r="I243" s="11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" s="94" t="s">
         <v>981</v>
-      </c>
-      <c r="G243" s="11" t="s">
-        <v>982</v>
-      </c>
-      <c r="H243" s="11" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A245" s="94" t="s">
-        <v>984</v>
       </c>
       <c r="B245" s="95"/>
       <c r="C245" s="95"/>
@@ -35863,40 +35983,40 @@
       <c r="G245" s="95"/>
       <c r="H245" s="95"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="83" t="s">
         <v>211</v>
       </c>
       <c r="B249" s="83" t="s">
+        <v>983</v>
+      </c>
+      <c r="C249" s="83" t="s">
+        <v>984</v>
+      </c>
+      <c r="D249" s="83" t="s">
+        <v>985</v>
+      </c>
+      <c r="E249" s="83" t="s">
         <v>986</v>
       </c>
-      <c r="C249" s="83" t="s">
+      <c r="F249" s="83" t="s">
         <v>987</v>
       </c>
-      <c r="D249" s="83" t="s">
+      <c r="G249" s="83" t="s">
         <v>988</v>
       </c>
-      <c r="E249" s="83" t="s">
-        <v>989</v>
-      </c>
-      <c r="F249" s="83" t="s">
-        <v>990</v>
-      </c>
-      <c r="G249" s="83" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>500</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C250" s="3">
         <v>50</v>
@@ -35905,12 +36025,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>600</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C251" s="3">
         <v>200</v>
@@ -35919,12 +36039,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>174</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C252" s="3">
         <v>4</v>
@@ -35933,12 +36053,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>392</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C253" s="3">
         <v>12</v>
@@ -35947,12 +36067,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>653</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C254" s="3">
         <v>30</v>
@@ -35961,12 +36081,12 @@
         <v>390</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>439</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C255" s="3">
         <v>170</v>
@@ -35975,12 +36095,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>100</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C256" s="3">
         <v>22</v>
@@ -35991,27 +36111,27 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -36021,7 +36141,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -36029,25 +36149,25 @@
         <v>211</v>
       </c>
       <c r="B268" s="83" t="s">
+        <v>983</v>
+      </c>
+      <c r="C268" s="83" t="s">
+        <v>984</v>
+      </c>
+      <c r="D268" s="83" t="s">
+        <v>985</v>
+      </c>
+      <c r="E268" s="83" t="s">
         <v>986</v>
       </c>
-      <c r="C268" s="83" t="s">
+      <c r="F268" s="83" t="s">
         <v>987</v>
       </c>
-      <c r="D268" s="83" t="s">
+      <c r="G268" s="83" t="s">
         <v>988</v>
       </c>
-      <c r="E268" s="83" t="s">
-        <v>989</v>
-      </c>
-      <c r="F268" s="83" t="s">
-        <v>990</v>
-      </c>
-      <c r="G268" s="83" t="s">
-        <v>991</v>
-      </c>
       <c r="I268" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -36055,7 +36175,7 @@
         <v>500</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C269" s="3">
         <v>50</v>
@@ -36084,7 +36204,7 @@
         <v>600</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C270" s="3">
         <v>200</v>
@@ -36110,7 +36230,7 @@
         <v>174</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C271" s="3">
         <v>4</v>
@@ -36136,7 +36256,7 @@
         <v>392</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C272" s="3">
         <v>12</v>
@@ -36162,7 +36282,7 @@
         <v>653</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C273" s="3">
         <v>30</v>
@@ -36188,7 +36308,7 @@
         <v>439</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C274" s="3">
         <v>170</v>
@@ -36214,7 +36334,7 @@
         <v>100</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C275" s="3">
         <v>22</v>
@@ -36240,14 +36360,14 @@
         <v>777</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="C277" s="104">
+        <v>974</v>
+      </c>
+      <c r="C277" s="105">
         <f>AVERAGE(C269:C275)</f>
         <v>69.714285714285708</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E277" s="3">
         <f>SUM(E269:E275)</f>
@@ -36267,9 +36387,9 @@
         <v>778</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C278" s="105">
+        <v>1001</v>
+      </c>
+      <c r="C278" s="106">
         <f>MIN(C269:C275)</f>
         <v>4</v>
       </c>
@@ -36282,7 +36402,7 @@
         <v>779</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C279" s="3">
         <f>MAX(C269:C275)</f>
@@ -36291,7 +36411,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B280" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C280" s="3">
         <f>COUNT(C269:C275)</f>
@@ -36303,12 +36423,12 @@
         <v>780</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="94" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B284" s="95"/>
       <c r="C284" s="95"/>
@@ -36320,23 +36440,23 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C288" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B289" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C289" s="3">
         <v>164</v>
@@ -36350,7 +36470,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B290" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C290" s="3">
         <v>289</v>
@@ -36364,7 +36484,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B291" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C291" s="3">
         <v>30</v>
@@ -36378,7 +36498,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B292" s="3" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C292" s="3">
         <v>161</v>
@@ -36392,7 +36512,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B293" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C293" s="3">
         <v>288</v>
@@ -36406,7 +36526,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B294" s="3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C294" s="3">
         <v>70</v>
@@ -36420,7 +36540,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B295" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C295" s="3">
         <v>450</v>
@@ -36434,31 +36554,31 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C300" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B301" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C301" s="3">
         <f>C289*$H$301</f>
@@ -36478,7 +36598,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B302" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C302" s="3">
         <f t="shared" ref="C302:E307" si="8">C290*$H$301</f>
@@ -36495,7 +36615,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B303" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C303" s="3">
         <f t="shared" si="8"/>
@@ -36512,7 +36632,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B304" s="3" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C304" s="3">
         <f t="shared" si="8"/>
@@ -36529,7 +36649,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B305" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C305" s="3">
         <f t="shared" si="8"/>
@@ -36546,7 +36666,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B306" s="3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C306" s="3">
         <f t="shared" si="8"/>
@@ -36563,7 +36683,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B307" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C307" s="3">
         <f t="shared" si="8"/>
@@ -36580,7 +36700,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="94" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B309" s="95"/>
       <c r="C309" s="95"/>
@@ -36591,55 +36711,55 @@
       <c r="H309" s="95"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A311" s="103" t="s">
+      <c r="A311" s="104" t="s">
         <v>775</v>
       </c>
-      <c r="B311" s="103" t="s">
+      <c r="B311" s="104" t="s">
         <v>777</v>
       </c>
-      <c r="C311" s="103" t="s">
+      <c r="C311" s="104" t="s">
         <v>778</v>
       </c>
-      <c r="D311" s="103" t="s">
+      <c r="D311" s="104" t="s">
         <v>779</v>
       </c>
-      <c r="E311" s="103" t="s">
+      <c r="E311" s="104" t="s">
         <v>780</v>
       </c>
-      <c r="F311" s="103" t="s">
+      <c r="F311" s="104" t="s">
         <v>781</v>
       </c>
-      <c r="G311" s="103" t="s">
+      <c r="G311" s="104" t="s">
         <v>782</v>
       </c>
-      <c r="H311" s="103" t="s">
+      <c r="H311" s="104" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="D312" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="B312" s="11" t="s">
+      <c r="E312" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="C312" s="11" t="s">
+      <c r="F312" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="D312" s="11" t="s">
+      <c r="G312" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="E312" s="11" t="s">
+      <c r="H312" s="11" t="s">
         <v>980</v>
-      </c>
-      <c r="F312" s="11" t="s">
-        <v>981</v>
-      </c>
-      <c r="G312" s="11" t="s">
-        <v>982</v>
-      </c>
-      <c r="H312" s="11" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
@@ -36659,43 +36779,43 @@
         <v>776</v>
       </c>
       <c r="F313" s="11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="G313" s="11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H313" s="11" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="83" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B318" s="83" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C318" s="83" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D318" s="83" t="s">
         <v>1027</v>
       </c>
-      <c r="B318" s="83" t="s">
+      <c r="E318" s="83" t="s">
         <v>1028</v>
       </c>
-      <c r="C318" s="83" t="s">
+      <c r="F318" s="83" t="s">
         <v>1029</v>
-      </c>
-      <c r="D318" s="83" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E318" s="83" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F318" s="83" t="s">
-        <v>1032</v>
       </c>
       <c r="G318" s="83" t="s">
         <v>604</v>
@@ -36706,10 +36826,10 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>270</v>
@@ -36720,10 +36840,10 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>270</v>
@@ -36740,185 +36860,185 @@
         <v>682</v>
       </c>
       <c r="B321" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C321" s="3" t="s">
         <v>1034</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>1037</v>
       </c>
       <c r="D321" s="3">
         <v>44</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="G321" s="3">
         <v>25000</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D322" s="3">
         <v>32</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="G322" s="3">
         <v>33000</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D323" s="3">
         <v>54</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G323" s="3">
         <v>48000</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D324" s="3">
         <v>25</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G324" s="3">
         <v>14000</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D325" s="3">
         <v>67</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G325" s="3">
         <v>17000</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D326" s="3">
         <v>33</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="G326" s="3">
         <v>50000</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
@@ -36928,32 +37048,32 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="83" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B339" s="83" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C339" s="83" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D339" s="83" t="s">
         <v>1027</v>
       </c>
-      <c r="B339" s="83" t="s">
+      <c r="E339" s="83" t="s">
         <v>1028</v>
       </c>
-      <c r="C339" s="83" t="s">
+      <c r="F339" s="83" t="s">
         <v>1029</v>
-      </c>
-      <c r="D339" s="83" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E339" s="83" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F339" s="83" t="s">
-        <v>1032</v>
       </c>
       <c r="G339" s="83" t="s">
         <v>604</v>
@@ -36964,10 +37084,10 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>270</v>
@@ -36978,10 +37098,10 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>270</v>
@@ -36998,180 +37118,180 @@
         <v>682</v>
       </c>
       <c r="B342" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C342" s="3" t="s">
         <v>1034</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>1037</v>
       </c>
       <c r="D342" s="3">
         <v>44</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="G342" s="3">
         <v>25000</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D343" s="3">
         <v>32</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="G343" s="3">
         <v>33000</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D344" s="3">
         <v>54</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G344" s="3">
         <v>48000</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D345" s="3">
         <v>25</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G345" s="3">
         <v>14000</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D346" s="3">
         <v>67</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G346" s="3">
         <v>17000</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D347" s="3">
         <v>33</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="G347" s="3">
         <v>50000</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F354" s="3">
         <f>COUNTA(A340:A347)</f>
@@ -37180,34 +37300,34 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="F355" s="3">
         <f>COUNT(A340:A347)</f>
         <v>0</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G360" s="3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
@@ -37216,7 +37336,7 @@
         <v>2</v>
       </c>
       <c r="G361" s="3" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
@@ -37227,44 +37347,44 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B365" s="3" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B366" s="3" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B367" s="3" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B368" s="3" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B369" s="3" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
@@ -37273,27 +37393,27 @@
         <v>4</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G374" s="3" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
@@ -37302,12 +37422,12 @@
         <v>25000</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G381" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
@@ -37318,46 +37438,46 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>808</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -37365,7 +37485,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="94" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B392" s="95"/>
       <c r="C392" s="95"/>
@@ -37377,79 +37497,79 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A401" s="106" t="s">
+      <c r="A401" s="107" t="s">
         <v>775</v>
       </c>
-      <c r="B401" s="106" t="s">
+      <c r="B401" s="107" t="s">
         <v>777</v>
       </c>
-      <c r="C401" s="106" t="s">
+      <c r="C401" s="107" t="s">
         <v>778</v>
       </c>
-      <c r="D401" s="106" t="s">
+      <c r="D401" s="107" t="s">
         <v>779</v>
       </c>
-      <c r="E401" s="106" t="s">
+      <c r="E401" s="107" t="s">
         <v>780</v>
       </c>
-      <c r="F401" s="106" t="s">
+      <c r="F401" s="107" t="s">
         <v>781</v>
       </c>
-      <c r="G401" s="106" t="s">
+      <c r="G401" s="107" t="s">
         <v>782</v>
       </c>
-      <c r="H401" s="106" t="s">
+      <c r="H401" s="107" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="79" t="s">
+        <v>973</v>
+      </c>
+      <c r="B402" s="79" t="s">
+        <v>974</v>
+      </c>
+      <c r="C402" s="79" t="s">
+        <v>975</v>
+      </c>
+      <c r="D402" s="79" t="s">
         <v>976</v>
       </c>
-      <c r="B402" s="79" t="s">
+      <c r="E402" s="79" t="s">
         <v>977</v>
       </c>
-      <c r="C402" s="79" t="s">
+      <c r="F402" s="79" t="s">
         <v>978</v>
       </c>
-      <c r="D402" s="79" t="s">
+      <c r="G402" s="79" t="s">
         <v>979</v>
       </c>
-      <c r="E402" s="79" t="s">
+      <c r="H402" s="79" t="s">
         <v>980</v>
-      </c>
-      <c r="F402" s="79" t="s">
-        <v>981</v>
-      </c>
-      <c r="G402" s="79" t="s">
-        <v>982</v>
-      </c>
-      <c r="H402" s="79" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.2">
@@ -37464,34 +37584,34 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="81" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A408" s="108" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B408" s="108" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C408" s="108" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A408" s="107" t="s">
+      <c r="D408" s="108" t="s">
         <v>1105</v>
       </c>
-      <c r="B408" s="107" t="s">
+      <c r="E408" s="108" t="s">
         <v>1106</v>
-      </c>
-      <c r="C408" s="107" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D408" s="107" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E408" s="107" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
@@ -37530,7 +37650,7 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="96" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B411" s="96">
         <v>150</v>
@@ -37547,7 +37667,7 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="96" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B412" s="96">
         <v>80</v>
@@ -37581,7 +37701,7 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="96" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B414" s="96">
         <v>105</v>
@@ -37598,7 +37718,7 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="96" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B415" s="96">
         <v>44</v>
@@ -37615,7 +37735,7 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="96" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B416" s="96">
         <v>88</v>
@@ -37632,105 +37752,105 @@
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H423" s="108" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H423" s="109" t="s">
         <v>775</v>
       </c>
-      <c r="I423" s="108" t="s">
-        <v>976</v>
+      <c r="I423" s="109" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H424" s="108" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H424" s="109" t="s">
         <v>777</v>
       </c>
-      <c r="I424" s="108" t="s">
-        <v>977</v>
+      <c r="I424" s="109" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H425" s="108" t="s">
+      <c r="H425" s="109" t="s">
         <v>778</v>
       </c>
-      <c r="I425" s="108" t="s">
-        <v>978</v>
+      <c r="I425" s="109" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H426" s="108" t="s">
+      <c r="H426" s="109" t="s">
         <v>779</v>
       </c>
-      <c r="I426" s="108" t="s">
-        <v>979</v>
+      <c r="I426" s="109" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F427" s="107" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H427" s="108" t="s">
+      <c r="F427" s="108" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H427" s="109" t="s">
         <v>780</v>
       </c>
-      <c r="I427" s="108" t="s">
-        <v>980</v>
+      <c r="I427" s="109" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A428" s="107" t="s">
+      <c r="A428" s="108" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B428" s="108" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C428" s="108" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D428" s="108" t="s">
         <v>1105</v>
       </c>
-      <c r="B428" s="107" t="s">
+      <c r="E428" s="110" t="s">
         <v>1106</v>
       </c>
-      <c r="C428" s="107" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D428" s="107" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E428" s="109" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F428" s="107" t="s">
-        <v>1123</v>
-      </c>
-      <c r="H428" s="108" t="s">
+      <c r="F428" s="108" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H428" s="109" t="s">
         <v>781</v>
       </c>
-      <c r="I428" s="108" t="s">
-        <v>981</v>
+      <c r="I428" s="109" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
@@ -37740,24 +37860,24 @@
       <c r="B429" s="96">
         <v>100</v>
       </c>
-      <c r="C429" s="110">
+      <c r="C429" s="111">
         <v>60</v>
       </c>
       <c r="D429" s="96">
         <v>20</v>
       </c>
-      <c r="E429" s="111">
+      <c r="E429" s="112">
         <v>50</v>
       </c>
       <c r="F429" s="96">
         <f>B429*D429</f>
         <v>2000</v>
       </c>
-      <c r="H429" s="108" t="s">
+      <c r="H429" s="109" t="s">
         <v>782</v>
       </c>
-      <c r="I429" s="108" t="s">
-        <v>982</v>
+      <c r="I429" s="109" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
@@ -37767,29 +37887,29 @@
       <c r="B430" s="96">
         <v>30</v>
       </c>
-      <c r="C430" s="110">
+      <c r="C430" s="111">
         <v>100</v>
       </c>
       <c r="D430" s="96">
         <v>40</v>
       </c>
-      <c r="E430" s="111">
+      <c r="E430" s="112">
         <v>100</v>
       </c>
       <c r="F430" s="96">
         <f>B430*D430</f>
         <v>1200</v>
       </c>
-      <c r="H430" s="108" t="s">
+      <c r="H430" s="109" t="s">
         <v>783</v>
       </c>
-      <c r="I430" s="108" t="s">
-        <v>983</v>
+      <c r="I430" s="109" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" s="96" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B431" s="96">
         <v>150</v>
@@ -37800,7 +37920,7 @@
       <c r="D431" s="96">
         <v>7</v>
       </c>
-      <c r="E431" s="112">
+      <c r="E431" s="113">
         <v>17.5</v>
       </c>
       <c r="F431" s="96">
@@ -37810,18 +37930,18 @@
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" s="96" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B432" s="96">
         <v>80</v>
       </c>
-      <c r="C432" s="110">
+      <c r="C432" s="111">
         <v>120</v>
       </c>
       <c r="D432" s="96">
         <v>50</v>
       </c>
-      <c r="E432" s="111">
+      <c r="E432" s="112">
         <v>125</v>
       </c>
       <c r="F432" s="96">
@@ -37836,13 +37956,13 @@
       <c r="B433" s="96">
         <v>98</v>
       </c>
-      <c r="C433" s="110">
+      <c r="C433" s="111">
         <v>170</v>
       </c>
       <c r="D433" s="96">
         <v>70</v>
       </c>
-      <c r="E433" s="111">
+      <c r="E433" s="112">
         <v>175</v>
       </c>
       <c r="F433" s="96">
@@ -37852,7 +37972,7 @@
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="96" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B434" s="96">
         <v>105</v>
@@ -37863,7 +37983,7 @@
       <c r="D434" s="96">
         <v>10</v>
       </c>
-      <c r="E434" s="112">
+      <c r="E434" s="113">
         <v>25</v>
       </c>
       <c r="F434" s="96">
@@ -37873,7 +37993,7 @@
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="96" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B435" s="96">
         <v>44</v>
@@ -37884,7 +38004,7 @@
       <c r="D435" s="96">
         <v>12</v>
       </c>
-      <c r="E435" s="112">
+      <c r="E435" s="113">
         <v>30</v>
       </c>
       <c r="F435" s="96">
@@ -37894,7 +38014,7 @@
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="96" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B436" s="96">
         <v>88</v>
@@ -37905,7 +38025,7 @@
       <c r="D436" s="96">
         <v>1</v>
       </c>
-      <c r="E436" s="112">
+      <c r="E436" s="113">
         <v>2.5</v>
       </c>
       <c r="F436" s="96">
@@ -37915,7 +38035,7 @@
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B438" s="3">
         <f>SUM(B429:B436)</f>
@@ -37924,7 +38044,7 @@
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C439" s="3">
         <f>MAX(C429:C436)</f>
@@ -37933,7 +38053,7 @@
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C440" s="3">
         <f>MIN(C429:C436)</f>
@@ -37942,43 +38062,43 @@
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G442" s="3">
         <f>COUNT(D429:D436)</f>
         <v>8</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G443" s="3">
         <f>COUNTA(A429:A436)</f>
         <v>8</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G445" s="3">
         <f>COUNTIF(D429:D436,I446)</f>
         <v>3</v>
       </c>
       <c r="I445" s="3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I446" s="26" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.2">
@@ -37986,19 +38106,19 @@
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="G448" s="3">
         <f>AVERAGEIF(C429:C436,I449,E429:E436)</f>
         <v>112.5</v>
       </c>
       <c r="I448" s="26" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I449" s="26" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.2">
@@ -38006,7 +38126,7 @@
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.2">
@@ -38017,7 +38137,7 @@
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C454" s="3" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.2">
@@ -38027,18 +38147,18 @@
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.2">
@@ -38049,22 +38169,22 @@
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
@@ -38075,50 +38195,50 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="43" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B469" s="3" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B474" s="3" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="475" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -38131,76 +38251,76 @@
     <row r="477" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B484" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="94" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B486" s="95"/>
       <c r="C486" s="95"/>
@@ -38212,13 +38332,13 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="83"/>
       <c r="B490" s="83" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C490" s="83" t="s">
         <v>604</v>
@@ -38226,10 +38346,10 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C491" s="3">
         <v>38350</v>
@@ -38237,10 +38357,10 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C492" s="3">
         <v>14850</v>
@@ -38248,10 +38368,10 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C493" s="3">
         <v>23359</v>
@@ -38259,10 +38379,10 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C494" s="3">
         <v>12062</v>
@@ -38270,10 +38390,10 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C495" s="3">
         <v>40891</v>
@@ -38281,10 +38401,10 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C496" s="3">
         <v>26885</v>
@@ -38292,10 +38412,10 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C497" s="3">
         <v>38116</v>
@@ -38303,10 +38423,10 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C498" s="3">
         <v>41179</v>
@@ -38314,10 +38434,10 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C499" s="3">
         <v>28752</v>
@@ -38325,10 +38445,10 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C500" s="3">
         <v>45933</v>
@@ -38336,10 +38456,10 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C501" s="3">
         <v>17228</v>
@@ -38347,10 +38467,10 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C502" s="3">
         <v>22802</v>
@@ -38358,10 +38478,10 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C503" s="3">
         <v>36328</v>
@@ -38369,19 +38489,19 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C508" s="113">
+        <v>1184</v>
+      </c>
+      <c r="C508" s="114">
         <f>AVERAGEIF(B491:B503,H509,C491:C503)</f>
         <v>34317.166666666664</v>
       </c>
@@ -38390,14 +38510,14 @@
         <v>=AVERAGEIF(B491:B503,H509,C491:C503)</v>
       </c>
       <c r="H508" s="3" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C509" s="113">
+        <v>1186</v>
+      </c>
+      <c r="C509" s="114">
         <f>AVERAGEIF(B491:B503,H510,C491:C503)</f>
         <v>25833.142857142859</v>
       </c>
@@ -38406,17 +38526,17 @@
         <v>=AVERAGEIF(B491:B503,H510,C491:C503)</v>
       </c>
       <c r="H509" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H510" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="94" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B512" s="95"/>
       <c r="C512" s="95"/>
@@ -38428,7 +38548,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -38436,10 +38556,10 @@
         <v>828</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -38450,7 +38570,7 @@
         <v>100</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -38462,7 +38582,7 @@
         <v>250</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -38474,7 +38594,7 @@
         <v>100</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -38486,7 +38606,7 @@
         <v>500</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -38498,7 +38618,7 @@
         <v>100</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -38510,7 +38630,7 @@
         <v>400</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -38522,7 +38642,7 @@
         <v>350</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -38534,7 +38654,7 @@
         <v>500</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -38546,7 +38666,7 @@
         <v>450</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -38558,7 +38678,7 @@
         <v>150</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -38568,20 +38688,20 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="H530" s="3" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="H531" s="3" t="s">
         <v>782</v>
@@ -38589,7 +38709,7 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.2">
@@ -38604,7 +38724,7 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.2">
@@ -38614,7 +38734,7 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.2">
@@ -38624,35 +38744,35 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B545" s="3" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E546" s="3" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="F546" s="3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.2">
@@ -38661,22 +38781,22 @@
         <v>175</v>
       </c>
       <c r="F547" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="7" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="94" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B552" s="95"/>
       <c r="C552" s="95"/>
@@ -38688,7 +38808,7 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.2">
@@ -38696,7 +38816,7 @@
         <v>811</v>
       </c>
       <c r="B556" s="96" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.2">
@@ -38717,13 +38837,13 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="96" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B559" s="96"/>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="96" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B560" s="96">
         <v>88</v>
@@ -38731,19 +38851,19 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" s="96" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B561" s="96"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" s="96" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B562" s="96"/>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" s="96" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B563" s="96">
         <v>72</v>
@@ -38751,17 +38871,17 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B568" s="15">
         <f>COUNTBLANK(B557:B563)</f>
@@ -38774,12 +38894,12 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" s="7" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" s="7" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
@@ -38787,7 +38907,7 @@
         <v>811</v>
       </c>
       <c r="B573" s="96" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
@@ -38808,18 +38928,18 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" s="96" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B576" s="96" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="96" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B577" s="96">
         <v>88</v>
@@ -38827,29 +38947,29 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="96" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B578" s="96" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="96" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B579" s="96" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="96" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B580" s="96">
         <v>72</v>
@@ -38857,7 +38977,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B582" s="15">
         <f>COUNTBLANK(B574:B580)</f>
@@ -38866,7 +38986,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="7" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -38877,7 +38997,7 @@
         <v>811</v>
       </c>
       <c r="B586" s="96" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -38898,19 +39018,19 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="96" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B589" s="96" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="96" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B590" s="96">
         <v>88</v>
@@ -38918,7 +39038,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="96" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B591" s="96" t="str">
         <f>""</f>
@@ -38927,7 +39047,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="96" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B592" s="96" t="str">
         <f>""</f>
@@ -38936,7 +39056,7 @@
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" s="96" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B593" s="96">
         <v>72</v>
@@ -38944,7 +39064,7 @@
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B595" s="15">
         <f>COUNTBLANK(B587:B593)</f>
@@ -38956,94 +39076,94 @@
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A606" s="106" t="s">
+      <c r="A606" s="107" t="s">
         <v>775</v>
       </c>
-      <c r="B606" s="106" t="s">
+      <c r="B606" s="107" t="s">
         <v>777</v>
       </c>
-      <c r="C606" s="106" t="s">
+      <c r="C606" s="107" t="s">
         <v>778</v>
       </c>
-      <c r="D606" s="106" t="s">
+      <c r="D606" s="107" t="s">
         <v>779</v>
       </c>
-      <c r="E606" s="106" t="s">
+      <c r="E606" s="107" t="s">
         <v>780</v>
       </c>
-      <c r="F606" s="106" t="s">
+      <c r="F606" s="107" t="s">
         <v>781</v>
       </c>
-      <c r="G606" s="106" t="s">
+      <c r="G606" s="107" t="s">
         <v>782</v>
       </c>
-      <c r="H606" s="106" t="s">
+      <c r="H606" s="107" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" s="79" t="s">
+        <v>973</v>
+      </c>
+      <c r="B607" s="79" t="s">
+        <v>974</v>
+      </c>
+      <c r="C607" s="79" t="s">
+        <v>975</v>
+      </c>
+      <c r="D607" s="79" t="s">
         <v>976</v>
       </c>
-      <c r="B607" s="79" t="s">
+      <c r="E607" s="79" t="s">
         <v>977</v>
       </c>
-      <c r="C607" s="79" t="s">
+      <c r="F607" s="79" t="s">
         <v>978</v>
       </c>
-      <c r="D607" s="79" t="s">
+      <c r="G607" s="79" t="s">
         <v>979</v>
       </c>
-      <c r="E607" s="79" t="s">
+      <c r="H607" s="79" t="s">
         <v>980</v>
-      </c>
-      <c r="F607" s="79" t="s">
-        <v>981</v>
-      </c>
-      <c r="G607" s="79" t="s">
-        <v>982</v>
-      </c>
-      <c r="H607" s="79" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" s="94" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B611" s="95"/>
       <c r="C611" s="95"/>
@@ -39055,27 +39175,27 @@
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C615" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F615" s="3" t="s">
         <v>1238</v>
-      </c>
-      <c r="D615" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E615" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F615" s="3" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.2">
@@ -39083,7 +39203,7 @@
         <v>324</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C616" s="3">
         <v>500</v>
@@ -39095,7 +39215,7 @@
         <v>10</v>
       </c>
       <c r="F616" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.2">
@@ -39103,19 +39223,19 @@
         <v>521</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C617" s="3">
         <v>1500</v>
       </c>
-      <c r="D617" s="114">
+      <c r="D617" s="115">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E617" s="3">
         <v>9</v>
       </c>
       <c r="F617" s="3" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.2">
@@ -39123,19 +39243,19 @@
         <v>456</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C618" s="3">
         <v>1700</v>
       </c>
-      <c r="D618" s="114">
+      <c r="D618" s="115">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E618" s="3">
         <v>8.5</v>
       </c>
       <c r="F618" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.2">
@@ -39143,19 +39263,19 @@
         <v>233</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C619" s="3">
         <v>800</v>
       </c>
-      <c r="D619" s="114">
+      <c r="D619" s="115">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E619" s="3">
         <v>8.8000000000000007</v>
       </c>
       <c r="F619" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.2">
@@ -39163,19 +39283,19 @@
         <v>990</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C620" s="3">
         <v>1000</v>
       </c>
-      <c r="D620" s="114">
+      <c r="D620" s="115">
         <v>1.2E-2</v>
       </c>
       <c r="E620" s="3">
         <v>7</v>
       </c>
       <c r="F620" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.2">
@@ -39183,7 +39303,7 @@
         <v>1244</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C621" s="3">
         <v>85</v>
@@ -39195,7 +39315,7 @@
         <v>7.9</v>
       </c>
       <c r="F621" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.2">
@@ -39203,7 +39323,7 @@
         <v>1335</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C622" s="3">
         <v>178</v>
@@ -39215,7 +39335,7 @@
         <v>9.5</v>
       </c>
       <c r="F622" s="3" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.2">
@@ -39223,132 +39343,132 @@
         <v>3141</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C623" s="3">
         <v>4000</v>
       </c>
-      <c r="D623" s="115">
+      <c r="D623" s="116">
         <v>2E-3</v>
       </c>
       <c r="E623" s="3">
         <v>9.8000000000000007</v>
       </c>
       <c r="F623" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A626" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H626" s="116" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H626" s="117" t="s">
         <v>775</v>
       </c>
-      <c r="I626" s="116" t="s">
-        <v>976</v>
+      <c r="I626" s="117" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="H627" s="116" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H627" s="117" t="s">
         <v>777</v>
       </c>
-      <c r="I627" s="116" t="s">
-        <v>977</v>
+      <c r="I627" s="117" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A628" s="3" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H628" s="116" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H628" s="117" t="s">
         <v>778</v>
       </c>
-      <c r="I628" s="116" t="s">
-        <v>978</v>
+      <c r="I628" s="117" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="H629" s="116" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H629" s="117" t="s">
         <v>779</v>
       </c>
-      <c r="I629" s="116" t="s">
-        <v>979</v>
+      <c r="I629" s="117" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A630" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H630" s="116" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H630" s="117" t="s">
         <v>780</v>
       </c>
-      <c r="I630" s="116" t="s">
-        <v>980</v>
+      <c r="I630" s="117" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="H631" s="116" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H631" s="117" t="s">
         <v>781</v>
       </c>
-      <c r="I631" s="116" t="s">
-        <v>981</v>
+      <c r="I631" s="117" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A632" s="3" t="s">
-        <v>1257</v>
-      </c>
-      <c r="H632" s="116" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H632" s="117" t="s">
         <v>782</v>
       </c>
-      <c r="I632" s="116" t="s">
-        <v>982</v>
+      <c r="I632" s="117" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A633" s="3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H633" s="116" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H633" s="117" t="s">
         <v>783</v>
       </c>
-      <c r="I633" s="116" t="s">
-        <v>983</v>
+      <c r="I633" s="117" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A635" s="117" t="s">
+      <c r="A635" s="118" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B635" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="C635" s="118" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D635" s="118" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E635" s="118" t="s">
         <v>1237</v>
       </c>
-      <c r="B635" s="117" t="s">
-        <v>50</v>
-      </c>
-      <c r="C635" s="117" t="s">
+      <c r="F635" s="118" t="s">
         <v>1238</v>
-      </c>
-      <c r="D635" s="117" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E635" s="117" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F635" s="117" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.2">
@@ -39356,19 +39476,19 @@
         <v>324</v>
       </c>
       <c r="B636" s="96" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C636" s="96">
         <v>500</v>
       </c>
-      <c r="D636" s="118">
+      <c r="D636" s="119">
         <v>0.01</v>
       </c>
       <c r="E636" s="96">
         <v>10</v>
       </c>
       <c r="F636" s="96" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.2">
@@ -39376,19 +39496,19 @@
         <v>521</v>
       </c>
       <c r="B637" s="96" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C637" s="110">
+        <v>1240</v>
+      </c>
+      <c r="C637" s="111">
         <v>1500</v>
       </c>
-      <c r="D637" s="119">
+      <c r="D637" s="120">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E637" s="120">
+      <c r="E637" s="121">
         <v>9</v>
       </c>
       <c r="F637" s="96" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.2">
@@ -39396,19 +39516,19 @@
         <v>456</v>
       </c>
       <c r="B638" s="96" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C638" s="110">
+        <v>1210</v>
+      </c>
+      <c r="C638" s="111">
         <v>1700</v>
       </c>
-      <c r="D638" s="119">
+      <c r="D638" s="120">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E638" s="120">
+      <c r="E638" s="121">
         <v>8.5</v>
       </c>
       <c r="F638" s="96" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.2">
@@ -39416,19 +39536,19 @@
         <v>233</v>
       </c>
       <c r="B639" s="96" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C639" s="96">
         <v>800</v>
       </c>
-      <c r="D639" s="119">
+      <c r="D639" s="120">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E639" s="96">
         <v>8.8000000000000007</v>
       </c>
       <c r="F639" s="96" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.2">
@@ -39436,19 +39556,19 @@
         <v>990</v>
       </c>
       <c r="B640" s="96" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C640" s="96">
         <v>1000</v>
       </c>
-      <c r="D640" s="119">
+      <c r="D640" s="120">
         <v>1.2E-2</v>
       </c>
       <c r="E640" s="96">
         <v>7</v>
       </c>
       <c r="F640" s="96" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.2">
@@ -39456,19 +39576,19 @@
         <v>1244</v>
       </c>
       <c r="B641" s="96" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C641" s="96">
         <v>85</v>
       </c>
-      <c r="D641" s="118">
+      <c r="D641" s="119">
         <v>0.03</v>
       </c>
       <c r="E641" s="96">
         <v>7.9</v>
       </c>
       <c r="F641" s="96" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.2">
@@ -39476,19 +39596,19 @@
         <v>1335</v>
       </c>
       <c r="B642" s="96" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C642" s="96">
         <v>178</v>
       </c>
-      <c r="D642" s="118">
+      <c r="D642" s="119">
         <v>0.04</v>
       </c>
       <c r="E642" s="96">
         <v>9.5</v>
       </c>
       <c r="F642" s="96" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.2">
@@ -39496,167 +39616,167 @@
         <v>3141</v>
       </c>
       <c r="B643" s="96" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C643" s="110">
+        <v>1247</v>
+      </c>
+      <c r="C643" s="111">
         <v>4000</v>
       </c>
-      <c r="D643" s="121">
+      <c r="D643" s="122">
         <v>2E-3</v>
       </c>
-      <c r="E643" s="120">
+      <c r="E643" s="121">
         <v>9.8000000000000007</v>
       </c>
       <c r="F643" s="96" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A645" s="122" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B645" s="122"/>
-      <c r="C645" s="123">
+      <c r="A645" s="123" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B645" s="123"/>
+      <c r="C645" s="124">
         <f>SUM(C636:C643)</f>
         <v>9763</v>
       </c>
-      <c r="D645" s="122"/>
-      <c r="E645" s="122"/>
-      <c r="F645" s="122"/>
-      <c r="G645" s="122"/>
+      <c r="D645" s="123"/>
+      <c r="E645" s="123"/>
+      <c r="F645" s="123"/>
+      <c r="G645" s="123"/>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A646" s="122" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B646" s="122"/>
-      <c r="C646" s="122"/>
-      <c r="D646" s="122"/>
-      <c r="E646" s="124">
+      <c r="A646" s="123" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B646" s="123"/>
+      <c r="C646" s="123"/>
+      <c r="D646" s="123"/>
+      <c r="E646" s="125">
         <f>AVERAGE(E636:E643)</f>
         <v>8.8125</v>
       </c>
-      <c r="F646" s="122"/>
-      <c r="G646" s="122"/>
+      <c r="F646" s="123"/>
+      <c r="G646" s="123"/>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A647" s="122" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B647" s="122"/>
-      <c r="C647" s="123">
+      <c r="A647" s="123" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B647" s="123"/>
+      <c r="C647" s="124">
         <f>MAX(C636:C643)</f>
         <v>4000</v>
       </c>
-      <c r="D647" s="122"/>
-      <c r="E647" s="122"/>
-      <c r="F647" s="122"/>
-      <c r="G647" s="122"/>
+      <c r="D647" s="123"/>
+      <c r="E647" s="123"/>
+      <c r="F647" s="123"/>
+      <c r="G647" s="123"/>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A648" s="122" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B648" s="122"/>
-      <c r="C648" s="123">
+      <c r="A648" s="123" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B648" s="123"/>
+      <c r="C648" s="124">
         <f>MIN(C636:C643)</f>
         <v>85</v>
       </c>
-      <c r="D648" s="122"/>
-      <c r="E648" s="122"/>
-      <c r="F648" s="122"/>
-      <c r="G648" s="122"/>
+      <c r="D648" s="123"/>
+      <c r="E648" s="123"/>
+      <c r="F648" s="123"/>
+      <c r="G648" s="123"/>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A649" s="122" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B649" s="123">
+      <c r="A649" s="123" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B649" s="124">
         <f>COUNTA(B636:B643)</f>
         <v>8</v>
       </c>
-      <c r="C649" s="122" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D649" s="122"/>
-      <c r="E649" s="122"/>
-      <c r="F649" s="122"/>
-      <c r="G649" s="122"/>
-    </row>
-    <row r="650" spans="1:9" s="122" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A650" s="122" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C650" s="123">
+      <c r="C649" s="123" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D649" s="123"/>
+      <c r="E649" s="123"/>
+      <c r="F649" s="123"/>
+      <c r="G649" s="123"/>
+    </row>
+    <row r="650" spans="1:9" s="123" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A650" s="123" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C650" s="124">
         <f>COUNT(C636:C643)</f>
         <v>8</v>
       </c>
-      <c r="D650" s="122" t="s">
-        <v>1266</v>
+      <c r="D650" s="123" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A651" s="122" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C651" s="123">
+      <c r="A651" s="123" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C651" s="124">
         <f>COUNTIF(C636:C643,F651)</f>
         <v>3</v>
       </c>
-      <c r="D651" s="122" t="s">
+      <c r="D651" s="123" t="s">
         <v>782</v>
       </c>
-      <c r="E651" s="122" t="s">
+      <c r="E651" s="123" t="s">
         <v>562</v>
       </c>
-      <c r="F651" s="125" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G651" s="122" t="s">
-        <v>1269</v>
+      <c r="F651" s="126" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G651" s="123" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A652" s="126" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E652" s="127">
+      <c r="A652" s="127" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E652" s="128">
         <f>AVERAGEIF(C636:C643,F651,E636:E643)</f>
         <v>9.1</v>
       </c>
-      <c r="F652" s="122" t="s">
+      <c r="F652" s="123" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G652" s="123" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H652" s="123"/>
+      <c r="I652" s="123"/>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G653" s="123" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H653" s="123"/>
+      <c r="I653" s="123"/>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G654" s="123" t="s">
         <v>1271</v>
       </c>
-      <c r="G652" s="122" t="s">
+      <c r="H654" s="123"/>
+      <c r="I654" s="123"/>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G655" s="123" t="s">
         <v>1272</v>
       </c>
-      <c r="H652" s="122"/>
-      <c r="I652" s="122"/>
-    </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G653" s="122" t="s">
-        <v>1273</v>
-      </c>
-      <c r="H653" s="122"/>
-      <c r="I653" s="122"/>
-    </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G654" s="122" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H654" s="122"/>
-      <c r="I654" s="122"/>
-    </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G655" s="122" t="s">
-        <v>1275</v>
-      </c>
-      <c r="H655" s="122"/>
-      <c r="I655" s="122"/>
+      <c r="H655" s="123"/>
+      <c r="I655" s="123"/>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" s="94" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="B657" s="95"/>
       <c r="C657" s="95"/>
@@ -39668,12 +39788,12 @@
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.2">
@@ -39681,13 +39801,13 @@
         <v>211</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="D662" s="3" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.2">
@@ -39695,10 +39815,10 @@
         <v>234</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D663" s="3">
         <v>10</v>
@@ -39709,10 +39829,10 @@
         <v>15</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="D664" s="3">
         <v>15</v>
@@ -39723,10 +39843,10 @@
         <v>135</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D665" s="3">
         <v>24</v>
@@ -39737,10 +39857,10 @@
         <v>190</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D666" s="3">
         <v>13</v>
@@ -39751,10 +39871,10 @@
         <v>345</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C667" s="3" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="D667" s="3">
         <v>72</v>
@@ -39765,10 +39885,10 @@
         <v>213</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="D668" s="3">
         <v>11</v>
@@ -39779,10 +39899,10 @@
         <v>531</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="D669" s="3">
         <v>83</v>
@@ -39795,87 +39915,87 @@
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" s="3" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="3" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="3" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="G675" s="3" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" s="3" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" s="3" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" s="3" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" s="3" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="3" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D685" s="3" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F685" s="128">
+        <v>1296</v>
+      </c>
+      <c r="F685" s="129">
         <f>AVERAGEIF(C663:C669,H686,D663:D669)</f>
         <v>15.666666666666666</v>
       </c>
       <c r="H685" s="3" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H686" s="3" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" s="3" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A689" s="94" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B689" s="95"/>
       <c r="C689" s="95"/>
@@ -39887,23 +40007,23 @@
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A691" s="81" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B693" s="3" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D693" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" s="3" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="B694" s="47">
         <v>40000</v>
@@ -39917,7 +40037,7 @@
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" s="3" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.2">
@@ -39927,21 +40047,21 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B700" s="3" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D700" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F700" s="3" t="s">
         <v>1306</v>
-      </c>
-      <c r="F700" s="3" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A701" s="3" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="B701" s="47">
         <v>40000</v>
@@ -39958,7 +40078,7 @@
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A702" s="3" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="B702" s="15">
         <f>B701*(1+$F701)</f>
@@ -39975,30 +40095,30 @@
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A704" s="3" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707" s="81" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B709" s="3" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B710" s="3" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C710" s="3">
         <v>12</v>
@@ -40006,7 +40126,7 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B711" s="3" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C711" s="3">
         <v>14</v>
@@ -40014,7 +40134,7 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B712" s="3" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C712" s="3">
         <v>28</v>
@@ -40022,7 +40142,7 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B713" s="3" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C713" s="3">
         <v>102</v>
@@ -40030,7 +40150,7 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B714" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C714" s="3">
         <v>107</v>
@@ -40038,12 +40158,12 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" s="3" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" s="3" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
@@ -40053,13 +40173,13 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B720" s="3" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="G720" s="3" t="s">
         <v>562</v>
@@ -40067,7 +40187,7 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B721" s="3" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C721" s="3">
         <v>12</v>
@@ -40082,7 +40202,7 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B722" s="3" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C722" s="3">
         <v>14</v>
@@ -40094,7 +40214,7 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B723" s="3" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C723" s="3">
         <v>28</v>
@@ -40106,7 +40226,7 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B724" s="3" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C724" s="3">
         <v>102</v>
@@ -40118,7 +40238,7 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B725" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C725" s="3">
         <v>107</v>
@@ -40130,34 +40250,34 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727" s="3" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728" s="3" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730" s="81" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B732" s="3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E732" s="3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="F732" s="3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
@@ -40247,32 +40367,32 @@
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" s="3" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" s="3" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B742" s="3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C742" s="3" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D742" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E742" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F742" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H742" s="3" t="s">
         <v>1329</v>
-      </c>
-      <c r="F742" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H742" s="3" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.2">
@@ -40385,17 +40505,17 @@
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" s="3" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A750" s="3" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A752" s="81" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.2">
@@ -40403,13 +40523,13 @@
         <v>828</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="D754" s="3" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="E754" s="3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.2">
@@ -40469,7 +40589,7 @@
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A761" s="3" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.2">
@@ -40477,13 +40597,13 @@
         <v>828</v>
       </c>
       <c r="C763" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="D763" s="3" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="E763" s="3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.2">
@@ -40563,26 +40683,26 @@
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A770" s="3" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A771" s="3" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A773" s="8"/>
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A779" s="106"/>
-      <c r="B779" s="106"/>
-      <c r="C779" s="106"/>
-      <c r="D779" s="106"/>
-      <c r="E779" s="106"/>
-      <c r="F779" s="106"/>
-      <c r="G779" s="106"/>
-      <c r="H779" s="106"/>
+      <c r="A779" s="107"/>
+      <c r="B779" s="107"/>
+      <c r="C779" s="107"/>
+      <c r="D779" s="107"/>
+      <c r="E779" s="107"/>
+      <c r="F779" s="107"/>
+      <c r="G779" s="107"/>
+      <c r="H779" s="107"/>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A780" s="79"/>
@@ -40596,7 +40716,7 @@
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A782" s="94" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B782" s="95"/>
       <c r="C782" s="95"/>
@@ -40608,35 +40728,35 @@
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A784" s="3" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A786" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D786" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="B786" s="3" t="s">
+      <c r="E786" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="C786" s="3" t="s">
+      <c r="F786" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="D786" s="3" t="s">
+      <c r="G786" s="3" t="s">
         <v>1347</v>
-      </c>
-      <c r="E786" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F786" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G786" s="3" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A787" s="3" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="B787" s="3">
         <v>74</v>
@@ -40645,7 +40765,7 @@
         <v>100</v>
       </c>
       <c r="E787" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F787" s="3">
         <v>15000</v>
@@ -40656,7 +40776,7 @@
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A788" s="3" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="B788" s="3">
         <v>73</v>
@@ -40665,7 +40785,7 @@
         <v>80</v>
       </c>
       <c r="E788" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F788" s="3">
         <v>19000</v>
@@ -40676,7 +40796,7 @@
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A789" s="3" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="B789" s="3">
         <v>89</v>
@@ -40685,7 +40805,7 @@
         <v>90</v>
       </c>
       <c r="E789" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F789" s="3">
         <v>23000</v>
@@ -40696,7 +40816,7 @@
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790" s="3" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B790" s="3">
         <v>97</v>
@@ -40705,7 +40825,7 @@
         <v>100</v>
       </c>
       <c r="E790" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F790" s="3">
         <v>14000</v>
@@ -40716,7 +40836,7 @@
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A791" s="3" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B791" s="3">
         <v>99</v>
@@ -40725,7 +40845,7 @@
         <v>60</v>
       </c>
       <c r="E791" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F791" s="3">
         <v>17000</v>
@@ -40736,7 +40856,7 @@
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A792" s="3" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B792" s="3">
         <v>83</v>
@@ -40745,7 +40865,7 @@
         <v>70</v>
       </c>
       <c r="E792" s="3" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="F792" s="3">
         <v>7000</v>
@@ -40756,83 +40876,83 @@
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A794" s="3" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A795" s="3" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A796" s="3" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797" s="3" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798" s="3" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799" s="3" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A800" s="3" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="801" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A801" s="3" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="802" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A802" s="3" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="803" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A803" s="3" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I804" s="83" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A805" s="83" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B805" s="83" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C805" s="83" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D805" s="83" t="s">
         <v>1344</v>
       </c>
-      <c r="B805" s="83" t="s">
+      <c r="E805" s="83" t="s">
         <v>1345</v>
       </c>
-      <c r="C805" s="83" t="s">
+      <c r="F805" s="83" t="s">
         <v>1346</v>
       </c>
-      <c r="D805" s="83" t="s">
+      <c r="G805" s="83" t="s">
         <v>1347</v>
       </c>
-      <c r="E805" s="83" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F805" s="83" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G805" s="83" t="s">
-        <v>1350</v>
-      </c>
       <c r="I805" s="3" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="J805" s="50">
         <v>0.8</v>
@@ -40840,7 +40960,7 @@
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A806" s="3" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="B806" s="3">
         <v>74</v>
@@ -40853,7 +40973,7 @@
         <v>79.2</v>
       </c>
       <c r="E806" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F806" s="3">
         <v>15000</v>
@@ -40862,7 +40982,7 @@
         <v>0.8</v>
       </c>
       <c r="I806" s="3" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="J806" s="50">
         <v>0.2</v>
@@ -40870,7 +40990,7 @@
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A807" s="3" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="B807" s="3">
         <v>73</v>
@@ -40883,7 +41003,7 @@
         <v>74.400000000000006</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F807" s="3">
         <v>19000</v>
@@ -40894,7 +41014,7 @@
     </row>
     <row r="808" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A808" s="3" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="B808" s="3">
         <v>89</v>
@@ -40907,7 +41027,7 @@
         <v>89.2</v>
       </c>
       <c r="E808" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F808" s="3">
         <v>23000</v>
@@ -40918,7 +41038,7 @@
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A809" s="3" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B809" s="3">
         <v>97</v>
@@ -40931,7 +41051,7 @@
         <v>97.600000000000009</v>
       </c>
       <c r="E809" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F809" s="3">
         <v>14000</v>
@@ -40942,7 +41062,7 @@
     </row>
     <row r="810" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A810" s="3" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B810" s="3">
         <v>99</v>
@@ -40955,7 +41075,7 @@
         <v>91.2</v>
       </c>
       <c r="E810" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F810" s="3">
         <v>17000</v>
@@ -40966,7 +41086,7 @@
     </row>
     <row r="811" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A811" s="83" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B811" s="83">
         <v>83</v>
@@ -40979,86 +41099,86 @@
         <v>80.400000000000006</v>
       </c>
       <c r="E811" s="83" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="F811" s="83">
         <v>7000</v>
       </c>
-      <c r="G811" s="129">
+      <c r="G811" s="130">
         <v>0.5</v>
       </c>
     </row>
     <row r="812" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A812" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="B812" s="130">
+        <v>974</v>
+      </c>
+      <c r="B812" s="131">
         <f>AVERAGE(B806:B811)</f>
         <v>85.833333333333329</v>
       </c>
-      <c r="C812" s="130">
+      <c r="C812" s="131">
         <f>AVERAGE(C806:C811)</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="D812" s="130">
+      <c r="D812" s="131">
         <f>AVERAGE(D806:D811)</f>
         <v>85.333333333333329</v>
       </c>
       <c r="E812" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F812" s="131">
+        <v>1365</v>
+      </c>
+      <c r="F812" s="132">
         <f>SUM(F806:F811)</f>
         <v>95000</v>
       </c>
     </row>
     <row r="813" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E813" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="F813" s="132">
+        <v>1366</v>
+      </c>
+      <c r="F813" s="133">
         <f>MAX(F806:F811)</f>
         <v>23000</v>
       </c>
     </row>
     <row r="814" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A814" s="3" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E814" s="3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F814" s="133">
+        <v>1368</v>
+      </c>
+      <c r="F814" s="134">
         <f>MIN(F806:F811)</f>
         <v>7000</v>
       </c>
     </row>
     <row r="815" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A815" s="133">
+      <c r="A815" s="134">
         <f>COUNTA(A806:A811)</f>
         <v>6</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="817" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A817" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F817" s="133">
+        <v>1370</v>
+      </c>
+      <c r="F817" s="134">
         <f>COUNT(F806:F811)</f>
         <v>6</v>
       </c>
       <c r="G817" s="3" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="819" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A819" s="3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D819" s="134">
+        <v>1372</v>
+      </c>
+      <c r="D819" s="135">
         <f>COUNTIF(D806:D811,I820)</f>
         <v>3</v>
       </c>
@@ -41066,20 +41186,20 @@
         <v>782</v>
       </c>
       <c r="I819" s="83" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="J819" s="83"/>
     </row>
     <row r="820" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I820" s="3" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="821" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A821" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F821" s="135">
+        <v>1375</v>
+      </c>
+      <c r="F821" s="136">
         <f>AVERAGEIF(D806:D811,I821,F806:F811)</f>
         <v>15250</v>
       </c>
@@ -41087,12 +41207,12 @@
         <v>783</v>
       </c>
       <c r="I821" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A823" s="94" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="B823" s="95"/>
       <c r="C823" s="95"/>
@@ -41104,15 +41224,15 @@
     </row>
     <row r="825" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A825" s="3" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="827" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B827" s="3" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C827" s="3" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.2">
@@ -41136,7 +41256,7 @@
         <v>38</v>
       </c>
       <c r="C830" s="3" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="831" spans="1:10" x14ac:dyDescent="0.2">
@@ -41144,7 +41264,7 @@
         <v>32</v>
       </c>
       <c r="C831" s="3" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.2">
@@ -41176,7 +41296,7 @@
         <v>102</v>
       </c>
       <c r="C835" s="3" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="836" spans="1:8" x14ac:dyDescent="0.2">
@@ -41190,13 +41310,13 @@
     <row r="837" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="838" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B838" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C838" s="98"/>
     </row>
     <row r="840" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A840" s="3" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="841" spans="1:8" x14ac:dyDescent="0.2">
@@ -41204,7 +41324,7 @@
         <v>832</v>
       </c>
       <c r="C841" s="3" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.2">
@@ -41212,7 +41332,7 @@
         <v>834</v>
       </c>
       <c r="C842" s="3" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="843" spans="1:8" x14ac:dyDescent="0.2">
@@ -41220,7 +41340,7 @@
         <v>106</v>
       </c>
       <c r="C843" s="3" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="844" spans="1:8" x14ac:dyDescent="0.2">
@@ -41228,37 +41348,37 @@
         <v>108</v>
       </c>
       <c r="C844" s="3" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A845" s="3" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A847" s="3" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="848" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A848" s="3" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="G848" s="3">
         <f>COUNTA(C828:C836)</f>
         <v>9</v>
       </c>
       <c r="H848" s="3" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A849" s="3" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I849" s="3">
         <f>COUNT(C828:C836)</f>
@@ -41267,12 +41387,12 @@
     </row>
     <row r="851" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A851" s="3" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A853" s="94" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B853" s="95"/>
       <c r="C853" s="95"/>
@@ -41284,30 +41404,30 @@
     </row>
     <row r="855" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A855" s="3" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="856" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A856" s="3" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="857" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A857" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="859" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B859" s="83" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C859" s="83" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="860" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B860" s="3" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C860" s="3">
         <v>100</v>
@@ -41315,7 +41435,7 @@
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B861" s="3" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C861" s="3">
         <v>20</v>
@@ -41323,7 +41443,7 @@
     </row>
     <row r="862" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B862" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="C862" s="3">
         <v>30</v>
@@ -41331,7 +41451,7 @@
     </row>
     <row r="863" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B863" s="3" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C863" s="3">
         <v>28</v>
@@ -41339,7 +41459,7 @@
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B864" s="3" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C864" s="3">
         <v>10</v>
@@ -41347,7 +41467,7 @@
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B865" s="3" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C865" s="3">
         <v>45</v>
@@ -41355,7 +41475,7 @@
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B866" s="3" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="C866" s="3">
         <v>0</v>
@@ -41363,17 +41483,17 @@
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" s="3" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" s="3" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" s="3" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
@@ -41383,15 +41503,15 @@
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B874" s="83" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C874" s="83" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B875" s="3" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C875" s="3">
         <v>100</v>
@@ -41399,7 +41519,7 @@
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B876" s="3" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C876" s="3">
         <v>20</v>
@@ -41407,7 +41527,7 @@
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B877" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="C877" s="3">
         <v>30</v>
@@ -41415,7 +41535,7 @@
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B878" s="3" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C878" s="3">
         <v>28</v>
@@ -41423,7 +41543,7 @@
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B879" s="3" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C879" s="3">
         <v>10</v>
@@ -41431,7 +41551,7 @@
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B880" s="3" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C880" s="3">
         <v>45</v>
@@ -41439,7 +41559,7 @@
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B881" s="3" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="C881" s="3">
         <v>0</v>
@@ -41447,26 +41567,26 @@
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F882" s="83" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="G882" s="83"/>
       <c r="H882" s="83"/>
     </row>
     <row r="883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A883" s="3" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C883" s="46">
         <f>AVERAGE(C875:C881)</f>
         <v>33.285714285714285</v>
       </c>
       <c r="F883" s="3" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="884" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A884" s="3" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="C884" s="3">
         <f>COUNTIF(C875:C881,F883)</f>
@@ -41475,7 +41595,7 @@
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A885" s="3" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C885" s="3">
         <f>COUNTA(B875:B881)</f>
@@ -41484,21 +41604,21 @@
     </row>
     <row r="886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A886" s="3" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C886" s="136">
+        <v>1410</v>
+      </c>
+      <c r="C886" s="137">
         <f>C884/C885</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A888" s="3" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A890" s="94" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="B890" s="95"/>
       <c r="C890" s="95"/>
@@ -41510,17 +41630,17 @@
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A892" s="3" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="893" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A893" s="3" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C895" s="3" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="D895" s="3" t="s">
         <v>601</v>
@@ -41529,7 +41649,7 @@
         <v>604</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.2">
@@ -41538,16 +41658,16 @@
         <v>1</v>
       </c>
       <c r="D896" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E896" s="3">
         <v>46323</v>
       </c>
       <c r="F896" s="11" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="897" spans="3:11" x14ac:dyDescent="0.2">
@@ -41556,7 +41676,7 @@
         <v>2</v>
       </c>
       <c r="D897" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E897" s="3">
         <v>56384</v>
@@ -41565,7 +41685,7 @@
         <v>834</v>
       </c>
       <c r="G897" s="3" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="898" spans="3:11" x14ac:dyDescent="0.2">
@@ -41574,7 +41694,7 @@
         <v>3</v>
       </c>
       <c r="D898" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E898" s="3">
         <v>74429</v>
@@ -41586,13 +41706,13 @@
         <v>4</v>
       </c>
       <c r="D899" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E899" s="3">
         <v>76601</v>
       </c>
       <c r="J899" s="83" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="K899" s="83"/>
     </row>
@@ -41602,13 +41722,13 @@
         <v>5</v>
       </c>
       <c r="D900" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E900" s="3">
         <v>71172</v>
       </c>
       <c r="J900" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="901" spans="3:11" x14ac:dyDescent="0.2">
@@ -41617,13 +41737,13 @@
         <v>6</v>
       </c>
       <c r="D901" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E901" s="3">
         <v>71301</v>
       </c>
       <c r="J901" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="902" spans="3:11" x14ac:dyDescent="0.2">
@@ -41632,7 +41752,7 @@
         <v>7</v>
       </c>
       <c r="D902" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E902" s="3">
         <v>67564</v>
@@ -41644,7 +41764,7 @@
         <v>8</v>
       </c>
       <c r="D903" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E903" s="3">
         <v>46193</v>
@@ -41659,15 +41779,15 @@
         <v>9</v>
       </c>
       <c r="D904" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E904" s="3">
         <v>75606</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I904" s="113">
+        <v>1420</v>
+      </c>
+      <c r="I904" s="114">
         <f>AVERAGEIF(D896:D911,J900,E896:E911)</f>
         <v>56789.36363636364</v>
       </c>
@@ -41678,13 +41798,13 @@
         <v>10</v>
       </c>
       <c r="D905" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E905" s="3">
         <v>47549</v>
       </c>
       <c r="F905" s="3" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I905" s="15">
         <f>AVERAGEIF(D896:D911,J901,E896:E911)</f>
@@ -41697,7 +41817,7 @@
         <v>11</v>
       </c>
       <c r="D906" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E906" s="3">
         <v>40692</v>
@@ -41709,7 +41829,7 @@
         <v>12</v>
       </c>
       <c r="D907" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E907" s="3">
         <v>51537</v>
@@ -41721,7 +41841,7 @@
         <v>13</v>
       </c>
       <c r="D908" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E908" s="3">
         <v>57356</v>
@@ -41733,7 +41853,7 @@
         <v>14</v>
       </c>
       <c r="D909" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E909" s="3">
         <v>50232</v>
@@ -41745,7 +41865,7 @@
         <v>15</v>
       </c>
       <c r="D910" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E910" s="3">
         <v>58426</v>
@@ -41757,7 +41877,7 @@
         <v>16</v>
       </c>
       <c r="D911" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E911" s="3">
         <v>55376</v>
@@ -41765,7 +41885,7 @@
     </row>
     <row r="913" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A913" s="94" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B913" s="95"/>
       <c r="C913" s="95"/>
@@ -41777,7 +41897,7 @@
     </row>
     <row r="915" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A915" s="3" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="917" spans="1:8" x14ac:dyDescent="0.2">
@@ -41785,7 +41905,7 @@
         <v>811</v>
       </c>
       <c r="C917" s="3" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D917" s="3" t="s">
         <v>604</v>
@@ -41793,10 +41913,10 @@
     </row>
     <row r="918" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B918" s="3" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C918" s="3" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="D918" s="3">
         <v>80000</v>
@@ -41804,10 +41924,10 @@
     </row>
     <row r="919" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B919" s="3" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C919" s="3" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="D919" s="3">
         <v>90000</v>
@@ -41815,10 +41935,10 @@
     </row>
     <row r="920" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B920" s="3" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="C920" s="3" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D920" s="3">
         <v>30000</v>
@@ -41826,10 +41946,10 @@
     </row>
     <row r="921" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B921" s="3" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C921" s="3" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D921" s="3">
         <v>35000</v>
@@ -41837,10 +41957,10 @@
     </row>
     <row r="922" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B922" s="3" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C922" s="3" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D922" s="3">
         <v>20000</v>
@@ -41848,10 +41968,10 @@
     </row>
     <row r="923" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B923" s="3" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="C923" s="3" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="D923" s="3">
         <v>8000</v>
@@ -41859,10 +41979,10 @@
     </row>
     <row r="924" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B924" s="3" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="C924" s="3" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="D924" s="3">
         <v>12000</v>
@@ -41870,27 +41990,27 @@
     </row>
     <row r="926" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A926" s="3" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="927" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A927" s="3" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A928" s="3" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="929" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A929" s="3" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="930" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A930" s="3" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="932" spans="1:9" x14ac:dyDescent="0.2">
@@ -41903,150 +42023,150 @@
         <v>811</v>
       </c>
       <c r="C934" s="3" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D934" s="3" t="s">
         <v>604</v>
       </c>
       <c r="G934" s="83" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="H934" s="83"/>
     </row>
     <row r="935" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B935" s="3" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C935" s="3" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="D935" s="3">
         <v>80000</v>
       </c>
       <c r="G935" s="3" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="936" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B936" s="3" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C936" s="3" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="D936" s="3">
         <v>90000</v>
       </c>
       <c r="G936" s="3" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="937" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B937" s="3" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="C937" s="3" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D937" s="3">
         <v>30000</v>
       </c>
       <c r="G937" s="3" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="938" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B938" s="3" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C938" s="3" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D938" s="3">
         <v>35000</v>
       </c>
       <c r="I938" s="11" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B939" s="3" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C939" s="3" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D939" s="3">
         <v>20000</v>
       </c>
       <c r="G939" s="83" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="H939" s="83"/>
-      <c r="I939" s="137" t="s">
-        <v>1445</v>
+      <c r="I939" s="138" t="s">
+        <v>1442</v>
       </c>
     </row>
     <row r="940" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B940" s="3" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="C940" s="3" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="D940" s="3">
         <v>8000</v>
       </c>
       <c r="G940" s="3" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H940" s="3">
         <f>SUMIF(C$935:C$941,G935,D$935:D$941)</f>
         <v>170000</v>
       </c>
-      <c r="I940" s="136">
+      <c r="I940" s="137">
         <f>H940/D$943</f>
         <v>0.61818181818181817</v>
       </c>
     </row>
     <row r="941" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B941" s="3" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="C941" s="3" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="D941" s="3">
         <v>12000</v>
       </c>
       <c r="G941" s="3" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="H941" s="3">
         <f t="shared" ref="H941" si="17">SUMIF(C$935:C$941,G936,D$935:D$941)</f>
         <v>85000</v>
       </c>
-      <c r="I941" s="136">
+      <c r="I941" s="137">
         <f t="shared" ref="I941:I942" si="18">H941/D$943</f>
         <v>0.30909090909090908</v>
       </c>
     </row>
     <row r="942" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G942" s="3" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H942" s="3">
         <f>SUMIF(C$935:C$941,G937,D$935:D$941)</f>
         <v>20000</v>
       </c>
-      <c r="I942" s="136">
+      <c r="I942" s="137">
         <f t="shared" si="18"/>
         <v>7.2727272727272724E-2</v>
       </c>
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C943" s="3" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="D943" s="15">
         <f>SUM(D935:D941)</f>

--- a/Couresebook - Tuesdays Group - Excel BUS - 2025 B.xlsx
+++ b/Couresebook - Tuesdays Group - Excel BUS - 2025 B.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/PAC - Excel/2025B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8181656E-1E9C-7A41-ABBB-6B49F27D6547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62803B44-B7D9-F54B-8008-C76CD2C84951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="50320" windowHeight="31500" activeTab="3" xr2:uid="{1D10E3F4-E20D-6C4D-B69D-62A15CF0947A}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="50320" windowHeight="31500" activeTab="4" xr2:uid="{1D10E3F4-E20D-6C4D-B69D-62A15CF0947A}"/>
   </bookViews>
   <sheets>
     <sheet name="מפגש 1" sheetId="1" r:id="rId1"/>
     <sheet name="מפגש 2" sheetId="2" r:id="rId2"/>
     <sheet name="מפגש 3" sheetId="3" r:id="rId3"/>
     <sheet name="מפגש 4" sheetId="4" r:id="rId4"/>
+    <sheet name="מפכש 5" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'מפגש 3'!$A$280:$J$290</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="1678">
   <si>
     <t>ניתוח מידע עסקי ממוחשב - Excel - עם שייקה: סמסטר 2025א, מפגש 1</t>
   </si>
@@ -5188,6 +5189,826 @@
   </si>
   <si>
     <t>ממוצע הערכים העונים לתנאי מסויים</t>
+  </si>
+  <si>
+    <t>ניתוח מידע עסקי ממוחשב - Excel - עם שייקה: סמסטר קיץ 2024 - מפגש תמך 5</t>
+  </si>
+  <si>
+    <t>נושאי המפגש (יח׳ 7 בסילה) - פונקציות נוספות ותרגול ברמת בחינה</t>
+  </si>
+  <si>
+    <t>פונקציית IF</t>
+  </si>
+  <si>
+    <t>פונקציית VLOOKUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תרגול תרגילים ברמת בחינה </t>
+  </si>
+  <si>
+    <t>הפעם השיעור יהיה ממוקד יותר ובסגנון מבחן ולא רק הבנה ותרגול כלליים ולכן המקבץ ישרת את כל הקבוצות ללא הפרדה</t>
+  </si>
+  <si>
+    <t>נושא ראשון - פונקציית IF</t>
+  </si>
+  <si>
+    <t>רקע:</t>
+  </si>
+  <si>
+    <t>פונקציית IF היא אחת הפונקציות הלוגיות הבסיסיות ביותר. מדובר בפונקציה שיודעת לבחון האם תנאי מתקיים,</t>
+  </si>
+  <si>
+    <t>ולקבל למעשה שתי הנחיות: האחת, מה לבצע במידה והתנאי מתקיים. השניה, מה לבצע במידה והתנאי לא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מתקיים. ההנחיות הן מגוונות ויכולות לכלול חישוב, הצגה, שימוש בפונקציה אחרת, למעשה כל פעולה. </t>
+  </si>
+  <si>
+    <t>מבנה פונקציית IF - כיצד כותבים אותה?</t>
+  </si>
+  <si>
+    <t>את פונקציית IF כותבים כך:</t>
+  </si>
+  <si>
+    <t>=IF(logical_test, value_if_true, value_if_false)</t>
+  </si>
+  <si>
+    <t>הערך value_if_false</t>
+  </si>
+  <si>
+    <t>הערך</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הערך logical test נקרא גם ״תנאי לוגי״. </t>
+  </si>
+  <si>
+    <t>מייצג את ההנחייה לביצוע</t>
+  </si>
+  <si>
+    <t>value_if_true</t>
+  </si>
+  <si>
+    <t>מדובר בתנאי הספציפי שאותו בודקים</t>
+  </si>
+  <si>
+    <t>במידה והתנאי הספציפי</t>
+  </si>
+  <si>
+    <t>באמצעות הפונקציה הרלוונטית</t>
+  </si>
+  <si>
+    <t>המוגדר (logical test)</t>
+  </si>
+  <si>
+    <t>לא מתקיים</t>
+  </si>
+  <si>
+    <t>מתקיים</t>
+  </si>
+  <si>
+    <t>נושא שני - פונקציית VLOOKUP</t>
+  </si>
+  <si>
+    <t>פונקציית VLOOKUP מסוגלת לבצע חיפוש בעמודה הראשונה בטבלה מסוימת, ולהחזיר כפלט ערך מעמודה אחרת</t>
+  </si>
+  <si>
+    <t>באותה טבלה. הדגש הוא על ״חיפוש״. ולכן, הפונקציה הזו מאד שימושית כאשר רוצים לבצע הצלבה בין טבלאות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">או לייצר מחשבון חיפוש מסוים לערכים שונים, כפי שנציג בהמשך. </t>
+  </si>
+  <si>
+    <t>מבנה פונקציית VLOOKUP - כיצד כותבים אותה?</t>
+  </si>
+  <si>
+    <t>=VLOOKUP(lookup_value, table_array, col_index_num, [range_lookup])</t>
+  </si>
+  <si>
+    <t>הגדרות:</t>
+  </si>
+  <si>
+    <t>lookup_value</t>
+  </si>
+  <si>
+    <t>הערך שאותו מנסים לאתר. בדרך כלל מדובר במספר מזהה מסויים: מק״ט של מוצר, תעודת זהות</t>
+  </si>
+  <si>
+    <t>של סטודנט, מספר הזמנה או תאריך ספציפי וכיוצא בזה.</t>
+  </si>
+  <si>
+    <t>table_array</t>
+  </si>
+  <si>
+    <t>הגדרת הטבלה שבעמודה הראשונה שלה נמצא המספר המזהה שאותו מחפשים, ובעמודות האחרות</t>
+  </si>
+  <si>
+    <t>קיימים ערכים שונים שנרצה להחזיר. אני נוהג לסמן את כל הטבלה כולל כותרות.</t>
+  </si>
+  <si>
+    <t>col_index_num</t>
+  </si>
+  <si>
+    <t>המספר הסידורי של העמודה ממנה רוצים להחזיר ערכים. אם למשל בטבלה העמודה הראשונה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כוללת את תעודת הזהות והעמודה השניה את ציון הבחינה, ורוצים להחזיר את ציון הבחינה, ערך </t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה יהיה 2. </t>
+  </si>
+  <si>
+    <t>[range_lookup]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">האם נדרש למצוא בדיוק את הערך שמחפשים או מספיק להשתמש בערך מקורב. מטעמי פשטות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בסמסטר הנוכחי נניח תמיד שהחיפוש דורש התאמה מדויקת, ולכן נזין כאן את הערך 0. </t>
+  </si>
+  <si>
+    <t>שאלה 1 - פונקציית IF - סגנון רגיל / לימודי</t>
+  </si>
+  <si>
+    <t>לפניכם רשימת נתונים לגבי שכר של עובדים במפעל מסוים:</t>
+  </si>
+  <si>
+    <t>מס׳ עובד/ת</t>
+  </si>
+  <si>
+    <t>שכר כולל</t>
+  </si>
+  <si>
+    <t>שעות ביום</t>
+  </si>
+  <si>
+    <t>נדרש: עליכם ליצור עמודה חדשה שתיקרא ״שכר כולל פרמיה״. בעמודה זו, אתם תחשבו תוספת שכר של 30% למי</t>
+  </si>
+  <si>
+    <t>שמועסק מעל 12 שעות ביום (בעמודה ייכללו ערכי התוספת ולא השכר כולל תוספת).</t>
+  </si>
+  <si>
+    <t>הסבר נוסח הפתרון:</t>
+  </si>
+  <si>
+    <t>תוספת שכר</t>
+  </si>
+  <si>
+    <t>שיעור התוספת</t>
+  </si>
+  <si>
+    <t>שעות עבודה נדרשות</t>
+  </si>
+  <si>
+    <t>מה יוצג</t>
+  </si>
+  <si>
+    <t>התנאי:</t>
+  </si>
+  <si>
+    <t>המטרה לבדוק תנאי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">במידה </t>
+  </si>
+  <si>
+    <t>או יחושב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שמס׳ </t>
+  </si>
+  <si>
+    <t>על כל שורה בנפרד</t>
+  </si>
+  <si>
+    <t>והתנאי</t>
+  </si>
+  <si>
+    <t>במידה</t>
+  </si>
+  <si>
+    <t>השעות C97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">והתנאי </t>
+  </si>
+  <si>
+    <t>גדול מ-12</t>
+  </si>
+  <si>
+    <t>שעות העבודה הנדרשות</t>
+  </si>
+  <si>
+    <t>שזה בעצם:</t>
+  </si>
+  <si>
+    <t>בתא העזר G99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שכר כולל </t>
+  </si>
+  <si>
+    <t>אנו רוצים שגם בגרירה למטה ההפניה ל-G99</t>
+  </si>
+  <si>
+    <t>תיאור הפונקציה ופירוק לחלקי ההסבר - ראו לעיל:</t>
+  </si>
+  <si>
+    <t>בתא B97</t>
+  </si>
+  <si>
+    <t>תישאר קבועה, ולכן מסמנים $ לפני מספר</t>
+  </si>
+  <si>
+    <t>כפול שיעור</t>
+  </si>
+  <si>
+    <t>השורה בתא זה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תוספת </t>
+  </si>
+  <si>
+    <t>בתא G97 עם קיבוע שורה לצורך גרירה מטה</t>
+  </si>
+  <si>
+    <t>והשארת שיעור תוספת קבוע</t>
+  </si>
+  <si>
+    <t>שאלה 2 - פונקציית IF - סגנון מבחן</t>
+  </si>
+  <si>
+    <t>בונוס</t>
+  </si>
+  <si>
+    <t>תנאי שעות</t>
+  </si>
+  <si>
+    <t>בונוס מירבי</t>
+  </si>
+  <si>
+    <t>בונוס מינימלי</t>
+  </si>
+  <si>
+    <t>נדרש: עליכם ליצור נוסחה שתירשם בתא D116 ושתתאפשר גרירתה כלפי מטה לכל יתר התאים בטבלה,  בהנחה שהבונוס</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחושב לפי 10% מהשכר עבור מי שעובד לפחות 13 שעות ביום, ולפי 2% מהשכר עבור כל יתר העובדים.  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>=IF(C116&gt;=G$116,B116*G118,B116*G120)</t>
+    </r>
+  </si>
+  <si>
+    <t>ב.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>=IF(C116&gt;=G$116,B116*G$118,B116*G$120)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>=IF(C116&gt;=G$116,B116*G$120,B116*G$118)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>=IF(C$116&gt;=G$116,B116*G$120,B116*G$118)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>=IF(C116&gt;G$116,B116*G118,B116*G120)</t>
+    </r>
+  </si>
+  <si>
+    <t>שאלה 3 - פונקציית IF - סגנון מבחן</t>
+  </si>
+  <si>
+    <t>לפניכם רשימת מלאי מסויימת במסעדה:</t>
+  </si>
+  <si>
+    <t>מס׳ פריט</t>
+  </si>
+  <si>
+    <t>תיאור</t>
+  </si>
+  <si>
+    <t>משקל בק״ג</t>
+  </si>
+  <si>
+    <t>עלות ליח׳-ש״ח</t>
+  </si>
+  <si>
+    <t>ציון טעם</t>
+  </si>
+  <si>
+    <t>רמת ביקוש</t>
+  </si>
+  <si>
+    <t>פריט חם</t>
+  </si>
+  <si>
+    <t>נקניק וניל</t>
+  </si>
+  <si>
+    <t>נקניק קטשופ</t>
+  </si>
+  <si>
+    <t>נקניק חרדל</t>
+  </si>
+  <si>
+    <t>נקניק צ׳וריסו</t>
+  </si>
+  <si>
+    <t>נקניק בולי</t>
+  </si>
+  <si>
+    <t>מבנה פונקציית if:</t>
+  </si>
+  <si>
+    <t>נקניק שולי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תנאי ואז פסיק, ואז מה עושים אם </t>
+  </si>
+  <si>
+    <t>הוא מתקיים, ומה עושים אם לא מתקיים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נדרש: נתבקשתם לרשום נוסחה בתא G139 שניתן יהיה להעתיק בגרירה למטה לכל השורות העוקבות בטבלה, על </t>
+  </si>
+  <si>
+    <t>מנת שיוצג הפלט ״כן״ במידה ורמת הביקוש לפריט היא מעל 6, ובכל מקרה אחר יוצג הפלט ״לא״.</t>
+  </si>
+  <si>
+    <t>=IF(F$139&gt;J$138,I$139,I140)</t>
+  </si>
+  <si>
+    <t>=IF(F$139&gt;6,I$139,I140)</t>
+  </si>
+  <si>
+    <t>=IF(F139&gt;J$138,I$139,I$140)</t>
+  </si>
+  <si>
+    <t>ד.</t>
+  </si>
+  <si>
+    <t>=IF(F139&gt;$J138,I$139,I140)</t>
+  </si>
+  <si>
+    <t>=IF(I$139,I140,F139&gt;$J138)</t>
+  </si>
+  <si>
+    <t>שאלה 4 - פונקציית IF - סגנון מבחן</t>
+  </si>
+  <si>
+    <t>לפניכם רשימת ציוני עבודות וציוני מבחנים של סטודנטים:</t>
+  </si>
+  <si>
+    <t>מס׳ סטודנט/ית</t>
+  </si>
+  <si>
+    <t>ציון עבודה</t>
+  </si>
+  <si>
+    <t>משקל עבודות</t>
+  </si>
+  <si>
+    <t>ציון מעבר</t>
+  </si>
+  <si>
+    <t>נדרש: נתבקשתם לרשום בתא D162 נוסחה שניתן יהיה להעתיק אותה כלפי מטה בגרירה לכל השורות בטבלה, כאשר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הציון המשוקלל מחושב לפי ציון הבחינה בלבד לסטודנטים שציון הבחינה שלהם נמוך מ-60, בעוד שהוא מחושב לפי </t>
+  </si>
+  <si>
+    <t>משקל של 60% לבחינה ו-40% לעבודות כאשר ציון הבחינה של הסטודנט 60 או יותר.</t>
+  </si>
+  <si>
+    <t>=IF(C162&lt;H$163,C162,C162*H$161+B162*H$162)</t>
+  </si>
+  <si>
+    <t>=IF(C162&lt;H$163,C162*H$161+B162*H$162,C162)</t>
+  </si>
+  <si>
+    <t>=IF(C162*H$161+B162*H$162,C162,C162&lt;H$163)</t>
+  </si>
+  <si>
+    <t>=IF(C162&lt;H163,C162,C162*H$161+B162*H$162)</t>
+  </si>
+  <si>
+    <t>כל יתר התשובות שגויות</t>
+  </si>
+  <si>
+    <t>שאלה 5 - פונקציית VLOOKUP - סגנון רגיל / לימודי וללא IFNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לפניכם שתי טבלאות נפרדות: טבלת מוזמנים וטבלת מאשרי הגעה. </t>
+  </si>
+  <si>
+    <t>בטבלת המוזמנים רשומה כתובת המוזמן, ובטבלת מאשרי הגעה לא.</t>
+  </si>
+  <si>
+    <t>טבלת מאשרי הגעה</t>
+  </si>
+  <si>
+    <t>טבלת מוזמנים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שם </t>
+  </si>
+  <si>
+    <t>מאשר הגעה</t>
+  </si>
+  <si>
+    <t>תל אביב</t>
+  </si>
+  <si>
+    <t>יוכבד</t>
+  </si>
+  <si>
+    <t>דינר</t>
+  </si>
+  <si>
+    <t>שדרות</t>
+  </si>
+  <si>
+    <t>קוקי</t>
+  </si>
+  <si>
+    <t>הופ</t>
+  </si>
+  <si>
+    <t>דימונה</t>
+  </si>
+  <si>
+    <t>סאן</t>
+  </si>
+  <si>
+    <t>ז׳אק</t>
+  </si>
+  <si>
+    <t>נהריה</t>
+  </si>
+  <si>
+    <t>יהונתן</t>
+  </si>
+  <si>
+    <t>צפת</t>
+  </si>
+  <si>
+    <t>לוליפופ</t>
+  </si>
+  <si>
+    <t>רמת גן</t>
+  </si>
+  <si>
+    <t>שקונדילה</t>
+  </si>
+  <si>
+    <t>לה-קנדלה</t>
+  </si>
+  <si>
+    <t>קרית אונו</t>
+  </si>
+  <si>
+    <t>גבעתיים</t>
+  </si>
+  <si>
+    <t>בת ים</t>
+  </si>
+  <si>
+    <t>שטומפ</t>
+  </si>
+  <si>
+    <t>מוצמוץ</t>
+  </si>
+  <si>
+    <t>באר שבע</t>
+  </si>
+  <si>
+    <t>קרטשוב</t>
+  </si>
+  <si>
+    <t>אופקים</t>
+  </si>
+  <si>
+    <t>קרית מוצקין</t>
+  </si>
+  <si>
+    <t>נדרש: עליכם ליצור טבלה נוספת. הטבלה תכלול העתק של נתוני טבלת המוזמנים, אך תפתח עמודה נוספת של מאשרי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הגעה שתכלול ליד כל מוזמן האם אישר הגעה או לא. </t>
+  </si>
+  <si>
+    <t>ברירת מחדל בקורס על כל ה-vlookup שלנו (התאמה מדויקת)</t>
+  </si>
+  <si>
+    <t>טבלה מאוחדת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מספר </t>
+  </si>
+  <si>
+    <t>סימון כל הטבלה שבה</t>
+  </si>
+  <si>
+    <t>שם הפונקציה: פונקציה שיודעת לחפש</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחפשים את הערך </t>
+  </si>
+  <si>
+    <t>ערך בעמודה הראשונה בטבלה מסוימת,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ממנה </t>
+  </si>
+  <si>
+    <t>כלל העמודות כולל</t>
+  </si>
+  <si>
+    <t>ולהחזיר ערך מתאים מעמודה כלשהי באותה טבלה</t>
+  </si>
+  <si>
+    <t>נחזיר</t>
+  </si>
+  <si>
+    <t>כותרות. קיבוע שורה:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ערך. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כי מתכוונים לגרור </t>
+  </si>
+  <si>
+    <t>כאן רוצים</t>
+  </si>
+  <si>
+    <t>למטה</t>
+  </si>
+  <si>
+    <t>הערך שאותו מחפשים. במקרה זה, מדובר בשם</t>
+  </si>
+  <si>
+    <t>להחזיר</t>
+  </si>
+  <si>
+    <t>ורוצים</t>
+  </si>
+  <si>
+    <t>הראשון בטבלה המאוחדת (אבנר) שנמצא בתא G215</t>
+  </si>
+  <si>
+    <t>ערך אישור</t>
+  </si>
+  <si>
+    <t>שהשורות</t>
+  </si>
+  <si>
+    <t>הגעה</t>
+  </si>
+  <si>
+    <t>של הטבלה</t>
+  </si>
+  <si>
+    <t>שהוא בעמודה</t>
+  </si>
+  <si>
+    <t>שבה מחפשים יישארו קבועות</t>
+  </si>
+  <si>
+    <t>ה-2</t>
+  </si>
+  <si>
+    <t>בטבלה</t>
+  </si>
+  <si>
+    <t>מקום להסברים נוספים לפי הצורך:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לאחר יישום הנוסחה וגרירתה, מגלים שחלק מהתוצאות הן N/A. המשמעות היא Not Available או בעברית: ״לא מצאתי״. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה קצת מכוער, אבל לגיטימי. אם רוצים להמנע מזה (מאד נפוץ) אז נצטרך לבצע שימוש במקביל גם ב - VLOOKUP וגם ב - IFNA שמונע בעיה זו (ועוד על IFNA - למטה). </t>
+  </si>
+  <si>
+    <t>שאלה 6 - פונקציית VLOOKUP - סגנון רגיל / לימודי עם IFNA</t>
+  </si>
+  <si>
+    <t>בטבלת המוזמנים רשומה כתובת המזומן, ובטבלת מאשרי הגעה לא.</t>
+  </si>
+  <si>
+    <t>מה מחפשים, באיזו טבלה, מאיזו עמודה להחזיר ערך,</t>
+  </si>
+  <si>
+    <t>הגעה שתכלול ליד כל מוזמן האם אישר הגעה או לא. במידה ומוזמן מסוים לא נכלל בטבלת מאשרי ההגעה, יכלל המלל</t>
+  </si>
+  <si>
+    <t>והאם נדרשת התאמה מדויקת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לפיו ״אין מידע״. יש ליצור תאי עזר לפי הצורך. </t>
+  </si>
+  <si>
+    <t>אין מידע</t>
+  </si>
+  <si>
+    <t>הסבר הנוסחה:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>VLOOKUP(G270,A$269:B$279,2,0)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">זו הנוסחה של ה - VLOOKUP עצמו, שנבנתה באופן דומה מאד </t>
+  </si>
+  <si>
+    <t>לשאלה הקודמת</t>
+  </si>
+  <si>
+    <t>כדי למנוע מ-Excel להציג N/A, בונים IFNA מחוץ לפונקציית ה- VLOOKUP כולה:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>=IFNA(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>פונקציית ה-vlookup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,L$269)</t>
+    </r>
+  </si>
+  <si>
+    <t>הערך שיוצג במידה</t>
+  </si>
+  <si>
+    <t>פונקציית ה - vlookup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ו-vlookup במידה </t>
+  </si>
+  <si>
+    <t>מלמעלה</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">והערך </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>לא נמצא</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> (תא עזר)</t>
+    </r>
+  </si>
+  <si>
+    <t>כך שבסך הכל הביטוי הוא:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>=IFNA(VLOOKUP(G270,A$269:B$279,2,0),L$269)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5742,18 +6563,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5816,6 +6625,18 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -22979,6 +23800,1106 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>191614</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204982</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120316</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCF8B88-3C60-F74B-BE1C-2E34723FBE56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13520659518" y="4125049"/>
+          <a:ext cx="13368" cy="287867"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80210</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>93578</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2F4C9A-2A01-0C4B-988A-8E79F6754F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13521596422" y="4133961"/>
+          <a:ext cx="13368" cy="287867"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44560</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142597</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53E999C-B7EF-FE42-84EC-480D018BA12B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13522509040" y="4147329"/>
+          <a:ext cx="616060" cy="287868"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160421</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>53474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548105</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>178246</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Right Arrow 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B79A9E-2C60-5F4C-AB19-313637469C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13521141895" y="19586074"/>
+          <a:ext cx="387684" cy="124772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>360947</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>35649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>779824</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>178246</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Right Arrow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5ADD7D-1644-774E-B4EC-9DEAB0D7FAE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13520910176" y="23429049"/>
+          <a:ext cx="418877" cy="142597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>280737</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>49018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>699614</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>191615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Right Arrow 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4A5099-9E50-3449-BB96-5BCB0F89AFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13518513886" y="28116018"/>
+          <a:ext cx="418877" cy="142597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>343123</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>40105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>182702</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Right Arrow 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDEB4B80-7960-4343-8B49-843A464BBC50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13520928000" y="32780705"/>
+          <a:ext cx="418877" cy="142597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>245088</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>35649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>744176</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>178246</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Right Arrow 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12F791B-4E6F-D54F-8A9F-81B7C5BFF974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13516818324" y="43545849"/>
+          <a:ext cx="499088" cy="142597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>686246</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>182702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102492</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4BEED8-2E25-A54D-BA3F-97AA3764FE78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13515809008" y="19512102"/>
+          <a:ext cx="241746" cy="308364"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236176</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>200527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236176</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>115859</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF82308-1991-7942-BFFF-6855BACC6F1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13516500824" y="19529927"/>
+          <a:ext cx="0" cy="321732"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>387684</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>387684</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5649D0-BEDA-1D43-977E-023866DCA304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13517174816" y="19532601"/>
+          <a:ext cx="0" cy="323514"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>418878</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>819930</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA76CB1-A834-7440-8CDC-CDC0B4795CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13517568070" y="19532601"/>
+          <a:ext cx="401052" cy="287865"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357321</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>17220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>365932</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>51661</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF10F0F6-8AF7-5341-B472-D3C0DF0D8868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13513894568" y="43730620"/>
+          <a:ext cx="8611" cy="237641"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>607613</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>202621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>616460</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>60255</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D2DFF4-5FE3-5E47-BB9A-8EBDB612B21C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13514469540" y="43712821"/>
+          <a:ext cx="8847" cy="1076834"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>750876</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>170176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>811555</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>27810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8AE390-DCC5-C943-B193-4B1DBD9D577C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13515099945" y="43680376"/>
+          <a:ext cx="60679" cy="264034"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444963</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>179446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320241</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>46350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D0CBF3-CAA9-9E49-8512-6D9A3BB502A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13515591259" y="43689646"/>
+          <a:ext cx="700778" cy="273304"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>769416</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>129781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208577</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>64890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CF90B3-E6BE-9E4B-8F4D-75AEAE163A0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13515702923" y="43233581"/>
+          <a:ext cx="264661" cy="341509"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523759</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>23175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533029</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>64890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B456F1F-6245-DE43-BBF4-BAB18287BD5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13514552971" y="56334975"/>
+          <a:ext cx="9270" cy="244915"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>560840</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>139052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>74161</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>83430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6574CE5-D26C-B446-86FA-F7255A7685F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13513360839" y="56247652"/>
+          <a:ext cx="338821" cy="147578"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222482</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>190037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>472774</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>171496</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48748AC0-02EB-014A-AAB0-79EA87FD0E31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13515438726" y="56298637"/>
+          <a:ext cx="250292" cy="184659"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -23560,12 +25481,12 @@
       <c r="N46" s="12"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C47" s="87" t="s">
+      <c r="C47" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="135"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H48" s="3" t="s">
@@ -24137,19 +26058,19 @@
       <c r="A140" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B140" s="87" t="s">
+      <c r="B140" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="C140" s="87"/>
+      <c r="C140" s="135"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B141" s="88" t="s">
+      <c r="B141" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="C141" s="88"/>
+      <c r="C141" s="136"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
@@ -25281,10 +27202,10 @@
       <c r="A370" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B370" s="87" t="s">
+      <c r="B370" s="135" t="s">
         <v>287</v>
       </c>
-      <c r="C370" s="87"/>
+      <c r="C370" s="135"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
@@ -25699,16 +27620,16 @@
       <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="137" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -29950,18 +31871,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="138" t="s">
         <v>594</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -34118,7 +36039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC24980-4454-8446-9355-DD6AC971656B}">
   <dimension ref="A1:K943"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="298" zoomScaleNormal="370" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="298" zoomScaleNormal="370" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -34199,7 +36120,7 @@
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="91"/>
+      <c r="A8" s="87"/>
       <c r="C8" s="3" t="s">
         <v>779</v>
       </c>
@@ -34288,7 +36209,7 @@
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="88" t="s">
         <v>787</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -34325,7 +36246,7 @@
       <c r="C19" s="24" t="s">
         <v>791</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="89" t="s">
         <v>776</v>
       </c>
       <c r="E19" s="24"/>
@@ -34386,16 +36307,16 @@
       <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="90" t="s">
         <v>798</v>
       </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -34537,10 +36458,10 @@
       <c r="A52" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="B52" s="96" t="s">
+      <c r="B52" s="92" t="s">
         <v>815</v>
       </c>
-      <c r="C52" s="97">
+      <c r="C52" s="93">
         <f>SUM(C47:C50)</f>
         <v>157000</v>
       </c>
@@ -34563,10 +36484,10 @@
       <c r="A53" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="B53" s="96" t="s">
+      <c r="B53" s="92" t="s">
         <v>818</v>
       </c>
-      <c r="C53" s="96">
+      <c r="C53" s="92">
         <f>AVERAGE(C47:C50)</f>
         <v>39250</v>
       </c>
@@ -34587,10 +36508,10 @@
       <c r="A54" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="B54" s="96" t="s">
+      <c r="B54" s="92" t="s">
         <v>821</v>
       </c>
-      <c r="C54" s="96">
+      <c r="C54" s="92">
         <f>MAX(C47:C50)</f>
         <v>75000</v>
       </c>
@@ -34611,10 +36532,10 @@
       <c r="A55" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="B55" s="96" t="s">
+      <c r="B55" s="92" t="s">
         <v>824</v>
       </c>
-      <c r="C55" s="96">
+      <c r="C55" s="92">
         <f>MIN(C47:C50)</f>
         <v>10000</v>
       </c>
@@ -34627,16 +36548,16 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="94" t="s">
+      <c r="A57" s="90" t="s">
         <v>826</v>
       </c>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="95"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -34717,7 +36638,7 @@
       <c r="B70" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="C70" s="98"/>
+      <c r="C70" s="94"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
@@ -34811,16 +36732,16 @@
     </row>
     <row r="89" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="94" t="s">
+      <c r="A90" s="90" t="s">
         <v>847</v>
       </c>
-      <c r="B90" s="95"/>
-      <c r="C90" s="95"/>
-      <c r="D90" s="95"/>
-      <c r="E90" s="95"/>
-      <c r="F90" s="95"/>
-      <c r="G90" s="95"/>
-      <c r="H90" s="95"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="91"/>
+      <c r="F90" s="91"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="91"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
@@ -34965,7 +36886,7 @@
       <c r="C115" s="17" t="s">
         <v>854</v>
       </c>
-      <c r="D115" s="99" t="s">
+      <c r="D115" s="95" t="s">
         <v>1447</v>
       </c>
       <c r="H115" s="3" t="s">
@@ -35132,11 +37053,11 @@
       <c r="B128" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="C128" s="100">
+      <c r="C128" s="96">
         <f>AVERAGE(C116:C126)</f>
         <v>76.454545454545453</v>
       </c>
-      <c r="D128" s="101"/>
+      <c r="D128" s="97"/>
       <c r="H128" s="3" t="s">
         <v>862</v>
       </c>
@@ -35167,7 +37088,7 @@
       <c r="B130" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="C130" s="102"/>
+      <c r="C130" s="98"/>
       <c r="D130" s="9">
         <f>COUNTIF(D116:D126,H119)</f>
         <v>2</v>
@@ -35187,7 +37108,7 @@
       <c r="B131" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="C131" s="103"/>
+      <c r="C131" s="99"/>
       <c r="D131" s="9">
         <f>AVERAGEIF(D116:D126,H122)</f>
         <v>86.555555555555557</v>
@@ -35286,16 +37207,16 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="94" t="s">
+      <c r="A146" s="90" t="s">
         <v>891</v>
       </c>
-      <c r="B146" s="95"/>
-      <c r="C146" s="95"/>
-      <c r="D146" s="95"/>
-      <c r="E146" s="95"/>
-      <c r="F146" s="95"/>
-      <c r="G146" s="95"/>
-      <c r="H146" s="95"/>
+      <c r="B146" s="91"/>
+      <c r="C146" s="91"/>
+      <c r="D146" s="91"/>
+      <c r="E146" s="91"/>
+      <c r="F146" s="91"/>
+      <c r="G146" s="91"/>
+      <c r="H146" s="91"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
@@ -35382,7 +37303,7 @@
       <c r="A160" s="3" t="s">
         <v>1449</v>
       </c>
-      <c r="D160" s="98"/>
+      <c r="D160" s="94"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
@@ -35573,16 +37494,16 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="94" t="s">
+      <c r="A196" s="90" t="s">
         <v>944</v>
       </c>
-      <c r="B196" s="95"/>
-      <c r="C196" s="95"/>
-      <c r="D196" s="95"/>
-      <c r="E196" s="95"/>
-      <c r="F196" s="95"/>
-      <c r="G196" s="95"/>
-      <c r="H196" s="95"/>
+      <c r="B196" s="91"/>
+      <c r="C196" s="91"/>
+      <c r="D196" s="91"/>
+      <c r="E196" s="91"/>
+      <c r="F196" s="91"/>
+      <c r="G196" s="91"/>
+      <c r="H196" s="91"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
@@ -35914,28 +37835,28 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A242" s="104" t="s">
+      <c r="A242" s="100" t="s">
         <v>775</v>
       </c>
-      <c r="B242" s="104" t="s">
+      <c r="B242" s="100" t="s">
         <v>777</v>
       </c>
-      <c r="C242" s="104" t="s">
+      <c r="C242" s="100" t="s">
         <v>778</v>
       </c>
-      <c r="D242" s="104" t="s">
+      <c r="D242" s="100" t="s">
         <v>779</v>
       </c>
-      <c r="E242" s="104" t="s">
+      <c r="E242" s="100" t="s">
         <v>780</v>
       </c>
-      <c r="F242" s="104" t="s">
+      <c r="F242" s="100" t="s">
         <v>781</v>
       </c>
-      <c r="G242" s="104" t="s">
+      <c r="G242" s="100" t="s">
         <v>782</v>
       </c>
-      <c r="H242" s="104" t="s">
+      <c r="H242" s="100" t="s">
         <v>783</v>
       </c>
       <c r="I242" s="11" t="s">
@@ -35972,16 +37893,16 @@
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A245" s="94" t="s">
+      <c r="A245" s="90" t="s">
         <v>981</v>
       </c>
-      <c r="B245" s="95"/>
-      <c r="C245" s="95"/>
-      <c r="D245" s="95"/>
-      <c r="E245" s="95"/>
-      <c r="F245" s="95"/>
-      <c r="G245" s="95"/>
-      <c r="H245" s="95"/>
+      <c r="B245" s="91"/>
+      <c r="C245" s="91"/>
+      <c r="D245" s="91"/>
+      <c r="E245" s="91"/>
+      <c r="F245" s="91"/>
+      <c r="G245" s="91"/>
+      <c r="H245" s="91"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
@@ -36362,7 +38283,7 @@
       <c r="B277" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="C277" s="105">
+      <c r="C277" s="101">
         <f>AVERAGE(C269:C275)</f>
         <v>69.714285714285708</v>
       </c>
@@ -36389,7 +38310,7 @@
       <c r="B278" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="C278" s="106">
+      <c r="C278" s="102">
         <f>MIN(C269:C275)</f>
         <v>4</v>
       </c>
@@ -36427,16 +38348,16 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" s="94" t="s">
+      <c r="A284" s="90" t="s">
         <v>1005</v>
       </c>
-      <c r="B284" s="95"/>
-      <c r="C284" s="95"/>
-      <c r="D284" s="95"/>
-      <c r="E284" s="95"/>
-      <c r="F284" s="95"/>
-      <c r="G284" s="95"/>
-      <c r="H284" s="95"/>
+      <c r="B284" s="91"/>
+      <c r="C284" s="91"/>
+      <c r="D284" s="91"/>
+      <c r="E284" s="91"/>
+      <c r="F284" s="91"/>
+      <c r="G284" s="91"/>
+      <c r="H284" s="91"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
@@ -36699,40 +38620,40 @@
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A309" s="94" t="s">
+      <c r="A309" s="90" t="s">
         <v>1020</v>
       </c>
-      <c r="B309" s="95"/>
-      <c r="C309" s="95"/>
-      <c r="D309" s="95"/>
-      <c r="E309" s="95"/>
-      <c r="F309" s="95"/>
-      <c r="G309" s="95"/>
-      <c r="H309" s="95"/>
+      <c r="B309" s="91"/>
+      <c r="C309" s="91"/>
+      <c r="D309" s="91"/>
+      <c r="E309" s="91"/>
+      <c r="F309" s="91"/>
+      <c r="G309" s="91"/>
+      <c r="H309" s="91"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A311" s="104" t="s">
+      <c r="A311" s="100" t="s">
         <v>775</v>
       </c>
-      <c r="B311" s="104" t="s">
+      <c r="B311" s="100" t="s">
         <v>777</v>
       </c>
-      <c r="C311" s="104" t="s">
+      <c r="C311" s="100" t="s">
         <v>778</v>
       </c>
-      <c r="D311" s="104" t="s">
+      <c r="D311" s="100" t="s">
         <v>779</v>
       </c>
-      <c r="E311" s="104" t="s">
+      <c r="E311" s="100" t="s">
         <v>780</v>
       </c>
-      <c r="F311" s="104" t="s">
+      <c r="F311" s="100" t="s">
         <v>781</v>
       </c>
-      <c r="G311" s="104" t="s">
+      <c r="G311" s="100" t="s">
         <v>782</v>
       </c>
-      <c r="H311" s="104" t="s">
+      <c r="H311" s="100" t="s">
         <v>783</v>
       </c>
     </row>
@@ -37484,16 +39405,16 @@
       <c r="A390" s="8"/>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A392" s="94" t="s">
+      <c r="A392" s="90" t="s">
         <v>1093</v>
       </c>
-      <c r="B392" s="95"/>
-      <c r="C392" s="95"/>
-      <c r="D392" s="95"/>
-      <c r="E392" s="95"/>
-      <c r="F392" s="95"/>
-      <c r="G392" s="95"/>
-      <c r="H392" s="95"/>
+      <c r="B392" s="91"/>
+      <c r="C392" s="91"/>
+      <c r="D392" s="91"/>
+      <c r="E392" s="91"/>
+      <c r="F392" s="91"/>
+      <c r="G392" s="91"/>
+      <c r="H392" s="91"/>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
@@ -37521,28 +39442,28 @@
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A401" s="107" t="s">
+      <c r="A401" s="103" t="s">
         <v>775</v>
       </c>
-      <c r="B401" s="107" t="s">
+      <c r="B401" s="103" t="s">
         <v>777</v>
       </c>
-      <c r="C401" s="107" t="s">
+      <c r="C401" s="103" t="s">
         <v>778</v>
       </c>
-      <c r="D401" s="107" t="s">
+      <c r="D401" s="103" t="s">
         <v>779</v>
       </c>
-      <c r="E401" s="107" t="s">
+      <c r="E401" s="103" t="s">
         <v>780</v>
       </c>
-      <c r="F401" s="107" t="s">
+      <c r="F401" s="103" t="s">
         <v>781</v>
       </c>
-      <c r="G401" s="107" t="s">
+      <c r="G401" s="103" t="s">
         <v>782</v>
       </c>
-      <c r="H401" s="107" t="s">
+      <c r="H401" s="103" t="s">
         <v>783</v>
       </c>
     </row>
@@ -37598,155 +39519,155 @@
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A408" s="108" t="s">
+      <c r="A408" s="104" t="s">
         <v>1102</v>
       </c>
-      <c r="B408" s="108" t="s">
+      <c r="B408" s="104" t="s">
         <v>1103</v>
       </c>
-      <c r="C408" s="108" t="s">
+      <c r="C408" s="104" t="s">
         <v>1104</v>
       </c>
-      <c r="D408" s="108" t="s">
+      <c r="D408" s="104" t="s">
         <v>1105</v>
       </c>
-      <c r="E408" s="108" t="s">
+      <c r="E408" s="104" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A409" s="96" t="s">
+      <c r="A409" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="B409" s="96">
+      <c r="B409" s="92">
         <v>100</v>
       </c>
-      <c r="C409" s="96">
+      <c r="C409" s="92">
         <v>60</v>
       </c>
-      <c r="D409" s="96">
+      <c r="D409" s="92">
         <v>20</v>
       </c>
-      <c r="E409" s="96">
+      <c r="E409" s="92">
         <v>50</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A410" s="96" t="s">
+      <c r="A410" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="B410" s="96">
+      <c r="B410" s="92">
         <v>30</v>
       </c>
-      <c r="C410" s="96">
+      <c r="C410" s="92">
         <v>100</v>
       </c>
-      <c r="D410" s="96">
+      <c r="D410" s="92">
         <v>40</v>
       </c>
-      <c r="E410" s="96">
+      <c r="E410" s="92">
         <v>100</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A411" s="96" t="s">
+      <c r="A411" s="92" t="s">
         <v>1107</v>
       </c>
-      <c r="B411" s="96">
+      <c r="B411" s="92">
         <v>150</v>
       </c>
-      <c r="C411" s="96">
+      <c r="C411" s="92">
         <v>8</v>
       </c>
-      <c r="D411" s="96">
+      <c r="D411" s="92">
         <v>7</v>
       </c>
-      <c r="E411" s="96">
+      <c r="E411" s="92">
         <v>17.5</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A412" s="96" t="s">
+      <c r="A412" s="92" t="s">
         <v>1108</v>
       </c>
-      <c r="B412" s="96">
+      <c r="B412" s="92">
         <v>80</v>
       </c>
-      <c r="C412" s="96">
+      <c r="C412" s="92">
         <v>120</v>
       </c>
-      <c r="D412" s="96">
+      <c r="D412" s="92">
         <v>50</v>
       </c>
-      <c r="E412" s="96">
+      <c r="E412" s="92">
         <v>125</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A413" s="96" t="s">
+      <c r="A413" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="B413" s="96">
+      <c r="B413" s="92">
         <v>98</v>
       </c>
-      <c r="C413" s="96">
+      <c r="C413" s="92">
         <v>170</v>
       </c>
-      <c r="D413" s="96">
+      <c r="D413" s="92">
         <v>70</v>
       </c>
-      <c r="E413" s="96">
+      <c r="E413" s="92">
         <v>175</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A414" s="96" t="s">
+      <c r="A414" s="92" t="s">
         <v>1109</v>
       </c>
-      <c r="B414" s="96">
+      <c r="B414" s="92">
         <v>105</v>
       </c>
-      <c r="C414" s="96">
+      <c r="C414" s="92">
         <v>30</v>
       </c>
-      <c r="D414" s="96">
+      <c r="D414" s="92">
         <v>10</v>
       </c>
-      <c r="E414" s="96">
+      <c r="E414" s="92">
         <v>25</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A415" s="96" t="s">
+      <c r="A415" s="92" t="s">
         <v>1110</v>
       </c>
-      <c r="B415" s="96">
+      <c r="B415" s="92">
         <v>44</v>
       </c>
-      <c r="C415" s="96">
+      <c r="C415" s="92">
         <v>10</v>
       </c>
-      <c r="D415" s="96">
+      <c r="D415" s="92">
         <v>12</v>
       </c>
-      <c r="E415" s="96">
+      <c r="E415" s="92">
         <v>30</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A416" s="96" t="s">
+      <c r="A416" s="92" t="s">
         <v>1111</v>
       </c>
-      <c r="B416" s="96">
+      <c r="B416" s="92">
         <v>88</v>
       </c>
-      <c r="C416" s="96">
+      <c r="C416" s="92">
         <v>1</v>
       </c>
-      <c r="D416" s="96">
+      <c r="D416" s="92">
         <v>1</v>
       </c>
-      <c r="E416" s="96">
+      <c r="E416" s="92">
         <v>2.5</v>
       </c>
     </row>
@@ -37779,10 +39700,10 @@
       <c r="A423" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="H423" s="109" t="s">
+      <c r="H423" s="105" t="s">
         <v>775</v>
       </c>
-      <c r="I423" s="109" t="s">
+      <c r="I423" s="105" t="s">
         <v>973</v>
       </c>
     </row>
@@ -37790,18 +39711,18 @@
       <c r="A424" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="H424" s="109" t="s">
+      <c r="H424" s="105" t="s">
         <v>777</v>
       </c>
-      <c r="I424" s="109" t="s">
+      <c r="I424" s="105" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H425" s="109" t="s">
+      <c r="H425" s="105" t="s">
         <v>778</v>
       </c>
-      <c r="I425" s="109" t="s">
+      <c r="I425" s="105" t="s">
         <v>975</v>
       </c>
     </row>
@@ -37809,226 +39730,226 @@
       <c r="A426" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H426" s="109" t="s">
+      <c r="H426" s="105" t="s">
         <v>779</v>
       </c>
-      <c r="I426" s="109" t="s">
+      <c r="I426" s="105" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F427" s="108" t="s">
+      <c r="F427" s="104" t="s">
         <v>1119</v>
       </c>
-      <c r="H427" s="109" t="s">
+      <c r="H427" s="105" t="s">
         <v>780</v>
       </c>
-      <c r="I427" s="109" t="s">
+      <c r="I427" s="105" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A428" s="108" t="s">
+      <c r="A428" s="104" t="s">
         <v>1102</v>
       </c>
-      <c r="B428" s="108" t="s">
+      <c r="B428" s="104" t="s">
         <v>1103</v>
       </c>
-      <c r="C428" s="108" t="s">
+      <c r="C428" s="104" t="s">
         <v>1104</v>
       </c>
-      <c r="D428" s="108" t="s">
+      <c r="D428" s="104" t="s">
         <v>1105</v>
       </c>
-      <c r="E428" s="110" t="s">
+      <c r="E428" s="106" t="s">
         <v>1106</v>
       </c>
-      <c r="F428" s="108" t="s">
+      <c r="F428" s="104" t="s">
         <v>1120</v>
       </c>
-      <c r="H428" s="109" t="s">
+      <c r="H428" s="105" t="s">
         <v>781</v>
       </c>
-      <c r="I428" s="109" t="s">
+      <c r="I428" s="105" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A429" s="96" t="s">
+      <c r="A429" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="B429" s="96">
+      <c r="B429" s="92">
         <v>100</v>
       </c>
-      <c r="C429" s="111">
+      <c r="C429" s="107">
         <v>60</v>
       </c>
-      <c r="D429" s="96">
+      <c r="D429" s="92">
         <v>20</v>
       </c>
-      <c r="E429" s="112">
+      <c r="E429" s="108">
         <v>50</v>
       </c>
-      <c r="F429" s="96">
+      <c r="F429" s="92">
         <f>B429*D429</f>
         <v>2000</v>
       </c>
-      <c r="H429" s="109" t="s">
+      <c r="H429" s="105" t="s">
         <v>782</v>
       </c>
-      <c r="I429" s="109" t="s">
+      <c r="I429" s="105" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A430" s="96" t="s">
+      <c r="A430" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="B430" s="96">
+      <c r="B430" s="92">
         <v>30</v>
       </c>
-      <c r="C430" s="111">
+      <c r="C430" s="107">
         <v>100</v>
       </c>
-      <c r="D430" s="96">
+      <c r="D430" s="92">
         <v>40</v>
       </c>
-      <c r="E430" s="112">
+      <c r="E430" s="108">
         <v>100</v>
       </c>
-      <c r="F430" s="96">
+      <c r="F430" s="92">
         <f>B430*D430</f>
         <v>1200</v>
       </c>
-      <c r="H430" s="109" t="s">
+      <c r="H430" s="105" t="s">
         <v>783</v>
       </c>
-      <c r="I430" s="109" t="s">
+      <c r="I430" s="105" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A431" s="96" t="s">
+      <c r="A431" s="92" t="s">
         <v>1107</v>
       </c>
-      <c r="B431" s="96">
+      <c r="B431" s="92">
         <v>150</v>
       </c>
-      <c r="C431" s="96">
+      <c r="C431" s="92">
         <v>8</v>
       </c>
-      <c r="D431" s="96">
+      <c r="D431" s="92">
         <v>7</v>
       </c>
-      <c r="E431" s="113">
+      <c r="E431" s="109">
         <v>17.5</v>
       </c>
-      <c r="F431" s="96">
+      <c r="F431" s="92">
         <f t="shared" ref="F431:F436" si="9">B431*D431</f>
         <v>1050</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A432" s="96" t="s">
+      <c r="A432" s="92" t="s">
         <v>1108</v>
       </c>
-      <c r="B432" s="96">
+      <c r="B432" s="92">
         <v>80</v>
       </c>
-      <c r="C432" s="111">
+      <c r="C432" s="107">
         <v>120</v>
       </c>
-      <c r="D432" s="96">
+      <c r="D432" s="92">
         <v>50</v>
       </c>
-      <c r="E432" s="112">
+      <c r="E432" s="108">
         <v>125</v>
       </c>
-      <c r="F432" s="96">
+      <c r="F432" s="92">
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A433" s="96" t="s">
+      <c r="A433" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="B433" s="96">
+      <c r="B433" s="92">
         <v>98</v>
       </c>
-      <c r="C433" s="111">
+      <c r="C433" s="107">
         <v>170</v>
       </c>
-      <c r="D433" s="96">
+      <c r="D433" s="92">
         <v>70</v>
       </c>
-      <c r="E433" s="112">
+      <c r="E433" s="108">
         <v>175</v>
       </c>
-      <c r="F433" s="96">
+      <c r="F433" s="92">
         <f t="shared" si="9"/>
         <v>6860</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A434" s="96" t="s">
+      <c r="A434" s="92" t="s">
         <v>1109</v>
       </c>
-      <c r="B434" s="96">
+      <c r="B434" s="92">
         <v>105</v>
       </c>
-      <c r="C434" s="96">
+      <c r="C434" s="92">
         <v>30</v>
       </c>
-      <c r="D434" s="96">
+      <c r="D434" s="92">
         <v>10</v>
       </c>
-      <c r="E434" s="113">
+      <c r="E434" s="109">
         <v>25</v>
       </c>
-      <c r="F434" s="96">
+      <c r="F434" s="92">
         <f t="shared" si="9"/>
         <v>1050</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A435" s="96" t="s">
+      <c r="A435" s="92" t="s">
         <v>1110</v>
       </c>
-      <c r="B435" s="96">
+      <c r="B435" s="92">
         <v>44</v>
       </c>
-      <c r="C435" s="96">
+      <c r="C435" s="92">
         <v>10</v>
       </c>
-      <c r="D435" s="96">
+      <c r="D435" s="92">
         <v>12</v>
       </c>
-      <c r="E435" s="113">
+      <c r="E435" s="109">
         <v>30</v>
       </c>
-      <c r="F435" s="96">
+      <c r="F435" s="92">
         <f t="shared" si="9"/>
         <v>528</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A436" s="96" t="s">
+      <c r="A436" s="92" t="s">
         <v>1111</v>
       </c>
-      <c r="B436" s="96">
+      <c r="B436" s="92">
         <v>88</v>
       </c>
-      <c r="C436" s="96">
+      <c r="C436" s="92">
         <v>1</v>
       </c>
-      <c r="D436" s="96">
+      <c r="D436" s="92">
         <v>1</v>
       </c>
-      <c r="E436" s="113">
+      <c r="E436" s="109">
         <v>2.5</v>
       </c>
-      <c r="F436" s="96">
+      <c r="F436" s="92">
         <f t="shared" si="9"/>
         <v>88</v>
       </c>
@@ -38319,16 +40240,16 @@
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A486" s="94" t="s">
+      <c r="A486" s="90" t="s">
         <v>1167</v>
       </c>
-      <c r="B486" s="95"/>
-      <c r="C486" s="95"/>
-      <c r="D486" s="95"/>
-      <c r="E486" s="95"/>
-      <c r="F486" s="95"/>
-      <c r="G486" s="95"/>
-      <c r="H486" s="95"/>
+      <c r="B486" s="91"/>
+      <c r="C486" s="91"/>
+      <c r="D486" s="91"/>
+      <c r="E486" s="91"/>
+      <c r="F486" s="91"/>
+      <c r="G486" s="91"/>
+      <c r="H486" s="91"/>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
@@ -38501,7 +40422,7 @@
       <c r="A508" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="C508" s="114">
+      <c r="C508" s="110">
         <f>AVERAGEIF(B491:B503,H509,C491:C503)</f>
         <v>34317.166666666664</v>
       </c>
@@ -38517,7 +40438,7 @@
       <c r="A509" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="C509" s="114">
+      <c r="C509" s="110">
         <f>AVERAGEIF(B491:B503,H510,C491:C503)</f>
         <v>25833.142857142859</v>
       </c>
@@ -38535,16 +40456,16 @@
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A512" s="94" t="s">
+      <c r="A512" s="90" t="s">
         <v>1187</v>
       </c>
-      <c r="B512" s="95"/>
-      <c r="C512" s="95"/>
-      <c r="D512" s="95"/>
-      <c r="E512" s="95"/>
-      <c r="F512" s="95"/>
-      <c r="G512" s="95"/>
-      <c r="H512" s="95"/>
+      <c r="B512" s="91"/>
+      <c r="C512" s="91"/>
+      <c r="D512" s="91"/>
+      <c r="E512" s="91"/>
+      <c r="F512" s="91"/>
+      <c r="G512" s="91"/>
+      <c r="H512" s="91"/>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
@@ -38795,16 +40716,16 @@
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A552" s="94" t="s">
+      <c r="A552" s="90" t="s">
         <v>1207</v>
       </c>
-      <c r="B552" s="95"/>
-      <c r="C552" s="95"/>
-      <c r="D552" s="95"/>
-      <c r="E552" s="95"/>
-      <c r="F552" s="95"/>
-      <c r="G552" s="95"/>
-      <c r="H552" s="95"/>
+      <c r="B552" s="91"/>
+      <c r="C552" s="91"/>
+      <c r="D552" s="91"/>
+      <c r="E552" s="91"/>
+      <c r="F552" s="91"/>
+      <c r="G552" s="91"/>
+      <c r="H552" s="91"/>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
@@ -38812,60 +40733,60 @@
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A556" s="96" t="s">
+      <c r="A556" s="92" t="s">
         <v>811</v>
       </c>
-      <c r="B556" s="96" t="s">
+      <c r="B556" s="92" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A557" s="96" t="s">
+      <c r="A557" s="92" t="s">
         <v>681</v>
       </c>
-      <c r="B557" s="96">
+      <c r="B557" s="92">
         <v>80</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A558" s="96" t="s">
+      <c r="A558" s="92" t="s">
         <v>682</v>
       </c>
-      <c r="B558" s="96">
+      <c r="B558" s="92">
         <v>95</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A559" s="96" t="s">
+      <c r="A559" s="92" t="s">
         <v>1210</v>
       </c>
-      <c r="B559" s="96"/>
+      <c r="B559" s="92"/>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A560" s="96" t="s">
+      <c r="A560" s="92" t="s">
         <v>1211</v>
       </c>
-      <c r="B560" s="96">
+      <c r="B560" s="92">
         <v>88</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A561" s="96" t="s">
+      <c r="A561" s="92" t="s">
         <v>1212</v>
       </c>
-      <c r="B561" s="96"/>
+      <c r="B561" s="92"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A562" s="96" t="s">
+      <c r="A562" s="92" t="s">
         <v>1213</v>
       </c>
-      <c r="B562" s="96"/>
+      <c r="B562" s="92"/>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A563" s="96" t="s">
+      <c r="A563" s="92" t="s">
         <v>1214</v>
       </c>
-      <c r="B563" s="96">
+      <c r="B563" s="92">
         <v>72</v>
       </c>
     </row>
@@ -38903,34 +40824,34 @@
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A573" s="96" t="s">
+      <c r="A573" s="92" t="s">
         <v>811</v>
       </c>
-      <c r="B573" s="96" t="s">
+      <c r="B573" s="92" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A574" s="96" t="s">
+      <c r="A574" s="92" t="s">
         <v>681</v>
       </c>
-      <c r="B574" s="96">
+      <c r="B574" s="92">
         <v>80</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A575" s="96" t="s">
+      <c r="A575" s="92" t="s">
         <v>682</v>
       </c>
-      <c r="B575" s="96">
+      <c r="B575" s="92">
         <v>95</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A576" s="96" t="s">
+      <c r="A576" s="92" t="s">
         <v>1210</v>
       </c>
-      <c r="B576" s="96" t="s">
+      <c r="B576" s="92" t="s">
         <v>1220</v>
       </c>
       <c r="C576" s="3" t="s">
@@ -38938,18 +40859,18 @@
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A577" s="96" t="s">
+      <c r="A577" s="92" t="s">
         <v>1211</v>
       </c>
-      <c r="B577" s="96">
+      <c r="B577" s="92">
         <v>88</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A578" s="96" t="s">
+      <c r="A578" s="92" t="s">
         <v>1212</v>
       </c>
-      <c r="B578" s="96" t="s">
+      <c r="B578" s="92" t="s">
         <v>1220</v>
       </c>
       <c r="C578" s="3" t="s">
@@ -38957,10 +40878,10 @@
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A579" s="96" t="s">
+      <c r="A579" s="92" t="s">
         <v>1213</v>
       </c>
-      <c r="B579" s="96" t="s">
+      <c r="B579" s="92" t="s">
         <v>1222</v>
       </c>
       <c r="C579" s="3" t="s">
@@ -38968,10 +40889,10 @@
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A580" s="96" t="s">
+      <c r="A580" s="92" t="s">
         <v>1214</v>
       </c>
-      <c r="B580" s="96">
+      <c r="B580" s="92">
         <v>72</v>
       </c>
     </row>
@@ -38993,34 +40914,34 @@
       <c r="A585" s="7"/>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A586" s="96" t="s">
+      <c r="A586" s="92" t="s">
         <v>811</v>
       </c>
-      <c r="B586" s="96" t="s">
+      <c r="B586" s="92" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A587" s="96" t="s">
+      <c r="A587" s="92" t="s">
         <v>681</v>
       </c>
-      <c r="B587" s="96">
+      <c r="B587" s="92">
         <v>80</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A588" s="96" t="s">
+      <c r="A588" s="92" t="s">
         <v>682</v>
       </c>
-      <c r="B588" s="96">
+      <c r="B588" s="92">
         <v>95</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A589" s="96" t="s">
+      <c r="A589" s="92" t="s">
         <v>1210</v>
       </c>
-      <c r="B589" s="96" t="str">
+      <c r="B589" s="92" t="str">
         <f>""</f>
         <v/>
       </c>
@@ -39029,36 +40950,36 @@
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A590" s="96" t="s">
+      <c r="A590" s="92" t="s">
         <v>1211</v>
       </c>
-      <c r="B590" s="96">
+      <c r="B590" s="92">
         <v>88</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A591" s="96" t="s">
+      <c r="A591" s="92" t="s">
         <v>1212</v>
       </c>
-      <c r="B591" s="96" t="str">
+      <c r="B591" s="92" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A592" s="96" t="s">
+      <c r="A592" s="92" t="s">
         <v>1213</v>
       </c>
-      <c r="B592" s="96" t="str">
+      <c r="B592" s="92" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A593" s="96" t="s">
+      <c r="A593" s="92" t="s">
         <v>1214</v>
       </c>
-      <c r="B593" s="96">
+      <c r="B593" s="92">
         <v>72</v>
       </c>
     </row>
@@ -39105,28 +41026,28 @@
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A606" s="107" t="s">
+      <c r="A606" s="103" t="s">
         <v>775</v>
       </c>
-      <c r="B606" s="107" t="s">
+      <c r="B606" s="103" t="s">
         <v>777</v>
       </c>
-      <c r="C606" s="107" t="s">
+      <c r="C606" s="103" t="s">
         <v>778</v>
       </c>
-      <c r="D606" s="107" t="s">
+      <c r="D606" s="103" t="s">
         <v>779</v>
       </c>
-      <c r="E606" s="107" t="s">
+      <c r="E606" s="103" t="s">
         <v>780</v>
       </c>
-      <c r="F606" s="107" t="s">
+      <c r="F606" s="103" t="s">
         <v>781</v>
       </c>
-      <c r="G606" s="107" t="s">
+      <c r="G606" s="103" t="s">
         <v>782</v>
       </c>
-      <c r="H606" s="107" t="s">
+      <c r="H606" s="103" t="s">
         <v>783</v>
       </c>
     </row>
@@ -39162,16 +41083,16 @@
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A611" s="94" t="s">
+      <c r="A611" s="90" t="s">
         <v>1232</v>
       </c>
-      <c r="B611" s="95"/>
-      <c r="C611" s="95"/>
-      <c r="D611" s="95"/>
-      <c r="E611" s="95"/>
-      <c r="F611" s="95"/>
-      <c r="G611" s="95"/>
-      <c r="H611" s="95"/>
+      <c r="B611" s="91"/>
+      <c r="C611" s="91"/>
+      <c r="D611" s="91"/>
+      <c r="E611" s="91"/>
+      <c r="F611" s="91"/>
+      <c r="G611" s="91"/>
+      <c r="H611" s="91"/>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
@@ -39228,7 +41149,7 @@
       <c r="C617" s="3">
         <v>1500</v>
       </c>
-      <c r="D617" s="115">
+      <c r="D617" s="111">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E617" s="3">
@@ -39248,7 +41169,7 @@
       <c r="C618" s="3">
         <v>1700</v>
       </c>
-      <c r="D618" s="115">
+      <c r="D618" s="111">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E618" s="3">
@@ -39268,7 +41189,7 @@
       <c r="C619" s="3">
         <v>800</v>
       </c>
-      <c r="D619" s="115">
+      <c r="D619" s="111">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E619" s="3">
@@ -39288,7 +41209,7 @@
       <c r="C620" s="3">
         <v>1000</v>
       </c>
-      <c r="D620" s="115">
+      <c r="D620" s="111">
         <v>1.2E-2</v>
       </c>
       <c r="E620" s="3">
@@ -39348,7 +41269,7 @@
       <c r="C623" s="3">
         <v>4000</v>
       </c>
-      <c r="D623" s="116">
+      <c r="D623" s="112">
         <v>2E-3</v>
       </c>
       <c r="E623" s="3">
@@ -39367,10 +41288,10 @@
       <c r="A626" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="H626" s="117" t="s">
+      <c r="H626" s="113" t="s">
         <v>775</v>
       </c>
-      <c r="I626" s="117" t="s">
+      <c r="I626" s="113" t="s">
         <v>973</v>
       </c>
     </row>
@@ -39378,10 +41299,10 @@
       <c r="A627" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="H627" s="117" t="s">
+      <c r="H627" s="113" t="s">
         <v>777</v>
       </c>
-      <c r="I627" s="117" t="s">
+      <c r="I627" s="113" t="s">
         <v>974</v>
       </c>
     </row>
@@ -39389,10 +41310,10 @@
       <c r="A628" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="H628" s="117" t="s">
+      <c r="H628" s="113" t="s">
         <v>778</v>
       </c>
-      <c r="I628" s="117" t="s">
+      <c r="I628" s="113" t="s">
         <v>975</v>
       </c>
     </row>
@@ -39400,10 +41321,10 @@
       <c r="A629" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="H629" s="117" t="s">
+      <c r="H629" s="113" t="s">
         <v>779</v>
       </c>
-      <c r="I629" s="117" t="s">
+      <c r="I629" s="113" t="s">
         <v>976</v>
       </c>
     </row>
@@ -39411,10 +41332,10 @@
       <c r="A630" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="H630" s="117" t="s">
+      <c r="H630" s="113" t="s">
         <v>780</v>
       </c>
-      <c r="I630" s="117" t="s">
+      <c r="I630" s="113" t="s">
         <v>977</v>
       </c>
     </row>
@@ -39422,10 +41343,10 @@
       <c r="A631" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="H631" s="117" t="s">
+      <c r="H631" s="113" t="s">
         <v>781</v>
       </c>
-      <c r="I631" s="117" t="s">
+      <c r="I631" s="113" t="s">
         <v>978</v>
       </c>
     </row>
@@ -39433,10 +41354,10 @@
       <c r="A632" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="H632" s="117" t="s">
+      <c r="H632" s="113" t="s">
         <v>782</v>
       </c>
-      <c r="I632" s="117" t="s">
+      <c r="I632" s="113" t="s">
         <v>979</v>
       </c>
     </row>
@@ -39444,347 +41365,347 @@
       <c r="A633" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="H633" s="117" t="s">
+      <c r="H633" s="113" t="s">
         <v>783</v>
       </c>
-      <c r="I633" s="117" t="s">
+      <c r="I633" s="113" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A635" s="118" t="s">
+      <c r="A635" s="114" t="s">
         <v>1234</v>
       </c>
-      <c r="B635" s="118" t="s">
+      <c r="B635" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="C635" s="118" t="s">
+      <c r="C635" s="114" t="s">
         <v>1235</v>
       </c>
-      <c r="D635" s="118" t="s">
+      <c r="D635" s="114" t="s">
         <v>1236</v>
       </c>
-      <c r="E635" s="118" t="s">
+      <c r="E635" s="114" t="s">
         <v>1237</v>
       </c>
-      <c r="F635" s="118" t="s">
+      <c r="F635" s="114" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A636" s="96">
+      <c r="A636" s="92">
         <v>324</v>
       </c>
-      <c r="B636" s="96" t="s">
+      <c r="B636" s="92" t="s">
         <v>1038</v>
       </c>
-      <c r="C636" s="96">
+      <c r="C636" s="92">
         <v>500</v>
       </c>
-      <c r="D636" s="119">
+      <c r="D636" s="115">
         <v>0.01</v>
       </c>
-      <c r="E636" s="96">
+      <c r="E636" s="92">
         <v>10</v>
       </c>
-      <c r="F636" s="96" t="s">
+      <c r="F636" s="92" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A637" s="96">
+      <c r="A637" s="92">
         <v>521</v>
       </c>
-      <c r="B637" s="96" t="s">
+      <c r="B637" s="92" t="s">
         <v>1240</v>
       </c>
-      <c r="C637" s="111">
+      <c r="C637" s="107">
         <v>1500</v>
       </c>
-      <c r="D637" s="120">
+      <c r="D637" s="116">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E637" s="121">
+      <c r="E637" s="117">
         <v>9</v>
       </c>
-      <c r="F637" s="96" t="s">
+      <c r="F637" s="92" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A638" s="96">
+      <c r="A638" s="92">
         <v>456</v>
       </c>
-      <c r="B638" s="96" t="s">
+      <c r="B638" s="92" t="s">
         <v>1210</v>
       </c>
-      <c r="C638" s="111">
+      <c r="C638" s="107">
         <v>1700</v>
       </c>
-      <c r="D638" s="120">
+      <c r="D638" s="116">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E638" s="121">
+      <c r="E638" s="117">
         <v>8.5</v>
       </c>
-      <c r="F638" s="96" t="s">
+      <c r="F638" s="92" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A639" s="96">
+      <c r="A639" s="92">
         <v>233</v>
       </c>
-      <c r="B639" s="96" t="s">
+      <c r="B639" s="92" t="s">
         <v>1242</v>
       </c>
-      <c r="C639" s="96">
+      <c r="C639" s="92">
         <v>800</v>
       </c>
-      <c r="D639" s="120">
+      <c r="D639" s="116">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E639" s="96">
+      <c r="E639" s="92">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F639" s="96" t="s">
+      <c r="F639" s="92" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A640" s="96">
+      <c r="A640" s="92">
         <v>990</v>
       </c>
-      <c r="B640" s="96" t="s">
+      <c r="B640" s="92" t="s">
         <v>1243</v>
       </c>
-      <c r="C640" s="96">
+      <c r="C640" s="92">
         <v>1000</v>
       </c>
-      <c r="D640" s="120">
+      <c r="D640" s="116">
         <v>1.2E-2</v>
       </c>
-      <c r="E640" s="96">
+      <c r="E640" s="92">
         <v>7</v>
       </c>
-      <c r="F640" s="96" t="s">
+      <c r="F640" s="92" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A641" s="96">
+      <c r="A641" s="92">
         <v>1244</v>
       </c>
-      <c r="B641" s="96" t="s">
+      <c r="B641" s="92" t="s">
         <v>1245</v>
       </c>
-      <c r="C641" s="96">
+      <c r="C641" s="92">
         <v>85</v>
       </c>
-      <c r="D641" s="119">
+      <c r="D641" s="115">
         <v>0.03</v>
       </c>
-      <c r="E641" s="96">
+      <c r="E641" s="92">
         <v>7.9</v>
       </c>
-      <c r="F641" s="96" t="s">
+      <c r="F641" s="92" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A642" s="96">
+      <c r="A642" s="92">
         <v>1335</v>
       </c>
-      <c r="B642" s="96" t="s">
+      <c r="B642" s="92" t="s">
         <v>1246</v>
       </c>
-      <c r="C642" s="96">
+      <c r="C642" s="92">
         <v>178</v>
       </c>
-      <c r="D642" s="119">
+      <c r="D642" s="115">
         <v>0.04</v>
       </c>
-      <c r="E642" s="96">
+      <c r="E642" s="92">
         <v>9.5</v>
       </c>
-      <c r="F642" s="96" t="s">
+      <c r="F642" s="92" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A643" s="96">
+      <c r="A643" s="92">
         <v>3141</v>
       </c>
-      <c r="B643" s="96" t="s">
+      <c r="B643" s="92" t="s">
         <v>1247</v>
       </c>
-      <c r="C643" s="111">
+      <c r="C643" s="107">
         <v>4000</v>
       </c>
-      <c r="D643" s="122">
+      <c r="D643" s="118">
         <v>2E-3</v>
       </c>
-      <c r="E643" s="121">
+      <c r="E643" s="117">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F643" s="96" t="s">
+      <c r="F643" s="92" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A645" s="123" t="s">
+      <c r="A645" s="119" t="s">
         <v>1256</v>
       </c>
-      <c r="B645" s="123"/>
-      <c r="C645" s="124">
+      <c r="B645" s="119"/>
+      <c r="C645" s="120">
         <f>SUM(C636:C643)</f>
         <v>9763</v>
       </c>
-      <c r="D645" s="123"/>
-      <c r="E645" s="123"/>
-      <c r="F645" s="123"/>
-      <c r="G645" s="123"/>
+      <c r="D645" s="119"/>
+      <c r="E645" s="119"/>
+      <c r="F645" s="119"/>
+      <c r="G645" s="119"/>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A646" s="123" t="s">
+      <c r="A646" s="119" t="s">
         <v>1257</v>
       </c>
-      <c r="B646" s="123"/>
-      <c r="C646" s="123"/>
-      <c r="D646" s="123"/>
-      <c r="E646" s="125">
+      <c r="B646" s="119"/>
+      <c r="C646" s="119"/>
+      <c r="D646" s="119"/>
+      <c r="E646" s="121">
         <f>AVERAGE(E636:E643)</f>
         <v>8.8125</v>
       </c>
-      <c r="F646" s="123"/>
-      <c r="G646" s="123"/>
+      <c r="F646" s="119"/>
+      <c r="G646" s="119"/>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A647" s="123" t="s">
+      <c r="A647" s="119" t="s">
         <v>1258</v>
       </c>
-      <c r="B647" s="123"/>
-      <c r="C647" s="124">
+      <c r="B647" s="119"/>
+      <c r="C647" s="120">
         <f>MAX(C636:C643)</f>
         <v>4000</v>
       </c>
-      <c r="D647" s="123"/>
-      <c r="E647" s="123"/>
-      <c r="F647" s="123"/>
-      <c r="G647" s="123"/>
+      <c r="D647" s="119"/>
+      <c r="E647" s="119"/>
+      <c r="F647" s="119"/>
+      <c r="G647" s="119"/>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A648" s="123" t="s">
+      <c r="A648" s="119" t="s">
         <v>1259</v>
       </c>
-      <c r="B648" s="123"/>
-      <c r="C648" s="124">
+      <c r="B648" s="119"/>
+      <c r="C648" s="120">
         <f>MIN(C636:C643)</f>
         <v>85</v>
       </c>
-      <c r="D648" s="123"/>
-      <c r="E648" s="123"/>
-      <c r="F648" s="123"/>
-      <c r="G648" s="123"/>
+      <c r="D648" s="119"/>
+      <c r="E648" s="119"/>
+      <c r="F648" s="119"/>
+      <c r="G648" s="119"/>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A649" s="123" t="s">
+      <c r="A649" s="119" t="s">
         <v>1260</v>
       </c>
-      <c r="B649" s="124">
+      <c r="B649" s="120">
         <f>COUNTA(B636:B643)</f>
         <v>8</v>
       </c>
-      <c r="C649" s="123" t="s">
+      <c r="C649" s="119" t="s">
         <v>1261</v>
       </c>
-      <c r="D649" s="123"/>
-      <c r="E649" s="123"/>
-      <c r="F649" s="123"/>
-      <c r="G649" s="123"/>
-    </row>
-    <row r="650" spans="1:9" s="123" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A650" s="123" t="s">
+      <c r="D649" s="119"/>
+      <c r="E649" s="119"/>
+      <c r="F649" s="119"/>
+      <c r="G649" s="119"/>
+    </row>
+    <row r="650" spans="1:9" s="119" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A650" s="119" t="s">
         <v>1262</v>
       </c>
-      <c r="C650" s="124">
+      <c r="C650" s="120">
         <f>COUNT(C636:C643)</f>
         <v>8</v>
       </c>
-      <c r="D650" s="123" t="s">
+      <c r="D650" s="119" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A651" s="123" t="s">
+      <c r="A651" s="119" t="s">
         <v>1264</v>
       </c>
-      <c r="C651" s="124">
+      <c r="C651" s="120">
         <f>COUNTIF(C636:C643,F651)</f>
         <v>3</v>
       </c>
-      <c r="D651" s="123" t="s">
+      <c r="D651" s="119" t="s">
         <v>782</v>
       </c>
-      <c r="E651" s="123" t="s">
+      <c r="E651" s="119" t="s">
         <v>562</v>
       </c>
-      <c r="F651" s="126" t="s">
+      <c r="F651" s="122" t="s">
         <v>1265</v>
       </c>
-      <c r="G651" s="123" t="s">
+      <c r="G651" s="119" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A652" s="127" t="s">
+      <c r="A652" s="123" t="s">
         <v>1267</v>
       </c>
-      <c r="E652" s="128">
+      <c r="E652" s="124">
         <f>AVERAGEIF(C636:C643,F651,E636:E643)</f>
         <v>9.1</v>
       </c>
-      <c r="F652" s="123" t="s">
+      <c r="F652" s="119" t="s">
         <v>1268</v>
       </c>
-      <c r="G652" s="123" t="s">
+      <c r="G652" s="119" t="s">
         <v>1269</v>
       </c>
-      <c r="H652" s="123"/>
-      <c r="I652" s="123"/>
+      <c r="H652" s="119"/>
+      <c r="I652" s="119"/>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G653" s="123" t="s">
+      <c r="G653" s="119" t="s">
         <v>1270</v>
       </c>
-      <c r="H653" s="123"/>
-      <c r="I653" s="123"/>
+      <c r="H653" s="119"/>
+      <c r="I653" s="119"/>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G654" s="123" t="s">
+      <c r="G654" s="119" t="s">
         <v>1271</v>
       </c>
-      <c r="H654" s="123"/>
-      <c r="I654" s="123"/>
+      <c r="H654" s="119"/>
+      <c r="I654" s="119"/>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G655" s="123" t="s">
+      <c r="G655" s="119" t="s">
         <v>1272</v>
       </c>
-      <c r="H655" s="123"/>
-      <c r="I655" s="123"/>
+      <c r="H655" s="119"/>
+      <c r="I655" s="119"/>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A657" s="94" t="s">
+      <c r="A657" s="90" t="s">
         <v>1273</v>
       </c>
-      <c r="B657" s="95"/>
-      <c r="C657" s="95"/>
-      <c r="D657" s="95"/>
-      <c r="E657" s="95"/>
-      <c r="F657" s="95"/>
-      <c r="G657" s="95"/>
-      <c r="H657" s="95"/>
+      <c r="B657" s="91"/>
+      <c r="C657" s="91"/>
+      <c r="D657" s="91"/>
+      <c r="E657" s="91"/>
+      <c r="F657" s="91"/>
+      <c r="G657" s="91"/>
+      <c r="H657" s="91"/>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
@@ -39975,7 +41896,7 @@
       <c r="D685" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="F685" s="129">
+      <c r="F685" s="125">
         <f>AVERAGEIF(C663:C669,H686,D663:D669)</f>
         <v>15.666666666666666</v>
       </c>
@@ -39994,16 +41915,16 @@
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A689" s="94" t="s">
+      <c r="A689" s="90" t="s">
         <v>1299</v>
       </c>
-      <c r="B689" s="95"/>
-      <c r="C689" s="95"/>
-      <c r="D689" s="95"/>
-      <c r="E689" s="95"/>
-      <c r="F689" s="95"/>
-      <c r="G689" s="95"/>
-      <c r="H689" s="95"/>
+      <c r="B689" s="91"/>
+      <c r="C689" s="91"/>
+      <c r="D689" s="91"/>
+      <c r="E689" s="91"/>
+      <c r="F689" s="91"/>
+      <c r="G689" s="91"/>
+      <c r="H689" s="91"/>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A691" s="81" t="s">
@@ -40695,14 +42616,14 @@
       <c r="A773" s="8"/>
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A779" s="107"/>
-      <c r="B779" s="107"/>
-      <c r="C779" s="107"/>
-      <c r="D779" s="107"/>
-      <c r="E779" s="107"/>
-      <c r="F779" s="107"/>
-      <c r="G779" s="107"/>
-      <c r="H779" s="107"/>
+      <c r="A779" s="103"/>
+      <c r="B779" s="103"/>
+      <c r="C779" s="103"/>
+      <c r="D779" s="103"/>
+      <c r="E779" s="103"/>
+      <c r="F779" s="103"/>
+      <c r="G779" s="103"/>
+      <c r="H779" s="103"/>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A780" s="79"/>
@@ -40715,16 +42636,16 @@
       <c r="H780" s="79"/>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A782" s="94" t="s">
+      <c r="A782" s="90" t="s">
         <v>1339</v>
       </c>
-      <c r="B782" s="95"/>
-      <c r="C782" s="95"/>
-      <c r="D782" s="95"/>
-      <c r="E782" s="95"/>
-      <c r="F782" s="95"/>
-      <c r="G782" s="95"/>
-      <c r="H782" s="95"/>
+      <c r="B782" s="91"/>
+      <c r="C782" s="91"/>
+      <c r="D782" s="91"/>
+      <c r="E782" s="91"/>
+      <c r="F782" s="91"/>
+      <c r="G782" s="91"/>
+      <c r="H782" s="91"/>
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A784" s="3" t="s">
@@ -41104,7 +43025,7 @@
       <c r="F811" s="83">
         <v>7000</v>
       </c>
-      <c r="G811" s="130">
+      <c r="G811" s="126">
         <v>0.5</v>
       </c>
     </row>
@@ -41112,22 +43033,22 @@
       <c r="A812" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="B812" s="131">
+      <c r="B812" s="127">
         <f>AVERAGE(B806:B811)</f>
         <v>85.833333333333329</v>
       </c>
-      <c r="C812" s="131">
+      <c r="C812" s="127">
         <f>AVERAGE(C806:C811)</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="D812" s="131">
+      <c r="D812" s="127">
         <f>AVERAGE(D806:D811)</f>
         <v>85.333333333333329</v>
       </c>
       <c r="E812" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="F812" s="132">
+      <c r="F812" s="128">
         <f>SUM(F806:F811)</f>
         <v>95000</v>
       </c>
@@ -41136,7 +43057,7 @@
       <c r="E813" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="F813" s="133">
+      <c r="F813" s="129">
         <f>MAX(F806:F811)</f>
         <v>23000</v>
       </c>
@@ -41148,13 +43069,13 @@
       <c r="E814" s="3" t="s">
         <v>1368</v>
       </c>
-      <c r="F814" s="134">
+      <c r="F814" s="130">
         <f>MIN(F806:F811)</f>
         <v>7000</v>
       </c>
     </row>
     <row r="815" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A815" s="134">
+      <c r="A815" s="130">
         <f>COUNTA(A806:A811)</f>
         <v>6</v>
       </c>
@@ -41166,7 +43087,7 @@
       <c r="A817" s="3" t="s">
         <v>1370</v>
       </c>
-      <c r="F817" s="134">
+      <c r="F817" s="130">
         <f>COUNT(F806:F811)</f>
         <v>6</v>
       </c>
@@ -41178,7 +43099,7 @@
       <c r="A819" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="D819" s="135">
+      <c r="D819" s="131">
         <f>COUNTIF(D806:D811,I820)</f>
         <v>3</v>
       </c>
@@ -41199,7 +43120,7 @@
       <c r="A821" s="3" t="s">
         <v>1375</v>
       </c>
-      <c r="F821" s="136">
+      <c r="F821" s="132">
         <f>AVERAGEIF(D806:D811,I821,F806:F811)</f>
         <v>15250</v>
       </c>
@@ -41211,16 +43132,16 @@
       </c>
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A823" s="94" t="s">
+      <c r="A823" s="90" t="s">
         <v>1376</v>
       </c>
-      <c r="B823" s="95"/>
-      <c r="C823" s="95"/>
-      <c r="D823" s="95"/>
-      <c r="E823" s="95"/>
-      <c r="F823" s="95"/>
-      <c r="G823" s="95"/>
-      <c r="H823" s="95"/>
+      <c r="B823" s="91"/>
+      <c r="C823" s="91"/>
+      <c r="D823" s="91"/>
+      <c r="E823" s="91"/>
+      <c r="F823" s="91"/>
+      <c r="G823" s="91"/>
+      <c r="H823" s="91"/>
     </row>
     <row r="825" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A825" s="3" t="s">
@@ -41312,7 +43233,7 @@
       <c r="B838" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="C838" s="98"/>
+      <c r="C838" s="94"/>
     </row>
     <row r="840" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A840" s="3" t="s">
@@ -41391,16 +43312,16 @@
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A853" s="94" t="s">
+      <c r="A853" s="90" t="s">
         <v>1393</v>
       </c>
-      <c r="B853" s="95"/>
-      <c r="C853" s="95"/>
-      <c r="D853" s="95"/>
-      <c r="E853" s="95"/>
-      <c r="F853" s="95"/>
-      <c r="G853" s="95"/>
-      <c r="H853" s="95"/>
+      <c r="B853" s="91"/>
+      <c r="C853" s="91"/>
+      <c r="D853" s="91"/>
+      <c r="E853" s="91"/>
+      <c r="F853" s="91"/>
+      <c r="G853" s="91"/>
+      <c r="H853" s="91"/>
     </row>
     <row r="855" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A855" s="3" t="s">
@@ -41606,7 +43527,7 @@
       <c r="A886" s="3" t="s">
         <v>1410</v>
       </c>
-      <c r="C886" s="137">
+      <c r="C886" s="133">
         <f>C884/C885</f>
         <v>0.2857142857142857</v>
       </c>
@@ -41617,16 +43538,16 @@
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A890" s="94" t="s">
+      <c r="A890" s="90" t="s">
         <v>1412</v>
       </c>
-      <c r="B890" s="95"/>
-      <c r="C890" s="95"/>
-      <c r="D890" s="95"/>
-      <c r="E890" s="95"/>
-      <c r="F890" s="95"/>
-      <c r="G890" s="95"/>
-      <c r="H890" s="95"/>
+      <c r="B890" s="91"/>
+      <c r="C890" s="91"/>
+      <c r="D890" s="91"/>
+      <c r="E890" s="91"/>
+      <c r="F890" s="91"/>
+      <c r="G890" s="91"/>
+      <c r="H890" s="91"/>
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A892" s="3" t="s">
@@ -41787,7 +43708,7 @@
       <c r="F904" s="3" t="s">
         <v>1420</v>
       </c>
-      <c r="I904" s="114">
+      <c r="I904" s="110">
         <f>AVERAGEIF(D896:D911,J900,E896:E911)</f>
         <v>56789.36363636364</v>
       </c>
@@ -41884,16 +43805,16 @@
       </c>
     </row>
     <row r="913" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A913" s="94" t="s">
+      <c r="A913" s="90" t="s">
         <v>1422</v>
       </c>
-      <c r="B913" s="95"/>
-      <c r="C913" s="95"/>
-      <c r="D913" s="95"/>
-      <c r="E913" s="95"/>
-      <c r="F913" s="95"/>
-      <c r="G913" s="95"/>
-      <c r="H913" s="95"/>
+      <c r="B913" s="91"/>
+      <c r="C913" s="91"/>
+      <c r="D913" s="91"/>
+      <c r="E913" s="91"/>
+      <c r="F913" s="91"/>
+      <c r="G913" s="91"/>
+      <c r="H913" s="91"/>
     </row>
     <row r="915" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A915" s="3" t="s">
@@ -42103,7 +44024,7 @@
         <v>1441</v>
       </c>
       <c r="H939" s="83"/>
-      <c r="I939" s="138" t="s">
+      <c r="I939" s="134" t="s">
         <v>1442</v>
       </c>
     </row>
@@ -42124,7 +44045,7 @@
         <f>SUMIF(C$935:C$941,G935,D$935:D$941)</f>
         <v>170000</v>
       </c>
-      <c r="I940" s="137">
+      <c r="I940" s="133">
         <f>H940/D$943</f>
         <v>0.61818181818181817</v>
       </c>
@@ -42146,7 +44067,7 @@
         <f t="shared" ref="H941" si="17">SUMIF(C$935:C$941,G936,D$935:D$941)</f>
         <v>85000</v>
       </c>
-      <c r="I941" s="137">
+      <c r="I941" s="133">
         <f t="shared" ref="I941:I942" si="18">H941/D$943</f>
         <v>0.30909090909090908</v>
       </c>
@@ -42159,7 +44080,7 @@
         <f>SUMIF(C$935:C$941,G937,D$935:D$941)</f>
         <v>20000</v>
       </c>
-      <c r="I942" s="137">
+      <c r="I942" s="133">
         <f t="shared" si="18"/>
         <v>7.2727272727272724E-2</v>
       </c>
@@ -42177,4 +44098,2749 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7389383C-B5CB-4643-A024-D73482D80215}">
+  <dimension ref="A1:O285"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="292" workbookViewId="0">
+      <selection activeCell="N215" sqref="N215"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="11.33203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="52" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E23" s="135"/>
+      <c r="F23" s="3" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D24" s="135" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E24" s="135"/>
+      <c r="F24" s="3" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D28" s="135" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E28" s="135"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="52" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="81"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="81"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="41" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>23489</v>
+      </c>
+      <c r="B82" s="3">
+        <v>20106</v>
+      </c>
+      <c r="C82" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>1351</v>
+      </c>
+      <c r="B83" s="3">
+        <v>13860</v>
+      </c>
+      <c r="C83" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>123</v>
+      </c>
+      <c r="B84" s="3">
+        <v>24292</v>
+      </c>
+      <c r="C84" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>156</v>
+      </c>
+      <c r="B85" s="3">
+        <v>17016</v>
+      </c>
+      <c r="C85" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>990</v>
+      </c>
+      <c r="B86" s="3">
+        <v>25967</v>
+      </c>
+      <c r="C86" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>23</v>
+      </c>
+      <c r="B87" s="3">
+        <v>23039</v>
+      </c>
+      <c r="C87" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>1</v>
+      </c>
+      <c r="B88" s="3">
+        <v>17729</v>
+      </c>
+      <c r="C88" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>12</v>
+      </c>
+      <c r="B89" s="3">
+        <v>13324</v>
+      </c>
+      <c r="C89" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I95" s="3" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K96" s="52"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>23489</v>
+      </c>
+      <c r="B97" s="3">
+        <v>20106</v>
+      </c>
+      <c r="C97" s="3">
+        <v>16</v>
+      </c>
+      <c r="G97" s="50">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>1351</v>
+      </c>
+      <c r="B98" s="3">
+        <v>13860</v>
+      </c>
+      <c r="C98" s="3">
+        <v>15</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>123</v>
+      </c>
+      <c r="B99" s="3">
+        <v>24292</v>
+      </c>
+      <c r="C99" s="3">
+        <v>11</v>
+      </c>
+      <c r="G99" s="3">
+        <v>12</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>156</v>
+      </c>
+      <c r="B100" s="3">
+        <v>17016</v>
+      </c>
+      <c r="C100" s="3">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>990</v>
+      </c>
+      <c r="B101" s="3">
+        <v>25967</v>
+      </c>
+      <c r="C101" s="3">
+        <v>15</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>23</v>
+      </c>
+      <c r="B102" s="3">
+        <v>23039</v>
+      </c>
+      <c r="C102" s="3">
+        <v>6</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>1</v>
+      </c>
+      <c r="B103" s="3">
+        <v>17729</v>
+      </c>
+      <c r="C103" s="3">
+        <v>10</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>12</v>
+      </c>
+      <c r="B104" s="3">
+        <v>13324</v>
+      </c>
+      <c r="C104" s="3">
+        <v>13</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J105" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="81" t="s">
+        <v>1532</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J107" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J108" s="3" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J109" s="3" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J110" s="3" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="41" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>23489</v>
+      </c>
+      <c r="B116" s="3">
+        <v>20106</v>
+      </c>
+      <c r="C116" s="3">
+        <v>16</v>
+      </c>
+      <c r="G116" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>1351</v>
+      </c>
+      <c r="B117" s="3">
+        <v>13860</v>
+      </c>
+      <c r="C117" s="3">
+        <v>15</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>123</v>
+      </c>
+      <c r="B118" s="3">
+        <v>24292</v>
+      </c>
+      <c r="C118" s="3">
+        <v>11</v>
+      </c>
+      <c r="G118" s="50">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>156</v>
+      </c>
+      <c r="B119" s="3">
+        <v>17016</v>
+      </c>
+      <c r="C119" s="3">
+        <v>16</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>990</v>
+      </c>
+      <c r="B120" s="3">
+        <v>25967</v>
+      </c>
+      <c r="C120" s="3">
+        <v>15</v>
+      </c>
+      <c r="G120" s="50">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>23</v>
+      </c>
+      <c r="B121" s="3">
+        <v>23039</v>
+      </c>
+      <c r="C121" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>1</v>
+      </c>
+      <c r="B122" s="3">
+        <v>17729</v>
+      </c>
+      <c r="C122" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>12</v>
+      </c>
+      <c r="B123" s="3">
+        <v>13324</v>
+      </c>
+      <c r="C123" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="41" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J138" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>1</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C139" s="3">
+        <v>1</v>
+      </c>
+      <c r="D139" s="3">
+        <v>80</v>
+      </c>
+      <c r="E139" s="3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F139" s="3">
+        <v>7</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>2</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D140" s="3">
+        <v>90</v>
+      </c>
+      <c r="E140" s="3">
+        <v>3.32</v>
+      </c>
+      <c r="F140" s="3">
+        <v>8</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>3</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D141" s="3">
+        <v>110</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="F141" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>4</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D142" s="3">
+        <v>75</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="F142" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>5</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D143" s="3">
+        <v>13</v>
+      </c>
+      <c r="E143" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="F143" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>6</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D144" s="3">
+        <v>20</v>
+      </c>
+      <c r="E144" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="F144" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>7</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="D145" s="3">
+        <v>70</v>
+      </c>
+      <c r="E145" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="F145" s="3">
+        <v>8</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>8</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="D146" s="3">
+        <v>99</v>
+      </c>
+      <c r="E146" s="3">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F146" s="3">
+        <v>7</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H147" s="3" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="D151" s="52" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D152" s="52" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="D153" s="52" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D154" s="52" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D155" s="52" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="41" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B157" s="41"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
+      <c r="F157" s="41"/>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H161" s="50">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>1</v>
+      </c>
+      <c r="B162" s="3">
+        <v>85</v>
+      </c>
+      <c r="C162" s="3">
+        <v>53</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="H162" s="50">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <f>A162+1</f>
+        <v>2</v>
+      </c>
+      <c r="B163" s="3">
+        <v>76</v>
+      </c>
+      <c r="C163" s="3">
+        <v>59</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="H163" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <f t="shared" ref="A164:A172" si="0">A163+1</f>
+        <v>3</v>
+      </c>
+      <c r="B164" s="3">
+        <v>91</v>
+      </c>
+      <c r="C164" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B165" s="3">
+        <v>78</v>
+      </c>
+      <c r="C165" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B166" s="3">
+        <v>82</v>
+      </c>
+      <c r="C166" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B167" s="3">
+        <v>75</v>
+      </c>
+      <c r="C167" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B168" s="3">
+        <v>89</v>
+      </c>
+      <c r="C168" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B169" s="3">
+        <v>81</v>
+      </c>
+      <c r="C169" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B170" s="3">
+        <v>97</v>
+      </c>
+      <c r="C170" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B171" s="3">
+        <v>83</v>
+      </c>
+      <c r="C171" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B172" s="3">
+        <v>99</v>
+      </c>
+      <c r="C172" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E178" s="52" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E179" s="52" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="E180" s="52" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E181" s="52" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="41" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B184" s="41"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="41"/>
+      <c r="E184" s="41"/>
+      <c r="F184" s="41"/>
+      <c r="G184" s="41"/>
+      <c r="H184" s="41"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="135" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B189" s="135"/>
+      <c r="D189" s="135" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E189" s="135"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D201" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D202" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D203" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D204" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D205" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D206" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A211" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K212" s="3" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A213" s="135" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B213" s="135"/>
+      <c r="D213" s="135" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E213" s="135"/>
+      <c r="G213" s="135" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H213" s="135"/>
+      <c r="I213" s="135"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A215" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="N215" s="52"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A217" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="N218" s="3" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A220" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="M222" s="3" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A223" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D225" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D226" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D227" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D228" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D229" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D230" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A232" s="3" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A235" s="3" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A240" s="41" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B240" s="41"/>
+      <c r="C240" s="41"/>
+      <c r="D240" s="41"/>
+      <c r="E240" s="41"/>
+      <c r="F240" s="41"/>
+      <c r="G240" s="41"/>
+      <c r="H240" s="41"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="3" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="3" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="135" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B245" s="135"/>
+      <c r="D245" s="135" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E245" s="135"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D257" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D258" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D259" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D260" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D261" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D262" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A264" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A265" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A266" s="3" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A268" s="135" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B268" s="135"/>
+      <c r="D268" s="135" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E268" s="135"/>
+      <c r="G268" s="135" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H268" s="135"/>
+      <c r="I268" s="135"/>
+      <c r="L268" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A270" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I270" s="3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G270,A$269:B$279,2,0),L$269)</f>
+        <v>כן</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A271" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I271" s="3" t="str">
+        <f t="shared" ref="I271:I285" si="1">_xlfn.IFNA(VLOOKUP(G271,A$269:B$279,2,0),L$269)</f>
+        <v>אין מידע</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A272" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I272" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>לא</v>
+      </c>
+      <c r="N272" s="3" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A273" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I273" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>כן</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A274" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I274" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>אין מידע</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A275" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I275" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>לא</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A276" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I276" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>כן</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A277" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I277" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>לא</v>
+      </c>
+      <c r="N277" s="3" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I278" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>אין מידע</v>
+      </c>
+      <c r="O278" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A279" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I279" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>לא</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="M279" s="3" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D280" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I280" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>אין מידע</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="M280" s="3" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D281" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I281" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>כן</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D282" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I282" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>אין מידע</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D283" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I283" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>אין מידע</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D284" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I284" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>לא</v>
+      </c>
+      <c r="N284" s="3" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D285" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I285" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>כן</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="G213:I213"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="G268:I268"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="D213:E213"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Couresebook - Tuesdays Group - Excel BUS - 2025 B.xlsx
+++ b/Couresebook - Tuesdays Group - Excel BUS - 2025 B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/PAC - Excel/2025B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62803B44-B7D9-F54B-8008-C76CD2C84951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ECE0D6-B8B0-ED40-851B-42C3FDBE3377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="50320" windowHeight="31500" activeTab="4" xr2:uid="{1D10E3F4-E20D-6C4D-B69D-62A15CF0947A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32960" windowHeight="20100" activeTab="4" xr2:uid="{1D10E3F4-E20D-6C4D-B69D-62A15CF0947A}"/>
   </bookViews>
   <sheets>
     <sheet name="מפגש 1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="1703">
   <si>
     <t>ניתוח מידע עסקי ממוחשב - Excel - עם שייקה: סמסטר 2025א, מפגש 1</t>
   </si>
@@ -5341,9 +5341,6 @@
     <t>שעות ביום</t>
   </si>
   <si>
-    <t>נדרש: עליכם ליצור עמודה חדשה שתיקרא ״שכר כולל פרמיה״. בעמודה זו, אתם תחשבו תוספת שכר של 30% למי</t>
-  </si>
-  <si>
     <t>שמועסק מעל 12 שעות ביום (בעמודה ייכללו ערכי התוספת ולא השכר כולל תוספת).</t>
   </si>
   <si>
@@ -5365,9 +5362,6 @@
     <t>התנאי:</t>
   </si>
   <si>
-    <t>המטרה לבדוק תנאי</t>
-  </si>
-  <si>
     <t xml:space="preserve">במידה </t>
   </si>
   <si>
@@ -5375,9 +5369,6 @@
   </si>
   <si>
     <t xml:space="preserve">שמס׳ </t>
-  </si>
-  <si>
-    <t>על כל שורה בנפרד</t>
   </si>
   <si>
     <t>והתנאי</t>
@@ -6009,6 +6000,124 @@
       </rPr>
       <t>=IFNA(VLOOKUP(G270,A$269:B$279,2,0),L$269)</t>
     </r>
+  </si>
+  <si>
+    <t>נדרש: עליכם ליצור עמודה חדשה שתיקרא ״תוספת שכר״. בעמודה זו, אתם תחשבו תוספת שכר של 30% למי</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>=IF(logical_test,value_if_true,value_if_false)</t>
+    </r>
+  </si>
+  <si>
+    <t>logical_test</t>
+  </si>
+  <si>
+    <t>התנאי שאותו בודקים</t>
+  </si>
+  <si>
+    <t>מה להציג במידה ומתקיים</t>
+  </si>
+  <si>
+    <t>מה להציג בכל מקרה אחר</t>
+  </si>
+  <si>
+    <t>התשובה כאן</t>
+  </si>
+  <si>
+    <t>אין בונוס</t>
+  </si>
+  <si>
+    <t>ולכן</t>
+  </si>
+  <si>
+    <t>תזכורת: נוסחת IF</t>
+  </si>
+  <si>
+    <t>=IF(logical_test,value_if_true,value_if_false)</t>
+  </si>
+  <si>
+    <t>התשובה לא נכונה, משום שכוללת הפניה לתאי העזר הקבועים ללא קיבוע.</t>
+  </si>
+  <si>
+    <t>התשובה לא נכונה, היא מגדירה בונוס של 2% כאשר התנאי מתקיים.</t>
+  </si>
+  <si>
+    <t>נפסלת מיד, הואיל וכוללת קיבוע של שעות העובד (אין סיבה להמשיך לקרוא).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נפסלת מיד, הואיל ונדרש ערך של ״לפחות״ (גדול שווה) 13 ולא גדול מ-13. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">התשובה </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>נכונה</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>. התנאי מוגדר היטב, וכל תאי העזר שצריכים להשאר קבועים - אכן כאלו.</t>
+    </r>
+  </si>
+  <si>
+    <t>מיד בהתחלה רואים שרמת הביקוש לנקניק הספציפי קובעה F$139. זו שגיאה - כשנגרור למטה נרצה שהביקוש ישתנה לנקניק הבא</t>
+  </si>
+  <si>
+    <t>הדבר היחיד שיותר גרוע מהגדרת התנאי באיבר הראשון בנוסחה זה הבקרים עם האקסית</t>
+  </si>
+  <si>
+    <t>זו התשובה הנכונה. שתי התוצאות האפשריות (כן / לא) צריכות להיות מקובעות ברמת השורה</t>
+  </si>
+  <si>
+    <t>קודם כל התנאי הוא:</t>
+  </si>
+  <si>
+    <t>C162&lt;H$163</t>
+  </si>
+  <si>
+    <t>כי התנאי למעבר - ציון 60, קבוע ובתא H$163</t>
+  </si>
+  <si>
+    <t>אם קטנים מערך זה, אז:</t>
+  </si>
+  <si>
+    <t>C162</t>
+  </si>
+  <si>
+    <t>כי הפלט הוא ציון הבחינה.</t>
+  </si>
+  <si>
+    <t>אחרת משקללים C162*H$161+B162*H$162</t>
+  </si>
+  <si>
+    <t>תשובה א</t>
+  </si>
+  <si>
+    <t>SHAY TSABAN</t>
   </si>
 </sst>
 </file>
@@ -24084,15 +24193,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>280737</xdr:colOff>
+      <xdr:colOff>121100</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>49018</xdr:rowOff>
+      <xdr:rowOff>38376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>699614</xdr:colOff>
+      <xdr:colOff>539977</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>191615</xdr:rowOff>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24107,7 +24216,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13518513886" y="28116018"/>
+          <a:off x="13536102677" y="27971281"/>
           <a:ext cx="418877" cy="142597"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -24263,16 +24372,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>686246</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>182702</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>225426</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>171350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>102492</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:colOff>231825</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>38968</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24286,9 +24395,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="13515809008" y="19512102"/>
-          <a:ext cx="241746" cy="308364"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13532182619" y="18949207"/>
+          <a:ext cx="6399" cy="270793"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24317,15 +24426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>236176</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>200527</xdr:rowOff>
+      <xdr:colOff>462961</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>3979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>236176</xdr:colOff>
+      <xdr:colOff>462961</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>115859</xdr:rowOff>
+      <xdr:rowOff>120898</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24340,8 +24449,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13516500824" y="19529927"/>
-          <a:ext cx="0" cy="321732"/>
+          <a:off x="13532777991" y="19386598"/>
+          <a:ext cx="0" cy="318506"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24370,68 +24479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>387684</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>433997</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>387684</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8541</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>120315</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5649D0-BEDA-1D43-977E-023866DCA304}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13517174816" y="19532601"/>
-          <a:ext cx="0" cy="323514"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>418878</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>819930</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:rowOff>64507</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24446,8 +24502,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13517568070" y="19532601"/>
-          <a:ext cx="401052" cy="287865"/>
+          <a:off x="13533232411" y="19362461"/>
+          <a:ext cx="401052" cy="286252"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24895,6 +24951,651 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504519</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>160926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>743731</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>34795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rounded Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B51C2BC-FE00-D3BB-1DA4-016BD2A8D750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13531062775" y="15927193"/>
+          <a:ext cx="3544692" cy="1509212"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>שימו לב:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>בשונה מ-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>AVERAGEIF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t> ו-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>COUNTIF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0"/>
+            <a:t> שאמנם בודקות תנאים גם הן, פונקציית </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>IF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0"/>
+            <a:t> מסוגלת:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0"/>
+            <a:t>א. לתת הנחיות מאד גמישות (לבצע חישוב ספציפי, כמו תוספת של 30%). </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" baseline="0"/>
+            <a:t>ב. לבצע את החישוב על כל ״תא״ או ״שורה״ בנפרד, ולא רק על סך התאים. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13047</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>8699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>78287</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>156576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Down Arrow 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C97D03C5-1EB1-63B9-A59D-F377F92EA5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13532554589" y="17819144"/>
+          <a:ext cx="65240" cy="147877"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>774178</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13048</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>147878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Down Arrow 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A21B85D-498B-FC86-376E-2D2FF9BBEC12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13533446198" y="17810446"/>
+          <a:ext cx="65240" cy="147877"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447980</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>13049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>513220</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>160926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Down Arrow 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E195B781-8A7E-F7DF-360F-536DFCA5FCA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13534598766" y="17823494"/>
+          <a:ext cx="65240" cy="147877"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>102878</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>163185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>443437</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>28381</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rounded Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB11ABA-F29A-CA23-8781-8EAA1AA5FB70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13536199217" y="33353464"/>
+          <a:ext cx="1167123" cy="471816"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>תנאי: ציון בחינה נמוך מ-60</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138352</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>21285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464721</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>124162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773D1B8A-EA4D-0FB6-C3A1-A27822113377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13537004497" y="33818184"/>
+          <a:ext cx="326369" cy="507291"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>475364</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>127709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>532123</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>195112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rounded Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BAFE1C-0AEA-813B-6C70-59DD396EA33F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13536937095" y="34329022"/>
+          <a:ext cx="883324" cy="471816"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>פלט: ציון הבחינה</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>163185</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>31928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>617263</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>166732</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C792567-A76E-340E-2CFE-40744DC534EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13536025391" y="33828827"/>
+          <a:ext cx="454078" cy="539218"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312180</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>159636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56761</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>3547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rounded Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C2339C-508D-A1CD-7EDA-5BBE26EBD0C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13534932765" y="34360949"/>
+          <a:ext cx="1397709" cy="652738"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>60%*בחינה</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100"/>
+            <a:t>40% * עבודות</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219944</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>17737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>783995</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>61734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AACA46B-DCA5-C7F5-0A21-2FA7DF94C426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13538338352" y="32803603"/>
+          <a:ext cx="1426090" cy="448410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -44104,8 +44805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7389383C-B5CB-4643-A024-D73482D80215}">
   <dimension ref="A1:O285"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="292" workbookViewId="0">
-      <selection activeCell="N215" sqref="N215"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A258" zoomScale="306" workbookViewId="0">
+      <selection activeCell="E262" sqref="E262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44434,7 +45135,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>1506</v>
       </c>
@@ -44445,7 +45146,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>23489</v>
       </c>
@@ -44456,7 +45157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>1351</v>
       </c>
@@ -44467,7 +45168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>123</v>
       </c>
@@ -44478,7 +45179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>156</v>
       </c>
@@ -44489,7 +45190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>990</v>
       </c>
@@ -44499,8 +45200,11 @@
       <c r="C86" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>23</v>
       </c>
@@ -44510,8 +45214,14 @@
       <c r="C87" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I87" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>1</v>
       </c>
@@ -44521,8 +45231,11 @@
       <c r="C88" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>12</v>
       </c>
@@ -44532,28 +45245,62 @@
       <c r="C89" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E89" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I90" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I95" s="3" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>1506</v>
       </c>
@@ -44564,14 +45311,18 @@
         <v>1508</v>
       </c>
       <c r="D96" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>1512</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>1513</v>
-      </c>
       <c r="K96" s="52"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D97)</f>
+        <v>=IF(C97&gt;G$99,B97*G$97,0)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>23489</v>
       </c>
@@ -44581,11 +45332,15 @@
       <c r="C97" s="3">
         <v>16</v>
       </c>
+      <c r="D97" s="3">
+        <f>IF(C97&gt;G$99,B97*G$97,0)</f>
+        <v>6031.8</v>
+      </c>
       <c r="G97" s="50">
         <v>0.3</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>1351</v>
       </c>
@@ -44595,14 +45350,15 @@
       <c r="C98" s="3">
         <v>15</v>
       </c>
+      <c r="D98" s="3">
+        <f t="shared" ref="D98:D104" si="0">IF(C98&gt;G$99,B98*G$97,0)</f>
+        <v>4158</v>
+      </c>
       <c r="G98" s="3" t="s">
-        <v>1514</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>123</v>
       </c>
@@ -44612,23 +45368,21 @@
       <c r="C99" s="3">
         <v>11</v>
       </c>
+      <c r="D99" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G99" s="3">
         <v>12</v>
       </c>
-      <c r="I99" s="3" t="s">
-        <v>1515</v>
-      </c>
       <c r="J99" s="3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>1516</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>156</v>
       </c>
@@ -44638,20 +45392,18 @@
       <c r="C100" s="3">
         <v>16</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>1518</v>
+      <c r="D100" s="3">
+        <f t="shared" si="0"/>
+        <v>5104.8</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>990</v>
       </c>
@@ -44661,17 +45413,18 @@
       <c r="C101" s="3">
         <v>15</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>1522</v>
+      <c r="D101" s="3">
+        <f>IF(C101&gt;G$99,B101*G$97,0)</f>
+        <v>7790.0999999999995</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>23</v>
       </c>
@@ -44681,17 +45434,18 @@
       <c r="C102" s="3">
         <v>6</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="D102" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="3" t="s">
         <v>1482</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>1525</v>
-      </c>
       <c r="K102" s="3" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>1</v>
       </c>
@@ -44701,14 +45455,18 @@
       <c r="C103" s="3">
         <v>10</v>
       </c>
+      <c r="D103" s="3">
+        <f>IF(C103&gt;G$99,B103*G$97,0)</f>
+        <v>0</v>
+      </c>
       <c r="J103" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="K103" s="3" t="s">
         <v>1483</v>
       </c>
-      <c r="K103" s="3" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>12</v>
       </c>
@@ -44718,58 +45476,59 @@
       <c r="C104" s="3">
         <v>13</v>
       </c>
+      <c r="D104" s="3">
+        <f>IF(C104&gt;G$99,B104*G$97,0)</f>
+        <v>3997.2</v>
+      </c>
       <c r="J104" s="3" t="s">
-        <v>1528</v>
+        <v>1682</v>
       </c>
       <c r="K104" s="3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J105" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="81" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J105" s="3" t="s">
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+      <c r="K106" s="3" t="s">
         <v>1530</v>
       </c>
-      <c r="K105" s="3" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="81" t="s">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K107" s="3" t="s">
         <v>1532</v>
       </c>
-      <c r="J106" s="3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="K106" s="3" t="s">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K108" s="3" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J107" s="3" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K109" s="3" t="s">
         <v>1535</v>
       </c>
-      <c r="K107" s="3" t="s">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K110" s="3" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J108" s="3" t="s">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="41" t="s">
         <v>1537</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J109" s="3" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J110" s="3" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="41" t="s">
-        <v>1540</v>
       </c>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -44779,12 +45538,12 @@
       <c r="G111" s="41"/>
       <c r="H111" s="41"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>1506</v>
       </c>
@@ -44795,13 +45554,13 @@
         <v>1508</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>23489</v>
       </c>
@@ -44815,7 +45574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>1351</v>
       </c>
@@ -44826,10 +45585,10 @@
         <v>15</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>123</v>
       </c>
@@ -44843,7 +45602,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>156</v>
       </c>
@@ -44854,10 +45613,10 @@
         <v>16</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>990</v>
       </c>
@@ -44871,7 +45630,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>23</v>
       </c>
@@ -44882,7 +45641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>1</v>
       </c>
@@ -44892,8 +45651,14 @@
       <c r="C122" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D122" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H122" s="52" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>12</v>
       </c>
@@ -44904,30 +45669,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>832</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>1547</v>
+        <v>1544</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>1549</v>
+        <v>1546</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -44935,7 +45706,10 @@
         <v>106</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>1550</v>
+        <v>1547</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
@@ -44943,7 +45717,10 @@
         <v>108</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>1551</v>
+        <v>1548</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -44951,12 +45728,15 @@
         <v>1386</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>1552</v>
+        <v>1549</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="41" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
@@ -44968,33 +45748,33 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>1555</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="E138" s="3" t="s">
         <v>1556</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="F138" s="3" t="s">
         <v>1557</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="G138" s="3" t="s">
         <v>1558</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>1559</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>1560</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>1561</v>
-      </c>
       <c r="I138" s="3" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="J138" s="3">
         <v>6</v>
@@ -45019,6 +45799,7 @@
       <c r="F139" s="3">
         <v>7</v>
       </c>
+      <c r="G139" s="15"/>
       <c r="I139" s="3" t="s">
         <v>1031</v>
       </c>
@@ -45028,7 +45809,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="C140" s="3">
         <v>1.5</v>
@@ -45051,7 +45832,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="C141" s="3">
         <v>0.8</v>
@@ -45071,7 +45852,7 @@
         <v>4</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="C142" s="3">
         <v>0.4</v>
@@ -45111,7 +45892,7 @@
         <v>6</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="C144" s="3">
         <v>0.8</v>
@@ -45131,7 +45912,7 @@
         <v>7</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C145" s="3">
         <v>1.4</v>
@@ -45146,7 +45927,7 @@
         <v>8</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -45154,7 +45935,7 @@
         <v>8</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="C146" s="3">
         <v>1.8</v>
@@ -45169,22 +45950,22 @@
         <v>7</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H147" s="3" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -45192,15 +45973,21 @@
         <v>832</v>
       </c>
       <c r="D151" s="52" t="s">
-        <v>1573</v>
+        <v>1570</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>1691</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="D152" s="52" t="s">
-        <v>1574</v>
+        <v>1571</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>1691</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -45208,15 +45995,18 @@
         <v>908</v>
       </c>
       <c r="D153" s="52" t="s">
-        <v>1575</v>
+        <v>1572</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="D154" s="52" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -45224,12 +46014,15 @@
         <v>1386</v>
       </c>
       <c r="D155" s="52" t="s">
-        <v>1578</v>
+        <v>1575</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="41" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="B157" s="41"/>
       <c r="C157" s="41"/>
@@ -45241,15 +46034,15 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>1342</v>
@@ -45274,8 +46067,9 @@
       <c r="C162" s="3">
         <v>53</v>
       </c>
+      <c r="D162" s="15"/>
       <c r="G162" s="3" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="H162" s="50">
         <v>0.4</v>
@@ -45293,7 +46087,7 @@
         <v>59</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="H163" s="3">
         <v>60</v>
@@ -45301,7 +46095,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <f t="shared" ref="A164:A172" si="0">A163+1</f>
+        <f t="shared" ref="A164:A172" si="1">A163+1</f>
         <v>3</v>
       </c>
       <c r="B164" s="3">
@@ -45313,7 +46107,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B165" s="3">
@@ -45325,7 +46119,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B166" s="3">
@@ -45337,7 +46131,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B167" s="3">
@@ -45349,7 +46143,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B168" s="3">
@@ -45361,7 +46155,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B169" s="3">
@@ -45370,10 +46164,16 @@
       <c r="C169" s="3">
         <v>59</v>
       </c>
+      <c r="G169" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B170" s="3">
@@ -45385,7 +46185,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B171" s="3">
@@ -45397,7 +46197,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B172" s="3">
@@ -45409,62 +46209,88 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>1416</v>
       </c>
       <c r="E178" s="52" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1585</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E179" s="52" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1586</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>908</v>
       </c>
       <c r="E180" s="52" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1587</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="E181" s="52" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1588</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>1386</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1589</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G183" s="3" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="41" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="B184" s="41"/>
       <c r="C184" s="41"/>
@@ -45474,32 +46300,32 @@
       <c r="G184" s="41"/>
       <c r="H184" s="41"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="135" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="B189" s="135"/>
       <c r="D189" s="135" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E189" s="135"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>811</v>
@@ -45508,7 +46334,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>1038</v>
       </c>
@@ -45519,110 +46345,110 @@
         <v>1038</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>1033</v>
@@ -45631,21 +46457,21 @@
         <v>1046</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -45653,12 +46479,12 @@
         <v>683</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D202" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>197</v>
@@ -45666,10 +46492,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D203" s="3" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -45677,12 +46503,12 @@
         <v>1049</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D205" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>377</v>
@@ -45690,7 +46516,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D206" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>373</v>
@@ -45698,12 +46524,12 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
@@ -45713,30 +46539,30 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K212" s="3" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="135" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="B213" s="135"/>
       <c r="D213" s="135" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E213" s="135"/>
       <c r="G213" s="135" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="H213" s="135"/>
       <c r="I213" s="135"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>811</v>
@@ -45751,7 +46577,7 @@
         <v>1102</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
@@ -45765,207 +46591,242 @@
         <v>1038</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>1038</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>1600</v>
-      </c>
-      <c r="N215" s="52"/>
+        <v>1597</v>
+      </c>
+      <c r="I215" s="3" t="str">
+        <f>VLOOKUP(G215,A$214:B$224,2,0)</f>
+        <v>כן</v>
+      </c>
+      <c r="N215" s="52" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(I215)</f>
+        <v>=VLOOKUP(G215,A$214:B$224,2,0)</v>
+      </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>1603</v>
+        <v>1600</v>
+      </c>
+      <c r="I216" s="3" t="e">
+        <f t="shared" ref="I216:I230" si="2">VLOOKUP(G216,A$214:B$224,2,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>1606</v>
+        <v>1603</v>
+      </c>
+      <c r="I217" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>לא</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="N217" s="3" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>1609</v>
+        <v>1606</v>
+      </c>
+      <c r="I218" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>כן</v>
       </c>
       <c r="K218" s="3" t="s">
         <v>1151</v>
       </c>
       <c r="L218" s="3" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="N218" s="3" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>1611</v>
+        <v>1608</v>
+      </c>
+      <c r="I219" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="N219" s="3" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>1613</v>
+        <v>1610</v>
+      </c>
+      <c r="I220" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>לא</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>1616</v>
+        <v>1613</v>
+      </c>
+      <c r="I221" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>כן</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>1617</v>
+        <v>1614</v>
+      </c>
+      <c r="I222" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>לא</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>1033</v>
@@ -45974,48 +46835,56 @@
         <v>1046</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>1046</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>1618</v>
+        <v>1615</v>
+      </c>
+      <c r="I223" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>1620</v>
+        <v>1617</v>
+      </c>
+      <c r="I224" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>לא</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -46023,56 +46892,68 @@
         <v>683</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>683</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>1621</v>
+        <v>1618</v>
+      </c>
+      <c r="I225" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D226" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="H226" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="I226" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>כן</v>
+      </c>
       <c r="K226" s="3" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D227" s="3" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>1623</v>
+        <v>1620</v>
+      </c>
+      <c r="I227" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -46080,64 +46961,76 @@
         <v>1049</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>1049</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>1624</v>
+        <v>1621</v>
+      </c>
+      <c r="I228" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D229" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>377</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="H229" s="3" t="s">
         <v>377</v>
       </c>
+      <c r="I229" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>לא</v>
+      </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D230" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>373</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="H230" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="I230" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>כן</v>
+      </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="41" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="B240" s="41"/>
       <c r="C240" s="41"/>
@@ -46149,30 +47042,30 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="135" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="B245" s="135"/>
       <c r="D245" s="135" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E245" s="135"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>811</v>
@@ -46192,110 +47085,110 @@
         <v>1038</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>1033</v>
@@ -46304,21 +47197,21 @@
         <v>1046</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
@@ -46326,12 +47219,12 @@
         <v>683</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D258" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>197</v>
@@ -46339,10 +47232,10 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D259" s="3" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
@@ -46350,12 +47243,15 @@
         <v>1049</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C261" s="3" t="s">
+        <v>1702</v>
+      </c>
       <c r="D261" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>377</v>
@@ -46363,7 +47259,7 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D262" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>373</v>
@@ -46371,36 +47267,36 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="135" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="B268" s="135"/>
       <c r="D268" s="135" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E268" s="135"/>
       <c r="G268" s="135" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="H268" s="135"/>
       <c r="I268" s="135"/>
@@ -46410,10 +47306,10 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>811</v>
@@ -46428,10 +47324,10 @@
         <v>1102</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L269" s="3" t="s">
-        <v>1664</v>
+        <v>1596</v>
+      </c>
+      <c r="L269" s="15" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
@@ -46445,13 +47341,13 @@
         <v>1038</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>1038</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="I270" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(G270,A$269:B$279,2,0),L$269)</f>
@@ -46460,193 +47356,193 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="I271" s="3" t="str">
-        <f t="shared" ref="I271:I285" si="1">_xlfn.IFNA(VLOOKUP(G271,A$269:B$279,2,0),L$269)</f>
+        <f>_xlfn.IFNA(VLOOKUP(G271,A$269:B$279,2,0),L$269)</f>
         <v>אין מידע</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="I272" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(VLOOKUP(G272,A$269:B$279,2,0),L$269)</f>
         <v>לא</v>
       </c>
       <c r="N272" s="3" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="I273" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(VLOOKUP(G273,A$269:B$279,2,0),L$269)</f>
         <v>כן</v>
       </c>
       <c r="K273" s="3" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="I274" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(VLOOKUP(G274,A$269:B$279,2,0),L$269)</f>
         <v>אין מידע</v>
       </c>
       <c r="K274" s="3" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="I275" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(VLOOKUP(G275,A$269:B$279,2,0),L$269)</f>
         <v>לא</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="I276" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(VLOOKUP(G276,A$269:B$279,2,0),L$269)</f>
         <v>כן</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="I277" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFNA(VLOOKUP(G277,A$269:B$279,2,0),L$269)</f>
         <v>לא</v>
       </c>
       <c r="N277" s="3" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>1033</v>
@@ -46655,16 +47551,16 @@
         <v>1046</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>1046</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="I278" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I278:I285" si="3">_xlfn.IFNA(VLOOKUP(G278,A$269:B$279,2,0),L$269)</f>
         <v>אין מידע</v>
       </c>
       <c r="O278" s="3" t="s">
@@ -46673,32 +47569,32 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="I279" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>לא</v>
       </c>
       <c r="K279" s="3" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="M279" s="3" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.2">
@@ -46706,61 +47602,61 @@
         <v>683</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>683</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="I280" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>אין מידע</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="M280" s="3" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D281" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>197</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="H281" s="3" t="s">
         <v>197</v>
       </c>
       <c r="I281" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>כן</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D282" s="3" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="I282" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>אין מידע</v>
       </c>
     </row>
@@ -46769,58 +47665,58 @@
         <v>1049</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>1049</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="I283" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>אין מידע</v>
       </c>
       <c r="K283" s="3" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D284" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>377</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="H284" s="3" t="s">
         <v>377</v>
       </c>
       <c r="I284" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>לא</v>
       </c>
       <c r="N284" s="3" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D285" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>373</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="H285" s="3" t="s">
         <v>373</v>
       </c>
       <c r="I285" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>כן</v>
       </c>
     </row>
